--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test2/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.62</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.682</v>
+        <v>15.957</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2561023699.095</v>
+        <v>-0.167</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1421824.79</v>
+        <v>30.352</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.966</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.021</v>
+        <v>8.141999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1695338.747031088</v>
+        <v>21.6345646650584</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-2104425.104492028</v>
+        <v>21.62600037644528</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-1032701.664552782</v>
+        <v>21.63316066690664</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2803346.226528734</v>
+        <v>21.59064078626389</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1828946.220245607</v>
+        <v>21.61247042158887</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1607189.775732549</v>
+        <v>21.61564099875677</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-2353776.15273538</v>
+        <v>21.59879614880852</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-145728.2578002291</v>
+        <v>21.64400281484568</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>14044.96068904188</v>
+        <v>21.64998154108706</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1489924.643642845</v>
+        <v>21.60000508966223</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-1143757.344941816</v>
+        <v>21.61994195364871</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-1001184.019499833</v>
+        <v>21.62421429491302</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-880577.4559894118</v>
+        <v>21.60972943346924</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1766455.229135817</v>
+        <v>21.58489597915254</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-949782.3682251748</v>
+        <v>21.60703277619946</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-903557.9752573615</v>
+        <v>21.6318203435254</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-338865.7542996434</v>
+        <v>21.62989089560613</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>87328.33478696119</v>
+        <v>21.64154574232143</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1285999.183304283</v>
+        <v>21.57859939953028</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1040845.40117059</v>
+        <v>21.5840350565696</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-810628.8928937647</v>
+        <v>21.59917534909208</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1793684.107433536</v>
+        <v>21.55979568934846</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-802362.8331951349</v>
+        <v>21.61558111341457</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-981242.6818042125</v>
+        <v>21.63235042180898</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-417840.3426550032</v>
+        <v>21.65271074293776</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-197619.6753830716</v>
+        <v>21.65381152370394</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-2341156.233748061</v>
+        <v>21.59845230018422</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>292829.1284681698</v>
+        <v>21.66352562518536</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>370755.3186392485</v>
+        <v>21.66273185449057</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-2127848.124882744</v>
+        <v>21.60871476434745</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1519209.24370069</v>
+        <v>21.69495892568905</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1227738.561777455</v>
+        <v>21.69498488203905</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>810103.3542179212</v>
+        <v>21.6957990832333</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1429372.206825456</v>
+        <v>21.71189475951766</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1530052.920296604</v>
+        <v>21.71575743603683</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-309006.9843209522</v>
+        <v>21.6392504335109</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>358233.3356107704</v>
+        <v>21.68063510616686</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>652647.5886103826</v>
+        <v>21.68839809773316</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-498467.4685960892</v>
+        <v>21.62286074450939</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>182820.206738117</v>
+        <v>21.66580063386172</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>366015.1389527806</v>
+        <v>21.6772062339119</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-1029250.525471176</v>
+        <v>21.58674635267571</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-103323.1484950049</v>
+        <v>21.65428824485642</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>489504.0519722287</v>
+        <v>21.67422674280596</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>766745.3874644483</v>
+        <v>21.69846415745815</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-1770009.405791957</v>
+        <v>21.61747050002388</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-660912.7698889719</v>
+        <v>21.64053802028134</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-214354.5764167212</v>
+        <v>21.64750412078584</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-2617140.531924109</v>
+        <v>21.59351973867051</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>255299.749683111</v>
+        <v>21.66014812721289</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>681421.0208261856</v>
+        <v>21.66730606199871</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-2165720.524004743</v>
+        <v>21.60444105058276</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1882153.236145954</v>
+        <v>21.6927313939207</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1944495.988274205</v>
+        <v>21.69922881647533</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1178017.438997718</v>
+        <v>21.69549297997429</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1527282.237068175</v>
+        <v>21.70898097448032</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1897011.408993584</v>
+        <v>21.72096721424642</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-1038811.960736884</v>
+        <v>21.61540046012437</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-21227.03896542237</v>
+        <v>21.6681788801244</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>498740.34166751</v>
+        <v>21.68264187552244</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-847257.0435330538</v>
+        <v>21.60088503617614</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-66560.86818175722</v>
+        <v>21.64671225380695</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>286779.3540525872</v>
+        <v>21.66936709807056</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-1197870.490233598</v>
+        <v>21.57316651258823</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-330094.5584152168</v>
+        <v>21.64295312101659</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>656013.024006137</v>
+        <v>21.67723751018661</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-1450140.102371269</v>
+        <v>21.57241279276466</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>622947.8240499904</v>
+        <v>21.69253660241596</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-3534159.043737185</v>
+        <v>21.61543801135655</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-1760249.592561159</v>
+        <v>21.6313758904801</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-712907.4661163713</v>
+        <v>21.64381749082661</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-3749739.871472031</v>
+        <v>21.60587445629105</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>262343.2316543814</v>
+        <v>21.65341274490651</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>852940.3783815901</v>
+        <v>21.66677567948916</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-3947195.363424369</v>
+        <v>21.60810509460969</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1874597.701211836</v>
+        <v>21.67589273955861</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2405458.30633281</v>
+        <v>21.68841676337983</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>472497.043454434</v>
+        <v>21.65706715406742</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>884163.1815899629</v>
+        <v>21.67359807732749</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1353842.538822376</v>
+        <v>21.69283863881416</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-1873241.542596941</v>
+        <v>21.61558347547436</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1030478.81814986</v>
+        <v>21.6470203022953</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>474082.8089987949</v>
+        <v>21.67441367921309</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-1668888.037966026</v>
+        <v>21.60968341530116</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-41754.49575334208</v>
+        <v>21.64138706707863</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>590649.0176123498</v>
+        <v>21.66876108157798</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-1656265.316073971</v>
+        <v>21.59460624426672</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-386835.8577699367</v>
+        <v>21.63862534769058</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>752801.3900836592</v>
+        <v>21.67615082055385</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-2313905.609117793</v>
+        <v>21.58102862645661</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>689920.9832313282</v>
+        <v>21.6699084693134</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>-472926.9368815686</v>
+        <v>21.64376407377254</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-577503.0328841514</v>
+        <v>21.58805850212513</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>402366.5380893174</v>
+        <v>21.63358532408938</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>516577.3910925834</v>
+        <v>21.65658154421953</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>-973947.395287453</v>
+        <v>21.58152236332601</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-661373.0252844868</v>
+        <v>21.59375591261661</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-396766.4109419294</v>
+        <v>21.62216767582136</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-700063.3501230498</v>
+        <v>21.63808141607445</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-378311.2341730001</v>
+        <v>21.64350542933949</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>258932.7501058138</v>
+        <v>21.67139242035667</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-1165733.450722476</v>
+        <v>21.56559310076152</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-985891.5615367929</v>
+        <v>21.58702466969681</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>-795963.1363751078</v>
+        <v>21.61062878330893</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-1497983.228370388</v>
+        <v>21.55769598193975</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-495107.1148197567</v>
+        <v>21.640450394047</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>330380.5632517766</v>
+        <v>21.68631926603378</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>-265214.2589732968</v>
+        <v>21.6485429112161</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>546073.7995019949</v>
+        <v>21.70441219155325</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>731516.8231048016</v>
+        <v>21.73985873894041</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>-821466.9720962408</v>
+        <v>21.57923601315155</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-529627.9011738437</v>
+        <v>21.61839065111703</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-85871.39117337772</v>
+        <v>21.67624646996096</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1418723.407969934</v>
+        <v>21.72876798749761</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>690965.3902984888</v>
+        <v>21.72153091482345</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1211345.679612304</v>
+        <v>21.75540916162441</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1462723.539788204</v>
+        <v>21.78007929176645</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-213172.2534548959</v>
+        <v>21.63703422150253</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1039006.842968417</v>
+        <v>21.74945777673347</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1124797.909293175</v>
+        <v>21.76663811491277</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-13460.92047577363</v>
+        <v>21.6494515929433</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>642732.0083746462</v>
+        <v>21.71409102172886</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>944304.2537798061</v>
+        <v>21.73211082854773</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-699124.1155734429</v>
+        <v>21.60427611944866</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>466080.5910669133</v>
+        <v>21.7074785643054</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>740979.3584620532</v>
+        <v>21.72595066542709</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-855495.9872760392</v>
+        <v>21.61034653547659</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1602013.616657452</v>
+        <v>21.77308369960095</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2112755.288618409</v>
+        <v>21.80957048358077</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1606586.075599092</v>
+        <v>21.86525731274192</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1876347.36442051</v>
+        <v>21.90237698762447</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2063476.253552643</v>
+        <v>21.93021474174576</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>335713.6499392024</v>
+        <v>21.69394006023991</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1545542.783558397</v>
+        <v>21.85837228405308</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1704561.769740722</v>
+        <v>21.89295731877902</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1828694.679358415</v>
+        <v>21.73471857232333</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>455769.0527162917</v>
+        <v>21.70568265003173</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>754527.3563727678</v>
+        <v>21.73401688329649</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1377340.255695265</v>
+        <v>21.77322168124452</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-486032.2078152784</v>
+        <v>21.60288269483782</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>908573.6831718124</v>
+        <v>21.73057463218338</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1172002.591792289</v>
+        <v>21.76059116707124</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>-422580.94815605</v>
+        <v>21.62534827042021</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>405494.1848206246</v>
+        <v>21.69726834141644</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>886014.8262871241</v>
+        <v>21.72541142734161</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-854634.3975617981</v>
+        <v>21.5916026099989</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>424986.1372674215</v>
+        <v>21.70218248318785</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>991003.4910678221</v>
+        <v>21.73412947279087</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>-1013394.319907464</v>
+        <v>21.60297950326283</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1603344.21409727</v>
+        <v>21.77248684372299</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>2494760.288049298</v>
+        <v>21.81933389843578</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1566635.54615047</v>
+        <v>21.86070549683372</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1777560.97720841</v>
+        <v>21.89173215709963</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2224116.069688464</v>
+        <v>21.9338833754773</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-15623.74262257948</v>
+        <v>21.66216448060683</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1375421.875836476</v>
+        <v>21.84921320236034</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1788008.615874815</v>
+        <v>21.89586096892474</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2060534.558128225</v>
+        <v>21.71450376178802</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>-199097.7089965465</v>
+        <v>21.64260888297955</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>331365.1006829535</v>
+        <v>21.6773929696661</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>972597.2635966763</v>
+        <v>21.72696236667222</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>-889459.8117124101</v>
+        <v>21.59999422265665</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>918431.6465703073</v>
+        <v>21.68995582748665</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1354160.88687481</v>
+        <v>21.73490576988398</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>-921838.910359871</v>
+        <v>21.63263125659011</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>735313.8517822663</v>
+        <v>21.68536032033537</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1707771.20989606</v>
+        <v>21.72486541745608</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>-1117225.400390773</v>
+        <v>21.61056046022823</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>580830.489014292</v>
+        <v>21.68705068998364</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1516684.586098258</v>
+        <v>21.72977161397712</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-1667398.656703752</v>
+        <v>21.60669041777717</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1801749.960911373</v>
+        <v>21.73529889010507</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>3420021.283749912</v>
+        <v>21.79238975901812</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1499929.659620189</v>
+        <v>21.7690367801307</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>2013445.945520372</v>
+        <v>21.81264654274428</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2962619.688200831</v>
+        <v>21.87536533419536</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-443943.7554244768</v>
+        <v>21.63960532505553</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1514855.123315641</v>
+        <v>21.77739437330104</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2408768.392854254</v>
+        <v>21.84793099094566</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-1059150.391986798</v>
+        <v>21.63269350457989</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-299002.0286228566</v>
+        <v>21.68085489794267</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>376342.1357801898</v>
+        <v>21.69785795429335</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-1163320.961826196</v>
+        <v>21.59302181652846</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29135.81402831691</v>
+        <v>21.68715161755144</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>283394.6367596728</v>
+        <v>21.69660200086295</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-956165.8425491101</v>
+        <v>21.62180844882174</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1534122.661891545</v>
+        <v>21.75634065041263</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1762934.911302971</v>
+        <v>21.76711092603432</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-2011.588074239122</v>
+        <v>21.71152540163961</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>227726.7745160102</v>
+        <v>21.75185454100456</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>356323.2492823206</v>
+        <v>21.75130627262869</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-232513.7305296843</v>
+        <v>21.63915464206435</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-233857.9665585333</v>
+        <v>21.68406494321995</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>550915.1216057132</v>
+        <v>21.72107835891815</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-438530.1718724803</v>
+        <v>21.6471379553507</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>200407.9230428045</v>
+        <v>21.70987007640185</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>172443.3096123472</v>
+        <v>21.7182641796869</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-724299.3557229076</v>
+        <v>21.58230649758416</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-155537.4746587814</v>
+        <v>21.66355449389252</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-167490.244865509</v>
+        <v>21.67456021010011</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-738664.5240556784</v>
+        <v>21.59031206344994</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>379192.3351284806</v>
+        <v>21.74750207959145</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-520658.590574454</v>
+        <v>21.62586101615559</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>502422.0814057923</v>
+        <v>21.71855988090017</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>730957.1258499925</v>
+        <v>21.72377645200642</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-828530.454221252</v>
+        <v>21.60038381126602</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>886663.761774989</v>
+        <v>21.75929118491806</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>962925.0901622415</v>
+        <v>21.75857907303338</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-699634.4235551914</v>
+        <v>21.63049816687111</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>2088665.030080761</v>
+        <v>21.82685260943427</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>2004690.780186016</v>
+        <v>21.82545653972307</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1095997.790284841</v>
+        <v>21.84317209135275</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1294753.446137039</v>
+        <v>21.87880774571269</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1310931.108678129</v>
+        <v>21.87374212670389</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-113003.6115042337</v>
+        <v>21.67139040837291</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>562667.6848472387</v>
+        <v>21.81470276319981</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>840624.098684893</v>
+        <v>21.82624230242139</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>-6945.6172120666</v>
+        <v>21.6406020408355</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>566571.7803970444</v>
+        <v>21.77002822077497</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>474915.3020022059</v>
+        <v>21.77167928481609</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>-503613.0473043644</v>
+        <v>21.59801311174776</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>300538.4652118503</v>
+        <v>21.77098468833421</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>299088.9699388181</v>
+        <v>21.78000702560312</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-414026.5261028845</v>
+        <v>21.62176958700439</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>1011137.74635791</v>
+        <v>21.86959123644547</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-1034237.22047484</v>
+        <v>21.59967971488844</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>132279.1227566076</v>
+        <v>21.69366443020016</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>456285.1088839578</v>
+        <v>21.70606312775618</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-1027913.600079478</v>
+        <v>21.58645258471534</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>726837.2977355729</v>
+        <v>21.7451884332748</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>940179.8909631122</v>
+        <v>21.75422271742169</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-889779.4134058618</v>
+        <v>21.61625658497043</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1992844.674191143</v>
+        <v>21.81243031581343</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>2039027.414019438</v>
+        <v>21.81920204196238</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1304512.242212</v>
+        <v>21.83210659683731</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1417037.827506434</v>
+        <v>21.86413883604068</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1482184.991541473</v>
+        <v>21.86906129675954</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-588480.1463059691</v>
+        <v>21.62932239637656</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>211515.8763050866</v>
+        <v>21.7857609816118</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>523816.8053995554</v>
+        <v>21.80477039302902</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-162677.5429747513</v>
+        <v>21.60591567961339</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>409648.0484238832</v>
+        <v>21.73647666444116</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>411972.8920862972</v>
+        <v>21.75286920387111</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-580529.2094755258</v>
+        <v>21.57329301531743</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>189769.0289399405</v>
+        <v>21.74668671998339</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>319385.7678152284</v>
+        <v>21.77415864524044</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-482484.9798983786</v>
+        <v>21.60216110454362</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>891722.0063143324</v>
+        <v>21.84994186711248</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-1759488.576835288</v>
+        <v>21.60247592267878</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-124057.0401844971</v>
+        <v>21.67661794070741</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>633479.0989736093</v>
+        <v>21.69820941057801</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-1271711.030307414</v>
+        <v>21.60559006729484</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1021482.988363502</v>
+        <v>21.72747603422275</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>1497246.437541141</v>
+        <v>21.74746878429807</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-1313738.869230552</v>
+        <v>21.62346803207985</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>2706175.973185918</v>
+        <v>21.77952162436473</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>3043602.939633289</v>
+        <v>21.79712481501564</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1540974.746125426</v>
+        <v>21.77027077383952</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1805228.311055559</v>
+        <v>21.80503582481153</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1928293.172299936</v>
+        <v>21.82251023959335</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-838077.0290441903</v>
+        <v>21.63393362980933</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>68257.27100178701</v>
+        <v>21.74767291764362</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>922389.1599253512</v>
+        <v>21.7871048320641</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-582866.6368617535</v>
+        <v>21.60973325613038</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>409130.2368610965</v>
+        <v>21.70959590480655</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>489316.4005795496</v>
+        <v>21.7376766519788</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-826817.3356758204</v>
+        <v>21.5914614156275</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>187670.7254976468</v>
+        <v>21.71666664536337</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>401826.5042964292</v>
+        <v>21.75510061695786</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-826612.5426882845</v>
+        <v>21.6018467648849</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1030442.538962569</v>
+        <v>21.79314025661646</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>304965.2208857377</v>
+        <v>21.77186879143409</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>111454.7160485376</v>
+        <v>21.729644726515</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>462542.4078420292</v>
+        <v>21.80969471908822</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>463513.0230163628</v>
+        <v>21.81572148997607</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-137147.0818721603</v>
+        <v>21.64814062255217</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>198798.8700623796</v>
+        <v>21.74875672368164</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>296505.8190758119</v>
+        <v>21.76325636473097</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-260363.4383150041</v>
+        <v>21.63988248501077</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>115334.3868434361</v>
+        <v>21.71778751510061</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>382173.6748955744</v>
+        <v>21.75456482993783</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-602522.7531247219</v>
+        <v>21.55261658429596</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-159051.5400784104</v>
+        <v>21.65970949438613</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-5788.707437103263</v>
+        <v>21.68802821299342</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-515644.7365624792</v>
+        <v>21.57244940088558</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>427266.3809385957</v>
+        <v>21.77180916382082</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>865856.8791622042</v>
+        <v>21.82734895705562</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>207337.0062233315</v>
+        <v>21.78968009185864</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>531883.9545560572</v>
+        <v>21.89015358045372</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>595796.0760905736</v>
+        <v>21.91322746689043</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-113994.2716168267</v>
+        <v>21.62411789500796</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>224886.4982535392</v>
+        <v>21.77525171449146</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>458273.1372069325</v>
+        <v>21.83208960783729</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>1015907.464702292</v>
+        <v>21.88968271458451</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>669845.8041010213</v>
+        <v>21.92270731039296</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>837058.0285372451</v>
+        <v>21.98789637399792</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>813492.9946424549</v>
+        <v>21.98940612161854</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>111430.951185021</v>
+        <v>21.7250983136805</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>752746.4456021495</v>
+        <v>21.97120830539892</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>692384.234685185</v>
+        <v>21.95942648267897</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-2050.302707615554</v>
+        <v>21.64178459604207</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-403598.6442940108</v>
+        <v>21.58949706210272</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>405168.3387591412</v>
+        <v>21.81540237099634</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>414160.5403805374</v>
+        <v>21.82759772470765</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-321480.964573318</v>
+        <v>21.62572401197686</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>1097142.751567449</v>
+        <v>21.94070383768026</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>1226384.220487977</v>
+        <v>21.9761169321101</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>800912.834669331</v>
+        <v>22.06811042178756</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>904754.1247377298</v>
+        <v>22.14474079617873</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>940567.609534745</v>
+        <v>22.15066977433733</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>173159.1352051923</v>
+        <v>21.75524863986317</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>820055.8647929924</v>
+        <v>22.08706892552481</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>837760.9248831328</v>
+        <v>22.10003491888917</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>1113930.660762112</v>
+        <v>21.8858507852158</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>638803.5900343235</v>
+        <v>21.89087533637775</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>737557.0805774722</v>
+        <v>21.94852512477647</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>811029.8872028267</v>
+        <v>21.96874060792586</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-10536.39373223192</v>
+        <v>21.66869130166496</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>697168.5929212526</v>
+        <v>21.9330269665904</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>684366.2570014402</v>
+        <v>21.93749696193229</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-187997.8865020936</v>
+        <v>21.60284388008183</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>356557.7486451415</v>
+        <v>21.77414316492397</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>456007.1355478818</v>
+        <v>21.80349968977422</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-492632.062623292</v>
+        <v>21.5644723601196</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>363863.9083259835</v>
+        <v>21.79757321422901</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>449151.2812217274</v>
+        <v>21.82653605169991</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-427858.5558499543</v>
+        <v>21.60601726984793</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>1045507.515635378</v>
+        <v>21.92639154555632</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>1281937.402592222</v>
+        <v>21.97507884116962</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>808294.1445583234</v>
+        <v>22.04951688156484</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>898961.8861050346</v>
+        <v>22.11774487540546</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>1000376.331393686</v>
+        <v>22.14194511950367</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>20447.50497446355</v>
+        <v>21.70024124870162</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>777267.8791148022</v>
+        <v>22.05995623360886</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>838577.6193571204</v>
+        <v>22.0875556786698</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>1320287.992903502</v>
+        <v>21.83887081408446</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>456308.2378599482</v>
+        <v>21.77586310690202</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>677765.051032508</v>
+        <v>21.83989194311729</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>730866.1179613555</v>
+        <v>21.88034364029018</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-120461.0885510257</v>
+        <v>21.64872323840834</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>835189.3600042177</v>
+        <v>21.84656655532837</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>927710.0010852804</v>
+        <v>21.88065476560874</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-363575.0559282291</v>
+        <v>21.62423249249302</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>564545.7554010212</v>
+        <v>21.75718206832981</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>846143.3552549448</v>
+        <v>21.80653538354655</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-634813.4107358</v>
+        <v>21.60011092931781</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>522696.4258376902</v>
+        <v>21.77301549221405</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>760329.1605766746</v>
+        <v>21.82273886621011</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-603493.953196003</v>
+        <v>21.62049773756926</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>1354203.441681335</v>
+        <v>21.8704924177528</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>1873362.01144658</v>
+        <v>21.93873865076288</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>945574.615890359</v>
+        <v>21.92387379458586</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1217492.528604531</v>
+        <v>22.00578262027687</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1409747.836260581</v>
+        <v>22.06366330388479</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-37371.18505013004</v>
+        <v>21.68064729630438</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>1108393.981461917</v>
+        <v>21.95643021969769</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1321450.501637523</v>
+        <v>22.02600051112448</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-1222565.6144099</v>
+        <v>21.64138079052385</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>99767.9012512061</v>
+        <v>21.68789541497829</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>721020.2796014365</v>
+        <v>21.69463077919758</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-2211616.836363261</v>
+        <v>21.59113877686797</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-675562.6556695561</v>
+        <v>21.66886315734883</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-316578.4541869032</v>
+        <v>21.67127262413213</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-2031996.519004249</v>
+        <v>21.61659405755568</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1883777.470153809</v>
+        <v>21.73583107393986</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>1923586.300976912</v>
+        <v>21.73649096272336</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-155308.9278005701</v>
+        <v>21.69699680360719</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>298870.2552053367</v>
+        <v>21.72911490965143</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>280379.2176137333</v>
+        <v>21.73433180789891</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-986730.0829957665</v>
+        <v>21.62187708877786</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-480798.8167588048</v>
+        <v>21.67529246117024</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-172759.2059014152</v>
+        <v>21.69757026424329</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-435374.5754655963</v>
+        <v>21.67694086808496</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>442954.2925162426</v>
+        <v>21.73621508986299</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>450855.8282427277</v>
+        <v>21.73543069849579</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-1083914.637364992</v>
+        <v>21.61020270478044</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-308793.4360330935</v>
+        <v>21.67793814457032</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-215468.3254284726</v>
+        <v>21.68389021142959</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1194673.863408784</v>
+        <v>21.61717530672771</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>565361.9952805371</v>
+        <v>21.75546911940801</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-293967.3737537446</v>
+        <v>21.6406219903781</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>1435442.302867705</v>
+        <v>21.72578667708778</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>1421522.318627322</v>
+        <v>21.72080253712166</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-1417075.601012096</v>
+        <v>21.60241458123027</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>1030027.449755619</v>
+        <v>21.73528617797331</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>1083301.608405854</v>
+        <v>21.72731294302976</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-1298097.419058298</v>
+        <v>21.62756633992925</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>3027071.885970461</v>
+        <v>21.79995627272684</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>2674672.137892206</v>
+        <v>21.78847115755747</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>1531057.4545956</v>
+        <v>21.8104009034265</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>1899465.539082084</v>
+        <v>21.83941997624219</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>1726192.256677325</v>
+        <v>21.84073099471255</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-480625.7565377472</v>
+        <v>21.64954190123454</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>990353.2125641315</v>
+        <v>21.78867096540145</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>897760.105285953</v>
+        <v>21.78761307678369</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>10654.08562074985</v>
+        <v>21.67716907862031</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>976956.9053923027</v>
+        <v>21.79409032860176</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>897416.0083154166</v>
+        <v>21.78555384801319</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-766178.7157860989</v>
+        <v>21.62930746029247</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>497704.6016923476</v>
+        <v>21.77532155480333</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>594331.104791405</v>
+        <v>21.77753670804191</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-752010.6817166528</v>
+        <v>21.64775147281098</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>1622714.982863998</v>
+        <v>21.86376304168376</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>-1135221.479031813</v>
+        <v>21.61990795385317</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>791779.1082016925</v>
+        <v>21.7056242216083</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>887638.315714119</v>
+        <v>21.70693291946618</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-1711714.468901075</v>
+        <v>21.59282123397431</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>779078.8128226704</v>
+        <v>21.72524009192574</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>1018533.892567765</v>
+        <v>21.72569585063464</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-1545405.943433819</v>
+        <v>21.61743198567688</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>2863838.674075975</v>
+        <v>21.78908419377871</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>2676617.545669201</v>
+        <v>21.78475029128555</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>1727055.896657746</v>
+        <v>21.80214840205507</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>1954537.975085566</v>
+        <v>21.82840589349144</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>1833266.545428255</v>
+        <v>21.83791134050382</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-1194697.104491922</v>
+        <v>21.61614537338827</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>398753.698074195</v>
+        <v>21.76558891247578</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>274798.0199449757</v>
+        <v>21.77084092328557</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-274622.2143308347</v>
+        <v>21.64733244083781</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>692653.8275969221</v>
+        <v>21.76448015859081</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>768272.5403329876</v>
+        <v>21.76870978345618</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-875838.547525505</v>
+        <v>21.60816689665585</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>330703.5576553362</v>
+        <v>21.7539970107166</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>634690.3235545229</v>
+        <v>21.77200506932002</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-845655.7099127999</v>
+        <v>21.63073662577394</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>1424168.589631364</v>
+        <v>21.84592368623186</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-1947752.524369363</v>
+        <v>21.62400607957366</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>890433.1062271782</v>
+        <v>21.69120845649778</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>1449487.398751526</v>
+        <v>21.70273699594595</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-2017844.477689211</v>
+        <v>21.61295537802354</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>1260038.739372283</v>
+        <v>21.7137251974655</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>1998242.941346476</v>
+        <v>21.72575635744136</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-2146937.068174059</v>
+        <v>21.62844724231164</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>4260924.149605515</v>
+        <v>21.76449667330893</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>4292586.566173682</v>
+        <v>21.77192796008509</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>2203408.364331906</v>
+        <v>21.75617254667517</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>2731356.917025537</v>
+        <v>21.78437712184786</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>2744068.592559766</v>
+        <v>21.80409347845256</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-1322117.433418405</v>
+        <v>21.6300279836696</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>888169.5123877602</v>
+        <v>21.73952212389385</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>862005.8175737029</v>
+        <v>21.7644830104414</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-673895.5481349031</v>
+        <v>21.64693874665371</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>824866.2074823702</v>
+        <v>21.73587121051735</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>1031129.627801861</v>
+        <v>21.75282407393338</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-1106878.692184568</v>
+        <v>21.62087241030664</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>386410.4005122723</v>
+        <v>21.72479875804855</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>878995.0218526092</v>
+        <v>21.75449683167686</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1208700.972186008</v>
+        <v>21.62947587723965</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>1728271.503556127</v>
+        <v>21.7947565893019</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>541293.0398390768</v>
+        <v>21.7666548005555</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>203503.5489643014</v>
+        <v>21.74547107794166</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>794816.5638199821</v>
+        <v>21.81340019460827</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>758669.2403769876</v>
+        <v>21.82348788326965</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-409941.1990274374</v>
+        <v>21.65863822540272</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>178961.6739794939</v>
+        <v>21.75541490225642</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>351758.0001189067</v>
+        <v>21.76851411038286</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-174388.5957858026</v>
+        <v>21.66059017219105</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>452188.2415801166</v>
+        <v>21.73288412615932</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>714011.453143817</v>
+        <v>21.75063568752804</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-956735.5629808579</v>
+        <v>21.56724945325761</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-276455.7094037479</v>
+        <v>21.65615583519372</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-58447.00138079876</v>
+        <v>21.67234421542948</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-855894.116039066</v>
+        <v>21.58621441949831</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>672704.7460566973</v>
+        <v>21.75970042718156</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>1300355.893688052</v>
+        <v>21.79223238582443</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>383408.614830877</v>
+        <v>21.77665831659752</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>835503.9026767621</v>
+        <v>21.85911423286515</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>927546.350197177</v>
+        <v>21.88979106219771</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-264041.5377479288</v>
+        <v>21.61975647591666</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>319931.1782011075</v>
+        <v>21.76025529809624</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>624352.6823084003</v>
+        <v>21.80530115258492</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>1767651.560535259</v>
+        <v>21.86908420419491</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1074054.028194614</v>
+        <v>21.91137749769753</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>1423706.073120252</v>
+        <v>21.96862707340086</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>1347473.982176317</v>
+        <v>21.97432670710385</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>-19827.39967193233</v>
+        <v>21.72329725091426</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>1133793.899831607</v>
+        <v>21.94589189456859</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>1138020.67407037</v>
+        <v>21.9355424388077</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>208349.8938737873</v>
+        <v>21.66815292763925</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>1067788.809994032</v>
+        <v>21.81483668134117</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>944913.2460929349</v>
+        <v>21.81265879170626</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-615674.106356366</v>
+        <v>21.6039375013372</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>685234.4703992654</v>
+        <v>21.79386400598572</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>622676.2786244233</v>
+        <v>21.79359703167156</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-545269.7848385465</v>
+        <v>21.63496482001869</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>1770919.749614199</v>
+        <v>21.90716940504198</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>1856595.731901475</v>
+        <v>21.9196673175126</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>1373128.485633745</v>
+        <v>22.01396526794428</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1515541.452114149</v>
+        <v>22.07810036051389</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1563181.065731963</v>
+        <v>22.09428221831973</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>223900.7102744412</v>
+        <v>21.72947423500491</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1316055.699303363</v>
+        <v>22.02545739648464</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>1304826.149872511</v>
+        <v>22.03129578491029</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>1922876.084754116</v>
+        <v>21.86497066708758</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1005582.72282171</v>
+        <v>21.88248950892154</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>1247785.96564677</v>
+        <v>21.93367378096249</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>1359297.554287299</v>
+        <v>21.954980585304</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-204800.4303900446</v>
+        <v>21.67512650181813</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>1057495.627753653</v>
+        <v>21.91224934871011</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>1122449.758593397</v>
+        <v>21.91541696819987</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-123392.3115127004</v>
+        <v>21.63454594346125</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>826846.0550432305</v>
+        <v>21.78613350900067</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>794110.5217285358</v>
+        <v>21.79524382030283</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-761542.0745514631</v>
+        <v>21.58235796794011</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>607065.3802815822</v>
+        <v>21.77766970355391</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>660427.6455333827</v>
+        <v>21.79196439744704</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-729274.0002160356</v>
+        <v>21.61767252619888</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>1655468.988759346</v>
+        <v>21.89349694658065</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>1911669.658522551</v>
+        <v>21.91777672862237</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>1374361.413194292</v>
+        <v>21.99578085863981</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1484830.195344619</v>
+        <v>22.05326591655417</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>1660675.458839192</v>
+        <v>22.08457351027521</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>9835.019952322125</v>
+        <v>21.6821743580898</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>1258537.812636043</v>
+        <v>22.00067944642733</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>1300481.391233177</v>
+        <v>22.01875207531423</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>2351885.82803947</v>
+        <v>21.8252688166458</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>778708.0610577891</v>
+        <v>21.78375081300532</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1210028.357089132</v>
+        <v>21.83882780090005</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>1342057.155073976</v>
+        <v>21.87744068952362</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-306782.6429468957</v>
+        <v>21.66263009749847</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>1360561.26188111</v>
+        <v>21.83943202655586</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>1516856.060256518</v>
+        <v>21.86888973706371</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-325107.548993548</v>
+        <v>21.64837861866276</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>1207263.253652528</v>
+        <v>21.76505897026247</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1416804.3369781</v>
+        <v>21.79522160382076</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-939618.3466605966</v>
+        <v>21.60988556181821</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>881435.6214188905</v>
+        <v>21.75306149168572</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>1185907.533482814</v>
+        <v>21.78850260296966</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-973201.8304022697</v>
+        <v>21.62880950840919</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>2157989.043682871</v>
+        <v>21.84286788334644</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>2840982.353410442</v>
+        <v>21.88805801415498</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>1591985.458260704</v>
+        <v>21.88796614971407</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>1938894.063777902</v>
+        <v>21.95590535714513</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>2281795.338516739</v>
+        <v>22.01487208063631</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>-106698.2530778571</v>
+        <v>21.6701958557878</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>1824234.289916593</v>
+        <v>21.91338148097289</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>2047319.287845224</v>
+        <v>21.96940376545622</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-1341443.033583503</v>
+        <v>21.63627270445158</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-843269.7251698843</v>
+        <v>21.64266016093448</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-78163.94711755803</v>
+        <v>21.65463221046436</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-2447862.59611691</v>
+        <v>21.58662643387407</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-1348048.915421127</v>
+        <v>21.62171898632932</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-1036210.608724543</v>
+        <v>21.62749124253475</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-2207432.298007885</v>
+        <v>21.59911043988206</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>468153.6460787214</v>
+        <v>21.67115507601082</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>682879.703726808</v>
+        <v>21.67682225918738</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-897556.9462624115</v>
+        <v>21.63681692222877</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-563812.8733655112</v>
+        <v>21.65093179222363</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-388346.0585511632</v>
+        <v>21.65653060567369</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-975109.6785611392</v>
+        <v>21.61055062635604</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-721892.4421911279</v>
+        <v>21.62057134444917</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-32733.23359243209</v>
+        <v>21.65050743857843</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-953897.4591622078</v>
+        <v>21.6247782601974</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-362841.8540405828</v>
+        <v>21.64030851291751</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-212970.3221714321</v>
+        <v>21.6485857833759</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-1472103.132619982</v>
+        <v>21.553635708884</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-1099088.824911725</v>
+        <v>21.57477752393764</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-938551.3214344016</v>
+        <v>21.58796588598205</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1620224.428081302</v>
+        <v>21.54782656241883</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-538114.4993330258</v>
+        <v>21.63425239533657</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-913162.9231472312</v>
+        <v>21.62473251043826</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-44125.35977748913</v>
+        <v>21.66335317784719</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>214102.6755739055</v>
+        <v>21.6652788502393</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-1975188.441156252</v>
+        <v>21.58528978614018</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-95046.10499640739</v>
+        <v>21.66787536501403</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-9728.98371955889</v>
+        <v>21.66496909608168</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-1704114.381115906</v>
+        <v>21.59713856876625</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>1330132.316948608</v>
+        <v>21.71495192830261</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>1279171.179047558</v>
+        <v>21.71007154553133</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>741613.1906833767</v>
+        <v>21.72678589763145</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>1022235.414433982</v>
+        <v>21.73684030359321</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>1080762.328798996</v>
+        <v>21.73852445868816</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>-475312.178095386</v>
+        <v>21.6246407331387</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>861466.7547658692</v>
+        <v>21.71114190408692</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>1056705.58007386</v>
+        <v>21.72035158081642</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-608959.2924978239</v>
+        <v>21.60993584382646</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>69723.39077461639</v>
+        <v>21.67557542207627</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>171395.2342051511</v>
+        <v>21.67814937298635</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-1163299.289015686</v>
+        <v>21.55545157729473</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-281858.1861228375</v>
+        <v>21.64577462285277</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-51970.79030292244</v>
+        <v>21.65740277732663</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-1184105.255314975</v>
+        <v>21.5602473818724</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>576875.9597002449</v>
+        <v>21.71557157764903</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>-1701594.135507839</v>
+        <v>21.60384569902326</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-704446.9891752605</v>
+        <v>21.64381240002824</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-262406.8351491421</v>
+        <v>21.65170102177349</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-2237674.875399947</v>
+        <v>21.57491243076893</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-372085.9894040182</v>
+        <v>21.65786073528852</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-47170.13414463142</v>
+        <v>21.66302148668141</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-1850836.381291876</v>
+        <v>21.58678163352116</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>1157156.965027616</v>
+        <v>21.70482921683355</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>1379725.252110815</v>
+        <v>21.70674762202443</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>907380.5502951478</v>
+        <v>21.71863772757239</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>1049446.312619119</v>
+        <v>21.72671831924895</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>1237411.141409475</v>
+        <v>21.73622587835446</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>-1210954.835111768</v>
+        <v>21.5913427553049</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>295319.4091326141</v>
+        <v>21.68866759734973</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>506431.6059677002</v>
+        <v>21.70388485133098</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-932113.5223936622</v>
+        <v>21.58289932278885</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-295235.206755416</v>
+        <v>21.64962405701107</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>17622.48625026841</v>
+        <v>21.6643676618421</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-1312837.984099994</v>
+        <v>21.53702339435691</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-528907.6116625627</v>
+        <v>21.62805941276848</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-30768.45308560278</v>
+        <v>21.65481148497704</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-1289261.674591415</v>
+        <v>21.54632006661167</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>289628.7391257718</v>
+        <v>21.70186361966212</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-3048864.608565355</v>
+        <v>21.60775660779294</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-1553211.472942265</v>
+        <v>21.63728178573042</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-425389.6034451854</v>
+        <v>21.65346083150199</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-3114799.199281172</v>
+        <v>21.59477519190611</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-676897.4239662081</v>
+        <v>21.65524157692916</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>316802.4919866674</v>
+        <v>21.6700448517031</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-3309798.697760692</v>
+        <v>21.59953470416002</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>1146936.661050993</v>
+        <v>21.69144473316106</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>1918668.34518059</v>
+        <v>21.70326262286978</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>662530.770798694</v>
+        <v>21.68333945837948</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>1069045.319297704</v>
+        <v>21.69595091194704</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>1512408.292529159</v>
+        <v>21.71517972842341</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-1858757.174106249</v>
+        <v>21.60397960177148</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>126767.5704318528</v>
+        <v>21.67142294260356</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>795867.0572650936</v>
+        <v>21.70343864847481</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-1535058.237270261</v>
+        <v>21.59208257690664</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-528239.3761532496</v>
+        <v>21.63966319800963</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>61863.85216850856</v>
+        <v>21.66435354955448</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-1736854.369810327</v>
+        <v>21.56026630727117</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-851337.3619847192</v>
+        <v>21.61985594786037</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-46163.69014369621</v>
+        <v>21.65539653920182</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-1869377.678519428</v>
+        <v>21.55779495419234</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>61383.52542785005</v>
+        <v>21.67423198061967</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-504282.4032887482</v>
+        <v>21.65330000947755</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-506374.6715407079</v>
+        <v>21.59939594876554</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>-52484.92906655529</v>
+        <v>21.64550436701329</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-61276.11486450717</v>
+        <v>21.65205732949897</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-915724.3581692618</v>
+        <v>21.55966890037541</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>-539142.818519599</v>
+        <v>21.60900403952245</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>-348919.6343515966</v>
+        <v>21.62997835888054</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-431945.8225561788</v>
+        <v>21.63614402055724</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>-35641.19561763853</v>
+        <v>21.66541343507947</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>370626.6666748325</v>
+        <v>21.68903770418555</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-1206784.785271936</v>
+        <v>21.54286122990388</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-792577.9060446692</v>
+        <v>21.58678917059641</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>-528169.7736630093</v>
+        <v>21.60628200767871</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-1114935.791207022</v>
+        <v>21.55044381469716</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>31258.92871993908</v>
+        <v>21.67229295231959</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>648284.4752525118</v>
+        <v>21.70879926585723</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>793.7012478460979</v>
+        <v>21.67473222083824</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>339724.1834045308</v>
+        <v>21.73229448122523</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>455416.3346814032</v>
+        <v>21.75743524988189</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-556721.7417424507</v>
+        <v>21.56603961423155</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>-171212.7356667166</v>
+        <v>21.65799705821235</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>171340.0236236725</v>
+        <v>21.70829639561105</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>830801.9418015145</v>
+        <v>21.73058238720171</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>415049.3399235657</v>
+        <v>21.73291228137269</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>682417.8611755946</v>
+        <v>21.7678298245776</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>626779.4521287002</v>
+        <v>21.76935543173082</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>-453154.6703194984</v>
+        <v>21.60249831084627</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>533018.135112587</v>
+        <v>21.76664372049333</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>607242.8334939372</v>
+        <v>21.76710359250757</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>-49525.91378439066</v>
+        <v>21.64157601381179</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>622821.0783367803</v>
+        <v>21.73695695528989</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>680171.8154039482</v>
+        <v>21.74316445316902</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>-751203.0728840702</v>
+        <v>21.57647180275218</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>352949.1835107596</v>
+        <v>21.71146358617461</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>401214.4519413472</v>
+        <v>21.7170301728525</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>-638447.8735144897</v>
+        <v>21.59513557303193</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>1394473.203639657</v>
+        <v>21.80600727523458</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>1515110.225166388</v>
+        <v>21.82480108337157</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>1268815.528256321</v>
+        <v>21.89515323979973</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1310535.272329814</v>
+        <v>21.93422872113327</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1361842.056130964</v>
+        <v>21.94455849180088</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>196171.5505348774</v>
+        <v>21.67069821862456</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1112004.76508408</v>
+        <v>21.90563018129864</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>1213361.351825643</v>
+        <v>21.92043343909213</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>988129.8986043271</v>
+        <v>21.72998780324832</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>258135.7735009105</v>
+        <v>21.70927840144344</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>440453.4779967021</v>
+        <v>21.73924208073122</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>615693.7738622087</v>
+        <v>21.75579600363328</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>-683337.3905722355</v>
+        <v>21.55932554318575</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>416827.1767874249</v>
+        <v>21.73846315834968</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>597489.6386147717</v>
+        <v>21.75202043801828</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-391753.8188307306</v>
+        <v>21.61187818095441</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>379332.7196576528</v>
+        <v>21.71290285122211</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>563911.0468393107</v>
+        <v>21.72990468762246</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>-887323.5193870346</v>
+        <v>21.55883527823202</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>291990.5104185494</v>
+        <v>21.69992516984841</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>490653.9110608033</v>
+        <v>21.71948594446184</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-791509.2857907142</v>
+        <v>21.58198797499065</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>1312153.650615381</v>
+        <v>21.79740807732741</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1657092.033264092</v>
+        <v>21.82750961646749</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>1266736.982328138</v>
+        <v>21.88293717642252</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>1304768.859810887</v>
+        <v>21.91664201666804</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1504363.971179865</v>
+        <v>21.9415609362286</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-31393.97112186434</v>
+        <v>21.62945026759876</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1074907.33180678</v>
+        <v>21.88715827217126</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>1271166.773316325</v>
+        <v>21.91385314556738</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>1086745.238066335</v>
+        <v>21.71128990029236</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-291942.6318579118</v>
+        <v>21.63930245805319</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>26936.68065859348</v>
+        <v>21.67596118093581</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>273894.3491690895</v>
+        <v>21.7099081599947</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>-1054053.798513629</v>
+        <v>21.56248294673993</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>392897.487461391</v>
+        <v>21.69262718877236</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>736445.7627749656</v>
+        <v>21.72913461148929</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-738833.4109063328</v>
+        <v>21.6216519131078</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>529474.0394100237</v>
+        <v>21.69724356222543</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>1050042.240204565</v>
+        <v>21.73236497973497</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-1228753.682320986</v>
+        <v>21.58173498431795</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>260797.3668668656</v>
+        <v>21.68148213713654</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>798412.2787499013</v>
+        <v>21.71927271191621</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-1235943.501498714</v>
+        <v>21.59063186464628</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>1485822.449666408</v>
+        <v>21.75563866911255</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>2354941.18296603</v>
+        <v>21.80401839600692</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>1211247.55299054</v>
+        <v>21.78560953381393</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>1480194.26681866</v>
+        <v>21.83250673606557</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>1896546.230749104</v>
+        <v>21.88491360672812</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>-483841.1642944113</v>
+        <v>21.6141591404033</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>1350821.732347927</v>
+        <v>21.80892288363615</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>1775355.513722213</v>
+        <v>21.86973973349566</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-1723363.39884715</v>
+        <v>21.62976401766748</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-1321851.965633401</v>
+        <v>21.65379266101939</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>372609.3075792671</v>
+        <v>21.66871818153358</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-2901761.979928706</v>
+        <v>21.58582515533532</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-840477.2391823811</v>
+        <v>21.64164672843996</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-542463.3704364944</v>
+        <v>21.65152198004915</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-2257452.877453105</v>
+        <v>21.60744236313185</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>1934964.475652176</v>
+        <v>21.68945379022687</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>2565022.737350391</v>
+        <v>21.70265946768563</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-763748.4431481119</v>
+        <v>21.65638130184177</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>-184015.6398763054</v>
+        <v>21.69069156842498</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>194464.1678235197</v>
+        <v>21.69360284192308</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>-685898.1830614025</v>
+        <v>21.61650427834886</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-807903.6486986156</v>
+        <v>21.64396386251608</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>600241.2103282572</v>
+        <v>21.67709388681495</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-1105961.214523562</v>
+        <v>21.63092333631889</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>329972.7570059947</v>
+        <v>21.67206621558853</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>962094.2118620591</v>
+        <v>21.69217733584531</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-1771705.643859601</v>
+        <v>21.56837996122089</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-830561.9340817233</v>
+        <v>21.61899966721601</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-519252.1011693031</v>
+        <v>21.64113683706997</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-2012388.635300869</v>
+        <v>21.57140088320802</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>107149.3094959222</v>
+        <v>21.67572662658697</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-1132921.874902011</v>
+        <v>21.63196582204455</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>437756.3278837284</v>
+        <v>21.6885244038934</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>977299.2659816697</v>
+        <v>21.69707328240177</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-2457395.628755041</v>
+        <v>21.59940177993793</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>1537151.957163752</v>
+        <v>21.70224000856339</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>1564009.167355767</v>
+        <v>21.70751230747191</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-2325719.254288457</v>
+        <v>21.6235444098462</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>3562400.043408873</v>
+        <v>21.75038130489634</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>3432463.469574777</v>
+        <v>21.75722519558666</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>2245053.40576596</v>
+        <v>21.76568769514083</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>2955924.292824641</v>
+        <v>21.7972734612122</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>3052021.715170256</v>
+        <v>21.79832271704889</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>-214099.8552072268</v>
+        <v>21.6549376191992</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>1880403.2764216</v>
+        <v>21.75465316847648</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>2238280.814604294</v>
+        <v>21.77289731254324</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>-306707.4698260176</v>
+        <v>21.63508953114339</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>1234081.489274135</v>
+        <v>21.72587907038087</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>1574062.930159903</v>
+        <v>21.7449968269105</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>-1136817.419170341</v>
+        <v>21.59126300067423</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>679908.6552544961</v>
+        <v>21.70905976249146</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>1340042.361279604</v>
+        <v>21.73471838177426</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-1194480.277406553</v>
+        <v>21.60750986967976</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>2318717.197756711</v>
+        <v>21.77860058875021</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>-2445972.984236514</v>
+        <v>21.61535960917082</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-263493.8199083707</v>
+        <v>21.67381895868938</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>582941.9470814037</v>
+        <v>21.68779383212605</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-3038232.422502264</v>
+        <v>21.59280996156039</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1213404.561547978</v>
+        <v>21.69647258511367</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>1680915.038072552</v>
+        <v>21.70919943442462</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-2821205.785237795</v>
+        <v>21.61693802596181</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>3531715.966757494</v>
+        <v>21.74483662936151</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>3859209.053958423</v>
+        <v>21.7577282832648</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>2639257.847577445</v>
+        <v>21.76222438173851</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>3040307.640824151</v>
+        <v>21.79089206634822</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>3381695.813546302</v>
+        <v>21.79974758138673</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>-1423357.290884834</v>
+        <v>21.62923893283606</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>1147426.269301341</v>
+        <v>21.73919192592745</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>1751618.883720421</v>
+        <v>21.76341614637252</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>-861152.9011022332</v>
+        <v>21.61232894617435</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>794997.8834335404</v>
+        <v>21.70500202646991</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>1405349.240062864</v>
+        <v>21.73477394626279</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-1459419.341480796</v>
+        <v>21.57743977946538</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>312109.3957496429</v>
+        <v>21.69660256208559</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>1473094.812721537</v>
+        <v>21.73591306188276</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-1499374.969789023</v>
+        <v>21.5976874750943</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>1963654.809876455</v>
+        <v>21.77008271735776</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-4217557.355292653</v>
+        <v>21.61239201604317</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-1201129.4697911</v>
+        <v>21.65760972540681</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>670353.2260498487</v>
+        <v>21.67660545386605</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-3985735.345535413</v>
+        <v>21.60337241599186</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1687026.698904878</v>
+        <v>21.68157629848373</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>2544501.129848773</v>
+        <v>21.7003844529523</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-4167867.871064163</v>
+        <v>21.61715980006117</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>4486590.489936133</v>
+        <v>21.71783570224477</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>5678851.512574131</v>
+        <v>21.73643290384428</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>2380345.18815803</v>
+        <v>21.71048581215216</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>3121412.967848706</v>
+        <v>21.73994552664908</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>3532761.604001441</v>
+        <v>21.75730520379529</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-2184990.758168931</v>
+        <v>21.62418034995154</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>258414.5275223157</v>
+        <v>21.70295290543769</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>2319475.81834688</v>
+        <v>21.73933922637731</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-1883648.646088909</v>
+        <v>21.61261764940014</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>876660.6161259771</v>
+        <v>21.68303182121951</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>2066618.539433298</v>
+        <v>21.7173218322923</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-2093954.069688175</v>
+        <v>21.59005669333186</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>222980.0778289089</v>
+        <v>21.67492028495613</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>1771624.990610183</v>
+        <v>21.71779828608855</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-2442132.322788125</v>
+        <v>21.59508794523291</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>2165223.362615897</v>
+        <v>21.72734179351389</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>837118.3601399724</v>
+        <v>21.71154033094897</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>44383.48523588767</v>
+        <v>21.66355322306115</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>1297523.092330786</v>
+        <v>21.73053432717181</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>1711269.049813189</v>
+        <v>21.75310521179335</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-1030043.867607118</v>
+        <v>21.59858707377234</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>16295.92444795266</v>
+        <v>21.68188303831584</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>590851.1011348652</v>
+        <v>21.71911334897227</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-773455.7045146883</v>
+        <v>21.6258005361702</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>136731.200733425</v>
+        <v>21.6784385698349</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>955299.2381714468</v>
+        <v>21.71555733652263</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-1538513.080856268</v>
+        <v>21.55012547051873</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-803180.1744071038</v>
+        <v>21.62069551647541</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-503299.977077795</v>
+        <v>21.65184765741095</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-1674335.871725863</v>
+        <v>21.56129366496329</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>313958.4094162566</v>
+        <v>21.69653229843655</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>1314268.818685947</v>
+        <v>21.7508454278912</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>224147.0690685525</v>
+        <v>21.71618969955242</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>1383561.360255738</v>
+        <v>21.79634198477076</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>1566720.903313649</v>
+        <v>21.82790931738909</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-903561.5432105617</v>
+        <v>21.5841362246445</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>86736.27551911818</v>
+        <v>21.70171641061981</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>595413.6279222796</v>
+        <v>21.76821424102774</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>3297586.084175302</v>
+        <v>21.81565068058047</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>1844812.69493834</v>
+        <v>21.82306143992525</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>2554596.093124768</v>
+        <v>21.88018985362088</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>2957509.030678872</v>
+        <v>21.90278241243109</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>38840.984394598</v>
+        <v>21.67434262001082</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>2422775.567753968</v>
+        <v>21.86604787175568</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>2598012.199034519</v>
+        <v>21.89071393317395</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-36246.4382543492</v>
+        <v>21.64460817013329</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>1376206.288502841</v>
+        <v>21.76148568283874</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>1679784.470335688</v>
+        <v>21.78801260074116</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>-911350.4663914678</v>
+        <v>21.59769526055217</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>1109185.21315436</v>
+        <v>21.75525768486476</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>1363989.415878265</v>
+        <v>21.77996924030629</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>-937122.5498417316</v>
+        <v>21.62276081537775</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>2910228.996707823</v>
+        <v>21.84313276243135</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>3339517.452649811</v>
+        <v>21.88724180769558</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>2444378.876443628</v>
+        <v>21.9504559993143</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>2953923.212543813</v>
+        <v>22.01404969110104</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>3034672.650351809</v>
+        <v>22.03618837095437</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>414246.8830311982</v>
+        <v>21.71087362504351</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>2717797.051421145</v>
+        <v>21.96242563095343</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>2752770.01689811</v>
+        <v>22.00429172398733</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>3669285.239700048</v>
+        <v>21.81843181243001</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1525100.953663346</v>
+        <v>21.80520518000341</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>2021265.959956709</v>
+        <v>21.85638323050501</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>2856306.465512689</v>
+        <v>21.89298784556027</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-395350.2896651321</v>
+        <v>21.63948324462367</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>2245559.057467622</v>
+        <v>21.8449594505315</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>2638263.095717519</v>
+        <v>21.88159058684745</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-643511.6949191561</v>
+        <v>21.61957354134666</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>1013896.217617493</v>
+        <v>21.742547855151</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>1516133.289424645</v>
+        <v>21.77849746970818</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-1188073.096670242</v>
+        <v>21.58448084519856</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>1022771.574336552</v>
+        <v>21.74835303302152</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>1597440.026847918</v>
+        <v>21.78574207201074</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-1285168.622128108</v>
+        <v>21.61373273689783</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>2808109.930616648</v>
+        <v>21.83944747658289</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>3659436.524524017</v>
+        <v>21.89323749187843</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>2371145.045497681</v>
+        <v>21.94323282510477</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>2855625.199621406</v>
+        <v>22.00025895837414</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>3200070.415021157</v>
+        <v>22.03621633878496</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-87555.89135980213</v>
+        <v>21.67812720265238</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>2557491.775071017</v>
+        <v>21.95050082449835</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>2843096.958845679</v>
+        <v>22.00342647437397</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>4527707.700860498</v>
+        <v>21.77809823988689</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>884719.6845891855</v>
+        <v>21.71659503652732</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>1782487.920526975</v>
+        <v>21.77082830918373</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>2772278.093883614</v>
+        <v>21.81902317896031</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-839598.629292668</v>
+        <v>21.62047167428776</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>2373287.288188132</v>
+        <v>21.77477500918735</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>3241090.887800156</v>
+        <v>21.82633456116803</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-1097668.436395159</v>
+        <v>21.62472333690929</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>1586072.959235242</v>
+        <v>21.71967424776238</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>2726080.552730785</v>
+        <v>21.7665798101904</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-1457537.606832107</v>
+        <v>21.60075355356875</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1329861.314978145</v>
+        <v>21.72135313110539</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>2387658.946460454</v>
+        <v>21.76971968023394</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-1836634.33003075</v>
+        <v>21.61282577937811</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>3322338.133212515</v>
+        <v>21.78811028123379</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>5107806.937489538</v>
+        <v>21.85189816681933</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>2597124.702234243</v>
+        <v>21.83428964886771</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>3614379.36713243</v>
+        <v>21.89987179815427</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>4470398.452050923</v>
+        <v>21.95791254928543</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>-437580.7786408195</v>
+        <v>21.64822735641589</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>3050162.449946299</v>
+        <v>21.85670573231248</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>3864104.254616267</v>
+        <v>21.93333869412636</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test2/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.20476828359977</v>
+        <v>12.20476828359979</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9.266589047508145</v>
+        <v>9.266589047508168</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16.96402383268789</v>
+        <v>16.96402383268791</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.191277340148691</v>
+        <v>1.191277340148698</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9.251725795991975</v>
+        <v>9.251725795991883</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>11.08614326235328</v>
+        <v>11.08614326235344</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.785365949061156</v>
+        <v>6.785365949061138</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.29178366726257</v>
+        <v>23.29178366726266</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>24.48617962697659</v>
+        <v>24.48617962697655</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7.777491263553888</v>
+        <v>7.777491263554033</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>11.63515282869426</v>
+        <v>11.63515282869417</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13.22397892473372</v>
+        <v>13.22397892473385</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.38107121230434</v>
+        <v>14.38107121230422</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4.320860008919627</v>
+        <v>4.320860008919492</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>13.59516591644099</v>
+        <v>13.59516591644121</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12.92126388095845</v>
+        <v>12.92126388095844</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>20.08323587578527</v>
+        <v>20.08323587578531</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25.48864083288248</v>
+        <v>25.48864083288247</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.595624727834153</v>
+        <v>5.59562472783405</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.176737928471068</v>
+        <v>9.176737928471168</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>12.53965311427507</v>
+        <v>12.53965311427501</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.7028927122091631</v>
+        <v>0.7028927122089783</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>13.78917526054493</v>
+        <v>13.7891752605448</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16.27009923416071</v>
+        <v>16.27009923416087</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>20.92724900887203</v>
+        <v>20.92724900887218</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>22.74761885774624</v>
+        <v>22.7476188577462</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.092135153645621</v>
+        <v>2.092135153645682</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.16901821875239</v>
+        <v>27.16901821875248</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.91091526444687</v>
+        <v>27.91091526444662</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6.07390266470394</v>
+        <v>6.073902664703859</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>37.45189895788606</v>
+        <v>37.45189895788596</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.94418793152781</v>
+        <v>34.94418793152767</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.7710847208415</v>
+        <v>34.77108472084144</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42.71355489168702</v>
+        <v>42.71355489168694</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>44.00484147934128</v>
+        <v>44.00484147934125</v>
       </c>
     </row>
     <row r="37">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.06311545163654</v>
+        <v>29.06311545163673</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>32.91107408564142</v>
+        <v>32.91107408564169</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.10495806145172</v>
+        <v>17.10495806145188</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>27.04961066583979</v>
+        <v>27.04961066583977</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.72367923586846</v>
+        <v>29.7236792358684</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7.077264164875491</v>
+        <v>7.077264164875249</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>22.64389576274559</v>
+        <v>22.64389576274552</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>32.61046858512792</v>
+        <v>32.61046858512788</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>36.03006882990309</v>
+        <v>36.0300688299034</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.43390346996558</v>
+        <v>10.43390346996576</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>19.17333312239326</v>
+        <v>19.17333312239325</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.69211028863032</v>
+        <v>22.69211028863047</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.6291902725722487</v>
+        <v>0.6291902725722238</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.69812889873552</v>
+        <v>26.69812889873532</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.56540834606155</v>
+        <v>30.56540834606136</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.618950965659913</v>
+        <v>6.618950965659977</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>39.81769973475193</v>
+        <v>39.81769973475186</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>40.32900554321187</v>
+        <v>40.32900554321202</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.78364714033616</v>
+        <v>38.78364714033633</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>43.053798949609</v>
+        <v>43.05379894960893</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>47.57415056007878</v>
+        <v>47.57415056007869</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>11.43849027285485</v>
+        <v>11.4384902728548</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>24.11659603392813</v>
+        <v>24.11659603392799</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>30.59487740674598</v>
+        <v>30.59487740674583</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.59177207480666</v>
+        <v>12.59177207480671</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>23.45485961493841</v>
+        <v>23.45485961493853</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.37145314616008</v>
+        <v>28.37145314615989</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5.183695612582024</v>
+        <v>5.18369561258211</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>19.0908240794912</v>
+        <v>19.09082407949101</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.89435622193061</v>
+        <v>34.89435622193047</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3.378937830743155</v>
+        <v>3.37893783074303</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>33.4030381850768</v>
+        <v>33.4030381850767</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4.319760275684754</v>
+        <v>4.319760275684722</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>14.38926457372126</v>
+        <v>14.3892645737212</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>20.33444742212343</v>
+        <v>20.33444742212328</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-0.1340470579570301</v>
+        <v>-0.1340470579567956</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.09637039672833</v>
+        <v>26.09637039672834</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.95760888755814</v>
+        <v>29.95760888755812</v>
       </c>
     </row>
     <row r="76">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>35.45678586668267</v>
+        <v>35.45678586668256</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>38.59323461254445</v>
+        <v>38.59323461254441</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.54265915990492</v>
+        <v>28.54265915990484</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>32.16839855645951</v>
+        <v>32.16839855645949</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.30508795476349</v>
+        <v>36.30508795476325</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>7.56833417713117</v>
+        <v>7.568334177131305</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>15.13234195576419</v>
+        <v>15.13234195576426</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.6361616206079</v>
+        <v>28.63616162060751</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>7.652455082270244</v>
+        <v>7.652455082270301</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>23.96258297678339</v>
+        <v>23.96258297678343</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>30.30169523545348</v>
+        <v>30.30169523545341</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5.259553005451675</v>
+        <v>5.259553005451529</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>19.91507796044381</v>
+        <v>19.91507796044369</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>33.07215574550734</v>
+        <v>33.07215574550735</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.2398018785631315</v>
+        <v>0.2398018785631244</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>31.57915872476147</v>
+        <v>31.57915872476154</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>18.13800881507097</v>
+        <v>18.13800881507091</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>13.01639988395372</v>
+        <v>13.01639988395339</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>32.29892389751127</v>
+        <v>32.29892389751135</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>34.54644089455117</v>
+        <v>34.54644089455107</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>4.849796198329095</v>
+        <v>4.849796198328882</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>11.1180154980879</v>
+        <v>11.11801549808792</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>16.42431200234157</v>
+        <v>16.42431200234149</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>13.84131498574567</v>
+        <v>13.84131498574546</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>18.68539972246847</v>
+        <v>18.68539972246831</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.27931909328246</v>
+        <v>28.27931909328242</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>4.167133268709897</v>
+        <v>4.167133268709957</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>7.285590658460578</v>
+        <v>7.285590658460592</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>10.57894852770343</v>
+        <v>10.57894852770335</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.9074600975695191</v>
+        <v>0.9074600975694729</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16.62261479448021</v>
+        <v>16.62261479448012</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.55807749620749</v>
+        <v>29.5580774962076</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>18.18550333023637</v>
+        <v>18.18550333023655</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>37.13685539547873</v>
+        <v>37.13685539547851</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.46872740028128</v>
+        <v>41.46872740028142</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4.826120118727214</v>
+        <v>4.826120118727289</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>11.77322344517485</v>
+        <v>11.77322344517503</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>22.33665594587966</v>
+        <v>22.33665594587978</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>45.93549333246126</v>
+        <v>45.93549333246118</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>40.02994475823268</v>
+        <v>40.02994475823262</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>51.81562674960455</v>
+        <v>51.81562674960458</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>57.50888527715442</v>
+        <v>57.50888527715435</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>19.46086555923463</v>
+        <v>19.46086555923473</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>48.36071218239803</v>
+        <v>48.36071218239802</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>50.34073937300127</v>
+        <v>50.34073937300139</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.14770516680576</v>
+        <v>24.14770516680581</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.517696578855</v>
+        <v>35.51769657885499</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.74310162303286</v>
+        <v>40.74310162303291</v>
       </c>
     </row>
     <row r="125">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>33.68227963432558</v>
+        <v>33.68227963432552</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.16833291785785</v>
+        <v>39.16833291785782</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>8.952288980657588</v>
+        <v>8.952288980657599</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>53.27281104246734</v>
+        <v>53.27281104246727</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>62.48389917160408</v>
+        <v>62.48389917160419</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.57311718178855</v>
+        <v>67.57311718178859</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>74.82553831328427</v>
+        <v>74.82553831328464</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>79.85642141658094</v>
+        <v>79.85642141658089</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.57815319795544</v>
+        <v>33.57815319795549</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>66.72350502938481</v>
+        <v>66.72350502938507</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>71.08010390638719</v>
+        <v>71.08010390638741</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>50.86561858232781</v>
+        <v>50.86561858232773</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>34.22074530149479</v>
+        <v>34.22074530149449</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>40.67083877897186</v>
+        <v>40.67083877897166</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>54.11716435534095</v>
+        <v>54.11716435534109</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>13.68766605945012</v>
+        <v>13.68766605944998</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>44.3703062551772</v>
+        <v>44.3703062551774</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.16598980462374</v>
+        <v>50.16598980462378</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>17.40104183090614</v>
+        <v>17.40104183090613</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>31.07866004673061</v>
+        <v>31.07866004673052</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>39.01559428985477</v>
+        <v>39.01559428985473</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>8.122431467615652</v>
+        <v>8.122431467615453</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.46579435748684</v>
+        <v>32.46579435748696</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>43.23364738148288</v>
+        <v>43.23364738148282</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>6.958858637037949</v>
+        <v>6.958858637038016</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>51.94534943542965</v>
+        <v>51.94534943542986</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>67.27041171706742</v>
+        <v>67.27041171706738</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>64.53055407179478</v>
+        <v>64.53055407179468</v>
       </c>
     </row>
     <row r="154">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>81.38049654922921</v>
+        <v>81.38049654922915</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>23.97269755378638</v>
+        <v>23.9726975537861</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>60.30158608924916</v>
+        <v>60.30158608924917</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>71.07680258190845</v>
+        <v>71.07680258190842</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>45.87896818491581</v>
+        <v>45.87896818491603</v>
       </c>
     </row>
     <row r="160">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.53464821854348</v>
+        <v>29.53464821854326</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>39.50761247469539</v>
+        <v>39.50761247469529</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>10.28385791474499</v>
+        <v>10.28385791474494</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>38.93728188650712</v>
+        <v>38.93728188650708</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>45.84319131051595</v>
+        <v>45.84319131051589</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>13.41228797043798</v>
+        <v>13.41228797043801</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.1304404308657</v>
+        <v>33.13044043086556</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.70152964280206</v>
+        <v>44.70152964280194</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>9.07004924852451</v>
+        <v>9.07004924852458</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>32.34100894038022</v>
+        <v>32.34100894038025</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>45.1663953758825</v>
+        <v>45.16639537588245</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>3.730869960199097</v>
+        <v>3.730869960199009</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>46.69515939990518</v>
+        <v>46.69515939990494</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>66.73692905871249</v>
+        <v>66.73692905871233</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>52.07260149827094</v>
+        <v>52.07260149827078</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>61.55313316121941</v>
+        <v>61.55313316121918</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>79.07676769473102</v>
+        <v>79.07676769473092</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>16.02869475256844</v>
+        <v>16.02869475256843</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>52.8809038177528</v>
+        <v>52.88090381775257</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>69.69869917832997</v>
+        <v>69.69869917833003</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>8.853018328198814</v>
+        <v>8.853018328198843</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19.99740141959737</v>
+        <v>19.99740141959722</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.89848711468615</v>
+        <v>29.89848711468618</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4.737592307130949</v>
+        <v>4.737592307130868</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>24.87293158894684</v>
+        <v>24.87293158894683</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.16624247849466</v>
+        <v>29.16624247849463</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>9.790436244209555</v>
+        <v>9.790436244209715</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>47.79085520684305</v>
+        <v>47.79085520684295</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>51.28240300378012</v>
+        <v>51.28240300378005</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>24.33505471183797</v>
+        <v>24.335054711838</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.56101355979271</v>
+        <v>29.56101355979269</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>32.48625372231372</v>
+        <v>32.48625372231371</v>
       </c>
     </row>
     <row r="193">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.95979720141219</v>
+        <v>18.95979720141225</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>37.1514338824086</v>
+        <v>37.15143388240848</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>13.02763113737647</v>
+        <v>13.0276311373764</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.56909631733733</v>
+        <v>29.56909631733721</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.84512057851045</v>
+        <v>28.84512057851037</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2.783715322000376</v>
+        <v>2.783715322000305</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>19.74287435495649</v>
+        <v>19.7428743549564</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>19.38647049321895</v>
+        <v>19.38647049321898</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>4.476567626180394</v>
+        <v>4.476567626180415</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>34.59847312536053</v>
+        <v>34.59847312536047</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>15.59581053891624</v>
+        <v>15.59581053891607</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>32.8583950834843</v>
+        <v>32.85839508348424</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>36.714499136822</v>
+        <v>36.71449913682202</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>8.279515701879912</v>
+        <v>8.279515701879927</v>
       </c>
     </row>
     <row r="208">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>43.09405177473904</v>
+        <v>43.09405177473901</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>12.09387445429336</v>
+        <v>12.0938744542934</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>61.06232984282506</v>
+        <v>61.06232984282502</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>59.58756381495311</v>
+        <v>59.58756381495297</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>53.07402382439125</v>
+        <v>53.07402382439117</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>58.27745998472211</v>
+        <v>58.27745998472207</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>58.70099225551475</v>
+        <v>58.70099225551463</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>21.36591900103371</v>
+        <v>21.36591900103365</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>39.39200391836289</v>
+        <v>39.39200391836296</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>46.8075415417749</v>
+        <v>46.80754154177474</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>24.17369187307358</v>
+        <v>24.17369187307372</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>41.26203909312949</v>
+        <v>41.26203909312939</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>38.53107097549614</v>
+        <v>38.53107097549595</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>7.097931253950289</v>
+        <v>7.097931253950438</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>34.69417578804553</v>
+        <v>34.69417578804557</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>34.6444331395732</v>
+        <v>34.64443313957317</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>11.54068087935447</v>
+        <v>11.54068087935459</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>55.73835778269893</v>
+        <v>55.7383577826991</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>7.745767259786085</v>
+        <v>7.745767259786067</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>26.50862171789474</v>
+        <v>26.50862171789469</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>31.72010220553442</v>
+        <v>31.72010220553438</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>5.338443825811087</v>
+        <v>5.338443825811058</v>
       </c>
     </row>
     <row r="231">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>41.79808963711659</v>
+        <v>41.79808963711655</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>9.484897029264117</v>
+        <v>9.484897029264083</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>57.74376680436191</v>
+        <v>57.74376680436184</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>58.51692582874537</v>
+        <v>58.5169258287454</v>
       </c>
     </row>
     <row r="236">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>59.7449987401434</v>
+        <v>59.74499874014346</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>61.37084094521045</v>
+        <v>61.37084094521042</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>9.414604343098384</v>
+        <v>9.414604343098357</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.7599894200754</v>
+        <v>29.75998942007536</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>37.70238223546297</v>
+        <v>37.70238223546298</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>19.76013021907561</v>
+        <v>19.76013021907564</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>36.01594612835521</v>
+        <v>36.01594612835518</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>36.08197887468362</v>
+        <v>36.08197887468368</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>5.389548885462023</v>
+        <v>5.389548885461945</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.58853978512404</v>
+        <v>30.58853978512403</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>34.82872996143937</v>
+        <v>34.82872996143941</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>10.11700410191289</v>
+        <v>10.1170041019129</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>50.74251278268619</v>
+        <v>50.74251278268615</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>3.99389039057198</v>
+        <v>3.993890390571991</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>22.9436363125775</v>
+        <v>22.94363631257747</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>31.72120788440932</v>
+        <v>31.72120788440938</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>7.409625609629586</v>
+        <v>7.409625609629455</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>38.01308078975516</v>
+        <v>38.01308078975518</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>44.36230605142261</v>
+        <v>44.36230605142256</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>8.537209029936038</v>
+        <v>8.537209029936049</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>57.01791433757583</v>
+        <v>57.0179143375757</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>61.0873282342525</v>
+        <v>61.08732823425234</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>52.08485689133209</v>
+        <v>52.08485689133199</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>56.83565608734533</v>
+        <v>56.83565608734526</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>59.0481387988343</v>
+        <v>59.04813879883427</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>9.026799906698248</v>
+        <v>9.026799906698329</v>
       </c>
     </row>
     <row r="263">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>41.27969589587704</v>
+        <v>41.27969589587693</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>12.45478819541604</v>
+        <v>12.45478819541598</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>32.75211532809253</v>
+        <v>32.7521153280925</v>
       </c>
     </row>
     <row r="267">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>4.895956992880762</v>
+        <v>4.895956992880823</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.8034549106946</v>
+        <v>28.80345491069455</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>33.85026524949492</v>
+        <v>33.8502652494949</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>6.776839159032644</v>
+        <v>6.776839159032651</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>46.32573713004353</v>
+        <v>46.32573713004345</v>
       </c>
     </row>
     <row r="273">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.85740228163041</v>
+        <v>28.85740228163038</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>42.96021028128804</v>
+        <v>42.96021028128807</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>42.99919882963394</v>
+        <v>42.99919882963388</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>18.76637804162911</v>
+        <v>18.76637804162906</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>32.5180216718848</v>
+        <v>32.51802167188477</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>36.51756723954258</v>
+        <v>36.51756723954252</v>
       </c>
     </row>
     <row r="280">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>27.92502490460926</v>
+        <v>27.9250249046092</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>36.1254142428946</v>
+        <v>36.12541424289459</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>3.05414220467167</v>
+        <v>3.054142204671628</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>18.75085713906838</v>
+        <v>18.75085713906836</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>24.17561284639665</v>
+        <v>24.17561284639666</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>7.886954377777894</v>
+        <v>7.886954377777883</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>38.04731351031062</v>
+        <v>38.04731351031045</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>52.07625716472177</v>
+        <v>52.07625716472186</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>34.26656290921431</v>
+        <v>34.26656290921421</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>49.74178980068263</v>
+        <v>49.74178980068277</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>52.7892828889484</v>
+        <v>52.78928288894839</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>18.84110189066287</v>
+        <v>18.84110189066289</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>35.30761440179784</v>
+        <v>35.30761440179774</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>46.6480749765539</v>
+        <v>46.64807497655391</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>55.88627790277152</v>
+        <v>55.8862779027714</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>55.34752347395951</v>
+        <v>55.34752347395941</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>63.07782232246717</v>
+        <v>63.07782232246707</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>61.988399853529</v>
+        <v>61.98839985352882</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.62985654158428</v>
+        <v>29.6298565415843</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>59.84295043028996</v>
+        <v>59.84295043028992</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>56.99921881669187</v>
+        <v>56.99921881669178</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>24.30798826479126</v>
+        <v>24.3079882647914</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>7.939258089508353</v>
+        <v>7.939258089508293</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>40.88543464111793</v>
+        <v>40.88543464111794</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>41.25174368737477</v>
+        <v>41.25174368737486</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>12.5457148636649</v>
+        <v>12.54571486366491</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>64.7698478687615</v>
+        <v>64.76984786876143</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>69.52764487009782</v>
+        <v>69.52764487009784</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>68.332472784462</v>
+        <v>68.33247278446206</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>74.03106841652482</v>
+        <v>74.03106841652479</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>75.99643852988527</v>
+        <v>75.9964385298854</v>
       </c>
     </row>
     <row r="312">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>70.24025378712342</v>
+        <v>70.24025378712354</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>71.23037959146203</v>
+        <v>71.2303795914619</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>57.3116393486125</v>
+        <v>57.31163934861235</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>52.53219590887137</v>
+        <v>52.53219590887143</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>56.88423570593784</v>
+        <v>56.88423570593787</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>60.12216255466961</v>
+        <v>60.12216255466957</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>23.90709151739014</v>
+        <v>23.90709151739012</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>55.68957769572995</v>
+        <v>55.68957769572984</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>55.11463464446511</v>
+        <v>55.11463464446486</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>18.04202261788372</v>
+        <v>18.04202261788375</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>36.40222101320656</v>
+        <v>36.40222101320663</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>39.75524934672822</v>
+        <v>39.75524934672824</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>5.250356891463674</v>
+        <v>5.250356891463728</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>38.51011419548394</v>
+        <v>38.51011419548396</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>41.82202390647305</v>
+        <v>41.82202390647301</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>9.365821592458614</v>
+        <v>9.365821592458591</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>61.07014162803672</v>
+        <v>61.07014162803677</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>69.36709292736235</v>
+        <v>69.36709292736232</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>66.66441148914758</v>
+        <v>66.66441148914748</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>71.40751614530687</v>
+        <v>71.4075161453067</v>
       </c>
     </row>
     <row r="333">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>25.47011557999711</v>
+        <v>25.47011557999713</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>65.81587853907337</v>
+        <v>65.81587853907362</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>69.08427396210737</v>
+        <v>69.08427396210745</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>52.49845025984516</v>
+        <v>52.49845025984519</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>38.86703313984167</v>
+        <v>38.86703313984161</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>45.89763314399268</v>
+        <v>45.89763314399245</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>47.58343524699435</v>
+        <v>47.58343524699428</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>20.48344504685945</v>
+        <v>20.48344504685933</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>51.40046456643101</v>
+        <v>51.40046456643104</v>
       </c>
     </row>
     <row r="343">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>15.55013655466027</v>
+        <v>15.55013655466025</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>38.09266183278019</v>
+        <v>38.09266183278007</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>44.93220355566574</v>
+        <v>44.93220355566572</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>6.62232862515199</v>
+        <v>6.622328625151933</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>39.00266701401807</v>
+        <v>39.00266701401794</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>45.65023761773577</v>
+        <v>45.65023761773578</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>9.124352708865135</v>
+        <v>9.124352708865121</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>58.61517507910277</v>
+        <v>58.61517507910273</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>71.73956530686213</v>
+        <v>71.73956530686208</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>60.01478373613718</v>
+        <v>60.01478373613709</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>70.26211246715823</v>
+        <v>70.2621124671582</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>77.50732598829191</v>
+        <v>77.50732598829184</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>22.94525624988875</v>
+        <v>22.94525624988874</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>66.9463704021652</v>
+        <v>66.94637040216521</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>75.12843470219319</v>
+        <v>75.12843470219309</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>12.20430755366346</v>
+        <v>12.20430755366343</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>25.37481846784216</v>
+        <v>25.374818467842</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>31.56252461959217</v>
+        <v>31.56252461959208</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-0.9894771057349487</v>
+        <v>-0.9894771057350127</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.63137028545377</v>
+        <v>16.63137028545371</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.74945798683733</v>
+        <v>20.74945798683729</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>3.315912963073593</v>
+        <v>3.315912963073693</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>43.90976713860672</v>
+        <v>43.90976713860674</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>44.32245537797055</v>
+        <v>44.32245537797053</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>21.98087168196258</v>
+        <v>21.9808716819626</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.99968413439804</v>
+        <v>28.99968413439793</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.7139265969269</v>
+        <v>28.71392659692691</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>8.841736108438806</v>
+        <v>8.841736108438745</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>16.80925571068454</v>
+        <v>16.80925571068451</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.66033292524187</v>
+        <v>21.66033292524171</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>16.72352360707441</v>
+        <v>16.72352360707437</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>32.17166723167001</v>
+        <v>32.17166723166994</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>32.31064030110598</v>
+        <v>32.31064030110587</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>2.423881022882235</v>
+        <v>2.423881022882156</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>18.12560707297692</v>
+        <v>18.12560707297669</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>20.01610538187439</v>
+        <v>20.01610538187435</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>2.510882480223867</v>
+        <v>2.51088248022382</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>34.73059869228795</v>
+        <v>34.73059869228777</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>21.01132793078092</v>
+        <v>21.01132793078098</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>40.83562386756833</v>
+        <v>40.83562386756839</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>40.67605850214511</v>
+        <v>40.67605850214504</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>5.672004055781894</v>
+        <v>5.672004055781869</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>37.98005688206081</v>
+        <v>37.98005688206099</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>38.68341276705605</v>
+        <v>38.68341276705597</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>8.893330560304763</v>
+        <v>8.893330560304809</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>60.49741211295562</v>
+        <v>60.49741211295556</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>56.2928910742483</v>
+        <v>56.29289107424816</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>51.61209605102314</v>
+        <v>51.61209605102306</v>
       </c>
     </row>
     <row r="392">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>55.08273483810348</v>
+        <v>55.08273483810343</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>15.6697469980815</v>
+        <v>15.66974699808151</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>42.3307421221367</v>
+        <v>42.33074212213684</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>40.65252344361143</v>
+        <v>40.65252344361133</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>24.59653624887563</v>
+        <v>24.59653624887562</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>44.15661770722814</v>
+        <v>44.1566177072279</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>42.54653607002221</v>
+        <v>42.54653607002231</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>6.518139293969433</v>
+        <v>6.518139293969476</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>35.9842646412494</v>
+        <v>35.9842646412493</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>38.23701108770669</v>
+        <v>38.23701108770679</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>8.536940171834981</v>
+        <v>8.536940171834978</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>58.56940643675232</v>
+        <v>58.56940643675254</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>11.97621956876719</v>
+        <v>11.97621956876731</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>33.03309258261713</v>
+        <v>33.0330925826171</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>34.08057288603275</v>
+        <v>34.08057288603274</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>2.838268805589383</v>
+        <v>2.838268805589404</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>34.18616175591248</v>
+        <v>34.18616175591244</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>37.19982501786956</v>
+        <v>37.19982501786955</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>6.804458403605121</v>
+        <v>6.80445840360505</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>56.9528810757556</v>
+        <v>56.95288107575558</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>54.82352670897509</v>
+        <v>54.823526708975</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>53.66244772441042</v>
+        <v>53.66244772441034</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>57.51930896947796</v>
+        <v>57.51930896947788</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>55.46320380105443</v>
+        <v>55.46320380105435</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>3.739513438459717</v>
+        <v>3.739513438459756</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>31.27043155161817</v>
+        <v>31.27043155161823</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.12878173178074</v>
+        <v>29.12878173178071</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>19.0817594444229</v>
+        <v>19.08175944442289</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>37.74641530413319</v>
+        <v>37.74641530413312</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>39.20556159598193</v>
+        <v>39.20556159598181</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>4.915922682126229</v>
+        <v>4.915922682126169</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.73048276145337</v>
+        <v>31.73048276145331</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>38.48637744803166</v>
+        <v>38.4863774480316</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>7.396713350829504</v>
+        <v>7.396713350829536</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>52.98390616810507</v>
+        <v>52.98390616810518</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>9.048825041970774</v>
+        <v>9.048825041970721</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>31.3905020593593</v>
+        <v>31.39050205935926</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>35.79127497009318</v>
+        <v>35.79127497009313</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>6.086614872991586</v>
+        <v>6.086614872991564</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>35.80512869173253</v>
+        <v>35.80512869173231</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>42.49796376994159</v>
+        <v>42.49796376994151</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>6.790783245556366</v>
+        <v>6.790783245556323</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>59.29197024824373</v>
+        <v>59.29197024824371</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>59.55138823448077</v>
+        <v>59.55138823448083</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>51.29299490803382</v>
+        <v>51.29299490803385</v>
       </c>
     </row>
     <row r="438">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>57.89649505505088</v>
+        <v>57.89649505505079</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>7.925415596244942</v>
+        <v>7.925415596244815</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.43560847040237</v>
+        <v>35.43560847040229</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>35.10996374268916</v>
+        <v>35.10996374268888</v>
       </c>
     </row>
     <row r="443">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>35.84713637806323</v>
+        <v>35.84713637806315</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>38.71431474983833</v>
+        <v>38.71431474983815</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>6.659857618073858</v>
+        <v>6.659857618073776</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>30.56740516193504</v>
+        <v>30.56740516193501</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>38.45368137707901</v>
+        <v>38.45368137707899</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>6.893326035211864</v>
+        <v>6.893326035211722</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>49.38593790948059</v>
+        <v>49.38593790948048</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>34.28998555931322</v>
+        <v>34.28998555931321</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.93419156368785</v>
+        <v>29.93419156368781</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>46.07076711976994</v>
+        <v>46.07076711977001</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>45.0843284633667</v>
+        <v>45.08432846336679</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>12.9805359044838</v>
+        <v>12.98053590448381</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.35747820810398</v>
+        <v>29.35747820810392</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>34.16281299788528</v>
+        <v>34.16281299788531</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>20.73997571616335</v>
+        <v>20.73997571616329</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>33.82163954252638</v>
+        <v>33.82163954252634</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>39.28798146798562</v>
+        <v>39.28798146798564</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>1.374882778007734</v>
+        <v>1.374882778007677</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>17.73305951083147</v>
+        <v>17.73305951083155</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>22.97535054206184</v>
+        <v>22.97535054206181</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>5.781831658202478</v>
+        <v>5.781831658202432</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>38.99904785872923</v>
+        <v>38.99904785872926</v>
       </c>
     </row>
     <row r="466">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>36.80068424209018</v>
+        <v>36.80068424209007</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>51.44582077272943</v>
+        <v>51.44582077272933</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>54.4274360356834</v>
+        <v>54.42743603568334</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>15.66428830666834</v>
+        <v>15.66428830666824</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.94181038368058</v>
+        <v>34.9418103836805</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>44.99106800457579</v>
+        <v>44.99106800457575</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>61.62303681648301</v>
+        <v>61.62303681648291</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>58.11386383264545</v>
+        <v>58.11386383264529</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>69.09553110216631</v>
+        <v>69.09553110216629</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>66.70127810077483</v>
+        <v>66.70127810077466</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>23.74599752286712</v>
+        <v>23.74599752286727</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>60.66846209611926</v>
+        <v>60.66846209611938</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>60.80374299129411</v>
+        <v>60.80374299129417</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.38712035210523</v>
+        <v>29.38712035210531</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>50.03816063010817</v>
+        <v>50.03816063010824</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>47.08564338692955</v>
+        <v>47.08564338692965</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>7.341993464339254</v>
+        <v>7.341993464339286</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>43.34446651701143</v>
+        <v>43.34446651701144</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>41.61317682160909</v>
+        <v>41.6131768216092</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>10.74374031625782</v>
+        <v>10.74374031625783</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>68.67087763942216</v>
+        <v>68.67087763942213</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>70.81360573547343</v>
+        <v>70.81360573547349</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>75.57373121454633</v>
+        <v>75.57373121454637</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>80.88320215173289</v>
+        <v>80.88320215173275</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>82.65931250329523</v>
+        <v>82.65931250329528</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>32.88697063622912</v>
+        <v>32.88697063622931</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>74.38057837998143</v>
+        <v>74.38057837998151</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>73.95394065557052</v>
+        <v>73.95394065557069</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>62.99995663692195</v>
+        <v>62.99995663692192</v>
       </c>
     </row>
     <row r="496">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>61.73870930216776</v>
+        <v>61.73870930216755</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>65.07730904031662</v>
+        <v>65.07730904031658</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>18.13220088755242</v>
+        <v>18.13220088755251</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>56.64461883976655</v>
+        <v>56.64461883976666</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>58.62635729049273</v>
+        <v>58.62635729049265</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.55445138721155</v>
+        <v>21.55445138721149</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>43.320100503446</v>
+        <v>43.32010050344596</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>42.57027797802756</v>
+        <v>42.57027797802758</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>4.290184894253485</v>
+        <v>4.290184894253557</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>40.39595410768888</v>
+        <v>40.39595410768884</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>41.80372492399114</v>
+        <v>41.80372492399113</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>6.994339330445438</v>
+        <v>6.994339330445381</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>63.84842715445701</v>
+        <v>63.8484271544571</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>69.95644610938284</v>
+        <v>69.95644610938304</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>73.22490496680425</v>
+        <v>73.22490496680405</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>77.15093325683043</v>
+        <v>77.15093325683023</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>83.40042262123183</v>
+        <v>83.4004226212318</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>24.73667690836043</v>
+        <v>24.73667690836048</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>69.96059122189536</v>
+        <v>69.96059122189533</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>71.4796498926967</v>
+        <v>71.47964989269661</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>58.40849486851704</v>
+        <v>58.408494868517</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>41.17591756289833</v>
+        <v>41.17591756289825</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>50.47857840627044</v>
+        <v>50.47857840627037</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>53.32615859322688</v>
+        <v>53.32615859322687</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>17.63814048760549</v>
+        <v>17.63814048760552</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>54.28423416659722</v>
+        <v>54.28423416659696</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>57.71939460723559</v>
+        <v>57.71939460723549</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>19.01646786401279</v>
+        <v>19.0164678640127</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>44.30163751318329</v>
+        <v>44.30163751318341</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>47.75920916046938</v>
+        <v>47.75920916046925</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>6.523755134585823</v>
+        <v>6.523755134585731</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>41.1323094612745</v>
+        <v>41.13230946127442</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>46.91870178919002</v>
+        <v>46.91870178918994</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>7.666734474089324</v>
+        <v>7.666734474089239</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>61.44324264219675</v>
+        <v>61.44324264219655</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>73.17328299307714</v>
+        <v>73.17328299307692</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>65.13902804532979</v>
+        <v>65.1390280453297</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>74.02064160100424</v>
+        <v>74.02064160100392</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>82.79965878749893</v>
+        <v>82.79965878749877</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>21.59698754527803</v>
+        <v>21.59698754527797</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>71.97477731275094</v>
+        <v>71.9747773127509</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>77.79503714870414</v>
+        <v>77.79503714870415</v>
       </c>
     </row>
     <row r="539">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>16.73026465386556</v>
+        <v>16.73026465386553</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>23.67197476243121</v>
+        <v>23.67197476243127</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1.198305400678336</v>
+        <v>-1.198305400678276</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>10.29441251894007</v>
+        <v>10.29441251894004</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>13.55302782651461</v>
+        <v>13.55302782651453</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>3.535583765684883</v>
+        <v>3.535583765684915</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.80207586526451</v>
+        <v>28.8020758652645</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>30.82980898709903</v>
+        <v>30.8298089870991</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>11.74583390240151</v>
+        <v>11.74583390240158</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>16.44405390279774</v>
+        <v>16.44405390279772</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>18.91415529399513</v>
+        <v>18.91415529399525</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>10.39260449489706</v>
+        <v>10.39260449489714</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>14.02512655451649</v>
+        <v>14.02512655451651</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>23.91144418325212</v>
+        <v>23.91144418325216</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.098132184559567</v>
+        <v>9.098132184559528</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>18.56771521511584</v>
+        <v>18.56771521511576</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>20.96887832507318</v>
+        <v>20.96887832507312</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-2.783436722552246</v>
+        <v>-2.78343672255226</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>4.099703940117305</v>
+        <v>4.099703940117248</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>7.06206274307355</v>
+        <v>7.062062743073554</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-2.637383907146788</v>
+        <v>-2.637383907146731</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>15.40753568281087</v>
+        <v>15.40753568281089</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>14.84587533440004</v>
+        <v>14.84587533440009</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>23.92035665372284</v>
+        <v>23.92035665372289</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.61677114912811</v>
+        <v>26.6167711491281</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>0.6263261232998119</v>
+        <v>0.6263261232999078</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.23799563052177</v>
+        <v>23.23799563052187</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.26406823817361</v>
+        <v>24.2640682381736</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>5.860161450954379</v>
+        <v>5.860161450954394</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>38.83746966027826</v>
+        <v>38.83746966027834</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>38.28360528519863</v>
+        <v>38.28360528519865</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>36.3962972734216</v>
+        <v>36.39629727342167</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>40.94282789163131</v>
+        <v>40.94282789163139</v>
       </c>
     </row>
     <row r="573">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>16.53344928807424</v>
+        <v>16.53344928807421</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>38.60398419994797</v>
+        <v>38.60398419994803</v>
       </c>
     </row>
     <row r="576">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>13.15222934454304</v>
+        <v>13.152229344543</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.66655796007443</v>
+        <v>25.66655796007451</v>
       </c>
     </row>
     <row r="579">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-0.3244929903652185</v>
+        <v>-0.3244929903652825</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>18.39494145026556</v>
+        <v>18.39494145026545</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.27713042540482</v>
+        <v>23.27713042540473</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>1.655467826793682</v>
+        <v>1.655467826793743</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>35.45234420195927</v>
+        <v>35.45234420195916</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>7.443544083649346</v>
+        <v>7.443544083649432</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>17.36909579461267</v>
+        <v>17.3690957946126</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>21.76914088649807</v>
+        <v>21.76914088649819</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-1.27267184711862</v>
+        <v>-1.272671847118598</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>20.11531900892859</v>
+        <v>20.11531900892846</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.84030761356562</v>
+        <v>23.84030761356554</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>5.20571279875573</v>
+        <v>5.205712798755794</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>36.369722437899</v>
+        <v>36.36972243789882</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>38.67561857710255</v>
+        <v>38.67561857710253</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>38.39491233469337</v>
+        <v>38.39491233469351</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>40.5890285546315</v>
+        <v>40.58902855463165</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>43.49202694692757</v>
+        <v>43.49202694692762</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>5.322280488747371</v>
+        <v>5.322280488747271</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.02889076054537</v>
+        <v>29.02889076054532</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>32.35149591901247</v>
+        <v>32.35149591901252</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>7.996871353883954</v>
+        <v>7.996871353884039</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>19.19149229530318</v>
+        <v>19.19149229530325</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.69069551169094</v>
+        <v>24.69069551169099</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-2.197150587185362</v>
+        <v>-2.19715058718533</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>13.67329277714945</v>
+        <v>13.67329277714947</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>23.75797578180502</v>
+        <v>23.75797578180499</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>0.793794155684008</v>
+        <v>0.793794155684072</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.67969867170714</v>
+        <v>29.67969867170705</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>2.518860938886352</v>
+        <v>2.518860938886338</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>13.24366169220297</v>
+        <v>13.24366169220296</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>21.33087426007558</v>
+        <v>21.33087426007547</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-1.34333931942437</v>
+        <v>-1.343339319424405</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>18.79080552909595</v>
+        <v>18.79080552909591</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.9975750742605</v>
+        <v>26.99757507426049</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-0.3213183042983268</v>
+        <v>-0.3213183042983125</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>32.94128576139452</v>
+        <v>32.9412857613946</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>38.70106357799723</v>
+        <v>38.7010635779973</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.75231353559721</v>
+        <v>31.75231353559714</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.27513282676352</v>
+        <v>36.27513282676349</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>41.20792211001081</v>
+        <v>41.2079221100107</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>3.306895660368951</v>
+        <v>3.306895660368792</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.81835526872602</v>
+        <v>25.81835526872597</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>33.40446373363108</v>
+        <v>33.40446373363104</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>4.943544681785642</v>
+        <v>4.943544681785696</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>17.69228321519066</v>
+        <v>17.69228321519046</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.16440362942837</v>
+        <v>25.16440362942834</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-0.949146746968303</v>
+        <v>-0.949146746968335</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>11.96516948327614</v>
+        <v>11.96516948327604</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>23.70776429120031</v>
+        <v>23.70776429120036</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-0.2563026289001407</v>
+        <v>-0.256302628900098</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.19004689435316</v>
+        <v>25.19004689435307</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>15.97170891185162</v>
+        <v>15.97170891185149</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>11.79297756982995</v>
+        <v>11.79297756982998</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>23.07605791109381</v>
+        <v>23.07605791109389</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>22.85752101463795</v>
+        <v>22.85752101463794</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>1.183458286171607</v>
+        <v>1.1834582861717</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>10.72308864911716</v>
+        <v>10.72308864911723</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>15.54185609351578</v>
+        <v>15.54185609351563</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>16.16602264772832</v>
+        <v>16.16602264772829</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>23.7030686413371</v>
+        <v>23.70306864133708</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.42959857735574</v>
+        <v>31.42959857735566</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-2.053020266379107</v>
+        <v>-2.0530202663792</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>7.019918261926353</v>
+        <v>7.019918261926374</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>12.81161041334185</v>
+        <v>12.8116104133419</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>2.310854688371354</v>
+        <v>2.310854688371325</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>24.99965220264329</v>
+        <v>24.99965220264315</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>37.21360454688597</v>
+        <v>37.213604546886</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>24.4040692569591</v>
+        <v>24.40406925695907</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.40539214111045</v>
+        <v>34.40539214111055</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>37.81929151280205</v>
+        <v>37.81929151280222</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>7.639680399268375</v>
+        <v>7.63968039926819</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>19.23216573703213</v>
+        <v>19.23216573703218</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.53293115859061</v>
+        <v>29.5329311585905</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>40.32570966000284</v>
+        <v>40.32570966000266</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.25516966804013</v>
+        <v>36.25516966804015</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43.90454299428831</v>
+        <v>43.90454299428863</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>42.31273644920547</v>
+        <v>42.31273644920533</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>11.16900113826671</v>
+        <v>11.16900113826678</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>39.92072001505379</v>
+        <v>39.92072001505375</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>42.08472986182707</v>
+        <v>42.08472986182713</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>23.29680041573731</v>
+        <v>23.2968004157374</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.01327414807483</v>
+        <v>38.01327414807486</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>39.2685792590809</v>
+        <v>39.26857925908082</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>5.443094358558415</v>
+        <v>5.443094358558344</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>33.27852187353136</v>
+        <v>33.27852187353137</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.49527832456362</v>
+        <v>34.49527832456364</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>9.835709670711097</v>
+        <v>9.835709670711125</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>56.14966421044358</v>
+        <v>56.14966421044365</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>58.89801366364506</v>
+        <v>58.89801366364487</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>67.47124229497167</v>
+        <v>67.47124229497174</v>
       </c>
     </row>
     <row r="670">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>70.63054981446622</v>
+        <v>70.63054981446611</v>
       </c>
     </row>
     <row r="672">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>62.86512124484176</v>
+        <v>62.86512124484187</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>66.3729006549132</v>
+        <v>66.37290065491304</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>42.45882356963217</v>
+        <v>42.45882356963229</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>31.42075573681793</v>
+        <v>31.42075573681799</v>
       </c>
     </row>
     <row r="677">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>41.172318635557</v>
+        <v>41.17231863555682</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>5.389240400523583</v>
+        <v>5.389240400523644</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>35.96523466761712</v>
+        <v>35.96523466761708</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>40.98624203415056</v>
+        <v>40.98624203415055</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>16.20683946206132</v>
+        <v>16.20683946206129</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>32.29571003968225</v>
+        <v>32.29571003968232</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.14697273100238</v>
+        <v>36.14697273100236</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>3.057057115377074</v>
+        <v>3.057057115377045</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.39775498849054</v>
+        <v>31.39775498849042</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.17193665151686</v>
+        <v>36.17193665151687</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>7.191486338004935</v>
+        <v>7.191486338004939</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>52.87711919030916</v>
+        <v>52.87711919030917</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>60.3682091523156</v>
+        <v>60.36820915231547</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>65.39000375345766</v>
+        <v>65.39000375345746</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>66.62125022343064</v>
+        <v>66.62125022343059</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>73.08295531302041</v>
+        <v>73.08295531302024</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>23.34485218299838</v>
+        <v>23.34485218299837</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>59.84258310198196</v>
+        <v>59.8425831019818</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>66.31733303453908</v>
+        <v>66.31733303453888</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>38.70373904552076</v>
+        <v>38.70373904552086</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>18.64516555731892</v>
+        <v>18.64516555731893</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>24.91010695144986</v>
+        <v>24.91010695144994</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.76202195289531</v>
+        <v>29.76202195289544</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>3.277663207070411</v>
+        <v>3.27766320707023</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>32.24708224933661</v>
+        <v>32.24708224933666</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>39.12526401348671</v>
+        <v>39.12526401348664</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>13.2756601719067</v>
+        <v>13.27566017190668</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>32.33947985433269</v>
+        <v>32.33947985433259</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>40.16409549455169</v>
+        <v>40.16409549455165</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>3.108920032876604</v>
+        <v>3.108920032876579</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.89583617606652</v>
+        <v>28.89583617606635</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.20295637017824</v>
+        <v>38.20295637017826</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>5.045057060241913</v>
+        <v>5.045057060241902</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>47.62618956053728</v>
+        <v>47.62618956053731</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>61.2232660928811</v>
+        <v>61.22326609288115</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>52.62914926785274</v>
+        <v>52.62914926785268</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>58.90144340597274</v>
+        <v>58.90144340597264</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>68.61147832547108</v>
+        <v>68.61147832547134</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>12.8818380532915</v>
+        <v>12.88183805329136</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>56.48436511912334</v>
+        <v>56.48436511912325</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>66.57381846044804</v>
+        <v>66.573818460448</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>13.08196020151349</v>
+        <v>13.0819602015136</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>15.71447355138663</v>
+        <v>15.7144735513867</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.82422424234762</v>
+        <v>26.82422424234761</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>2.468625102479781</v>
+        <v>2.468625102479827</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>18.03434790966879</v>
+        <v>18.03434790966893</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>20.28478967634898</v>
+        <v>20.28478967634882</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>8.975821520943727</v>
+        <v>8.975821520943873</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>37.58584595973121</v>
+        <v>37.58584595973107</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>41.88550907692937</v>
+        <v>41.88550907692942</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>16.61153516666002</v>
+        <v>16.61153516666014</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>22.50913548389945</v>
+        <v>22.50913548389963</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.35939653754686</v>
+        <v>26.35939653754685</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>17.27057932187994</v>
+        <v>17.27057932187986</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>16.00577903095198</v>
+        <v>16.00577903095179</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>30.60366624906822</v>
+        <v>30.60366624906797</v>
       </c>
     </row>
     <row r="734">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.20148058114658</v>
+        <v>28.20148058114634</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>35.520126250171</v>
+        <v>35.52012625017084</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>0.7555759222386769</v>
+        <v>0.7555759222388332</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>13.30560617263644</v>
+        <v>13.30560617263642</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>17.456882730835</v>
+        <v>17.45688273083484</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>0.130439849979247</v>
+        <v>0.1304398499791333</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.67229510337225</v>
+        <v>25.67229510337205</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>15.83227079187038</v>
+        <v>15.83227079187021</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>27.68444846252067</v>
+        <v>27.68444846252056</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>31.75578449554098</v>
+        <v>31.75578449554095</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>3.023939109018254</v>
+        <v>3.023939109018265</v>
       </c>
     </row>
     <row r="746">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>37.97395408716354</v>
+        <v>37.97395408716334</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>6.114931330988629</v>
+        <v>6.114931330988504</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>52.36033663321325</v>
+        <v>52.36033663321341</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>51.33981221501941</v>
+        <v>51.33981221501931</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>50.66635032446941</v>
+        <v>50.6663503244696</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>58.98928452355563</v>
+        <v>58.98928452355564</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>60.11440096515531</v>
+        <v>60.11440096515497</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>21.82662744253466</v>
+        <v>21.82662744253471</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>46.81637993411661</v>
+        <v>46.81637993411677</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>51.08625710280241</v>
+        <v>51.08625710280248</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>20.2941541795014</v>
+        <v>20.29415417950138</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>40.82522583685569</v>
+        <v>40.82522583685563</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>45.35549150612218</v>
+        <v>45.35549150612228</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>6.934111810371636</v>
+        <v>6.934111810371537</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>34.81563839076128</v>
+        <v>34.8156383907614</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>44.9467945018865</v>
+        <v>44.94679450188674</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>7.814616139364563</v>
+        <v>7.814616139364428</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>56.53964175588483</v>
+        <v>56.53964175588465</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>6.786781292896144</v>
+        <v>6.786781292896137</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>22.48582455097668</v>
+        <v>22.48582455097644</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.57441954805638</v>
+        <v>28.5744195480563</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-0.789964169752043</v>
+        <v>-0.7899641697519435</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>34.4339727253914</v>
+        <v>34.43397272539156</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>38.3072007513724</v>
+        <v>38.30720075137263</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>3.258997501110905</v>
+        <v>3.25899750111051</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>50.82291741784516</v>
+        <v>50.82291741784482</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>53.27483727157505</v>
+        <v>53.2748372715748</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>53.83749764828675</v>
+        <v>53.83749764828655</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>58.31356046639668</v>
+        <v>58.31356046639641</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>62.12374795980895</v>
+        <v>62.1237479598089</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>8.192575404482891</v>
+        <v>8.192575404482884</v>
       </c>
     </row>
     <row r="778">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>44.30307980830385</v>
+        <v>44.30307980830383</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>13.44247995968352</v>
+        <v>13.44247995968361</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>34.47931876594038</v>
+        <v>34.4793187659403</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>42.23215336559296</v>
+        <v>42.23215336559301</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>3.029956045590406</v>
+        <v>3.029956045590236</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.94711811713002</v>
+        <v>28.9471181171301</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>45.93213596188497</v>
+        <v>45.93213596188495</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>4.557929824938448</v>
+        <v>4.557929824938437</v>
       </c>
     </row>
     <row r="787">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>2.526432305044292</v>
+        <v>2.526432305044462</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>18.1571517485944</v>
+        <v>18.15715174859452</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>27.85492078950243</v>
+        <v>27.85492078950228</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>0.5934858841971931</v>
+        <v>0.5934858841972215</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>34.44976495839308</v>
+        <v>34.44976495839324</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>39.56735906962135</v>
+        <v>39.56735906962134</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>1.902027736046549</v>
+        <v>1.902027736046605</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>48.57946101976579</v>
+        <v>48.57946101976545</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>55.00986740911832</v>
+        <v>55.00986740911814</v>
       </c>
     </row>
     <row r="797">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>49.47760758455</v>
+        <v>49.47760758455009</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>52.78488693245971</v>
+        <v>52.78488693245978</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>6.478999980178891</v>
+        <v>6.478999980179079</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>26.49842197881656</v>
+        <v>26.49842197881649</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>43.38520534942715</v>
+        <v>43.38520534942744</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>7.144868548982917</v>
+        <v>7.144868548982931</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>32.40300402736838</v>
+        <v>32.40300402736825</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>43.29168192006092</v>
+        <v>43.29168192006075</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>2.312787664638584</v>
+        <v>2.312787664638634</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>26.73111292094503</v>
+        <v>26.73111292094491</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>43.05238611178689</v>
+        <v>43.05238611178696</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>1.121988208000257</v>
+        <v>1.121988208000339</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>45.00297037812656</v>
+        <v>45.00297037812638</v>
       </c>
     </row>
     <row r="811">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.17823829968983</v>
+        <v>25.17823829968959</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>47.68973877315926</v>
+        <v>47.68973877315919</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>55.12230435885117</v>
+        <v>55.12230435885083</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>5.524645931994062</v>
+        <v>5.524645931994094</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>24.67923928585313</v>
+        <v>24.67923928585308</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>35.1972095019885</v>
+        <v>35.19720950198831</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>13.75098671284624</v>
+        <v>13.75098671284622</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.26020813671896</v>
+        <v>26.26020813671906</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>37.5102588370483</v>
+        <v>37.51025883704821</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>0.02758599526255878</v>
+        <v>0.02758599526259431</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>11.66730072144859</v>
+        <v>11.66730072144864</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>16.41415744217008</v>
+        <v>16.41415744217021</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>0.4300366133294631</v>
+        <v>0.4300366133296691</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.87212052669168</v>
+        <v>28.87212052669179</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>43.18132659829729</v>
+        <v>43.18132659829742</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.16062402902092</v>
+        <v>29.16062402902072</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>53.88430565468687</v>
+        <v>53.88430565468676</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>57.7900520851795</v>
+        <v>57.79005208517935</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>4.745994674844109</v>
+        <v>4.745994674844081</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>26.26566053574457</v>
+        <v>26.26566053574467</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>37.3194732854943</v>
+        <v>37.31947328549412</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>70.11571082206906</v>
+        <v>70.11571082206899</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>62.52216761700348</v>
+        <v>62.52216761700338</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>77.1968629769684</v>
+        <v>77.19686297696848</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>85.52704459336277</v>
+        <v>85.52704459336259</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>25.1991845293334</v>
+        <v>25.19918452933342</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>75.42567106573087</v>
+        <v>75.42567106573051</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>79.11768525233342</v>
+        <v>79.11768525233333</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>23.80765394403029</v>
+        <v>23.80765394403048</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>46.14913134875522</v>
+        <v>46.14913134875527</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>50.95098061528446</v>
+        <v>50.95098061528432</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>7.778097257380601</v>
+        <v>7.778097257380562</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>44.58786944542504</v>
+        <v>44.58786944542511</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>49.22984867388961</v>
+        <v>49.22984867388969</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>8.952761107828177</v>
+        <v>8.952761107828234</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>72.29317426256524</v>
+        <v>72.29317426256533</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>79.36071353807318</v>
+        <v>79.36071353807314</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>84.37110423971434</v>
+        <v>84.37110423971428</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>96.87642230619512</v>
+        <v>96.87642230619478</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>98.85818784048993</v>
+        <v>98.85818784048975</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>34.74093612289904</v>
+        <v>34.74093612289906</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>92.35196706413413</v>
+        <v>92.35196706413416</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>93.22662941091055</v>
+        <v>93.22662941091068</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>72.89236987001509</v>
+        <v>72.892369870015</v>
       </c>
     </row>
     <row r="856">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>64.21717522254485</v>
+        <v>64.21717522254478</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>80.67464033884747</v>
+        <v>80.67464033884735</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>16.44065566108559</v>
+        <v>16.44065566108574</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>69.48072737274367</v>
+        <v>69.48072737274357</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>77.36780247164673</v>
+        <v>77.36780247164656</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>14.67798847037903</v>
+        <v>14.67798847037912</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>39.66875164295983</v>
+        <v>39.6687516429598</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>47.24159332127297</v>
+        <v>47.24159332127289</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>3.74844166587387</v>
+        <v>3.748441665873941</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>42.14276168515661</v>
+        <v>42.14276168515677</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>52.12265975762462</v>
+        <v>52.12265975762476</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>4.211664169003104</v>
+        <v>4.211664169003118</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>68.45121033375663</v>
+        <v>68.45121033375659</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>81.81185347736169</v>
+        <v>81.81185347736165</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>79.8539730263618</v>
+        <v>79.85397302636174</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>91.18843471672577</v>
+        <v>91.18843471672595</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>99.24676500156282</v>
+        <v>99.24676500156265</v>
       </c>
     </row>
     <row r="874">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>85.35333688657693</v>
+        <v>85.35333688657705</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>92.16238183455975</v>
+        <v>92.16238183455951</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>67.50354124833943</v>
+        <v>67.50354124833932</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>36.94201633144192</v>
+        <v>36.94201633144183</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>49.68827059014845</v>
+        <v>49.68827059014866</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>63.74102575272674</v>
+        <v>63.74102575272633</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>12.23356082732926</v>
+        <v>12.2335608273293</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>58.71813479437624</v>
+        <v>58.71813479437598</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>71.27366326663058</v>
+        <v>71.27366326663045</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>12.45813908314109</v>
+        <v>12.45813908314103</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>41.60915651999417</v>
+        <v>41.60915651999431</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>53.99201177208438</v>
+        <v>53.99201177208444</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>6.146663529786071</v>
+        <v>6.146663529786078</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>41.01817872261356</v>
+        <v>41.01817872261377</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>54.25166528549655</v>
+        <v>54.25166528549661</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>3.616815663744102</v>
+        <v>3.61681566374418</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>61.94216049019275</v>
+        <v>61.94216049019266</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>82.12797935786253</v>
+        <v>82.12797935786242</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>68.15137058911222</v>
+        <v>68.15137058911235</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>85.29558298799412</v>
+        <v>85.29558298799408</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>99.72242566146289</v>
+        <v>99.72242566146306</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>16.86573607550896</v>
+        <v>16.86573607550906</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>76.7658379098234</v>
+        <v>76.76583790982357</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>90.74484777136357</v>
+        <v>90.7448477713631</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test2/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.62</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.682</v>
+        <v>16.27</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.603</v>
+        <v>16.944</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.966</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.021</v>
+        <v>2.271</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.20476828359979</v>
+        <v>11.66867957328483</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9.266589047508168</v>
+        <v>12.63918053802318</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16.96402383268791</v>
+        <v>20.61320417512537</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.191277340148698</v>
+        <v>4.450315299295763</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9.251725795991883</v>
+        <v>12.49065308078459</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>11.08614326235344</v>
+        <v>14.89748679818455</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.785365949061138</v>
+        <v>8.638451222221804</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.29178366726266</v>
+        <v>26.43892732260804</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>24.48617962697655</v>
+        <v>28.31855333618955</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7.777491263554033</v>
+        <v>12.09223574714261</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>11.63515282869417</v>
+        <v>15.60189622122938</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13.22397892473385</v>
+        <v>17.22289452085576</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.38107121230422</v>
+        <v>14.01117748116425</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4.320860008919492</v>
+        <v>9.451193936836898</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>13.59516591644121</v>
+        <v>17.97520788160964</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12.92126388095844</v>
+        <v>12.33045634304507</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>20.08323587578531</v>
+        <v>21.28589003723141</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25.48864083288247</v>
+        <v>29.80099765228181</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.59562472783405</v>
+        <v>6.968698808107575</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.176737928471168</v>
+        <v>11.79652514816446</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>12.53965311427501</v>
+        <v>16.37503107526602</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.7028927122089783</v>
+        <v>3.957056573428481</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>13.7891752605448</v>
+        <v>16.0592704906793</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16.27009923416087</v>
+        <v>19.35421845639434</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>20.92724900887218</v>
+        <v>26.82486077149859</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>22.7476188577462</v>
+        <v>25.6362287063876</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.092135153645682</v>
+        <v>4.078584366713184</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.16901821875248</v>
+        <v>29.86006810809473</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.91091526444662</v>
+        <v>32.15111950506473</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6.073902664703859</v>
+        <v>7.343049421461622</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>37.45189895788596</v>
+        <v>40.93682872786316</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.94418793152767</v>
+        <v>38.78373386211894</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.77108472084144</v>
+        <v>38.81017879690445</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42.71355489168694</v>
+        <v>46.16366363549634</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>44.00484147934125</v>
+        <v>47.10644987762942</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>20.34236527096947</v>
+        <v>19.21281063909762</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.06311545163673</v>
+        <v>27.10624200466435</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>32.91107408564169</v>
+        <v>30.72742709389331</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.10495806145188</v>
+        <v>18.3756118024684</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>27.04961066583977</v>
+        <v>29.19673775978146</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.7236792358684</v>
+        <v>32.31028421723341</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7.077264164875249</v>
+        <v>7.357475738976145</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>22.64389576274552</v>
+        <v>27.35358370869196</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>32.61046858512788</v>
+        <v>35.36611248705227</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>36.0300688299034</v>
+        <v>41.59516426166614</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.43390346996576</v>
+        <v>10.5816907882953</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>19.17333312239325</v>
+        <v>22.12869153240291</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.69211028863047</v>
+        <v>25.3371862491666</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.6291902725722238</v>
+        <v>2.761464463445026</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.69812889873532</v>
+        <v>27.19589798028746</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.56540834606136</v>
+        <v>32.04633041202693</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.618950965659977</v>
+        <v>8.532526655746132</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>39.81769973475186</v>
+        <v>42.01013914258969</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>40.32900554321202</v>
+        <v>44.29901900895789</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.78364714033633</v>
+        <v>42.96466221475057</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>43.05379894960893</v>
+        <v>48.71768128602429</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>47.57415056007869</v>
+        <v>51.9918933250479</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>11.4384902728548</v>
+        <v>13.12000525497239</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>24.11659603392799</v>
+        <v>26.47372870305965</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>30.59487740674583</v>
+        <v>30.56946745776317</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.59177207480671</v>
+        <v>12.99656874275007</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>23.45485961493853</v>
+        <v>26.83071959705006</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.37145314615989</v>
+        <v>32.45182377754491</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5.18369561258211</v>
+        <v>6.81829047052484</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>19.09082407949101</v>
+        <v>22.96559501493719</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.89435622193047</v>
+        <v>35.65252679634969</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3.37893783074303</v>
+        <v>5.527543988090606</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>33.4030381850767</v>
+        <v>38.41286817043857</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4.319760275684722</v>
+        <v>7.12519699367818</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>14.3892645737212</v>
+        <v>17.91248594314764</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>20.33444742212328</v>
+        <v>23.04291571835438</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-0.1340470579567956</v>
+        <v>2.919875413348411</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.09637039672834</v>
+        <v>27.40764323692145</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.95760888755812</v>
+        <v>32.20091664963419</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1.060269379864771</v>
+        <v>4.070616513032768</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>35.45678586668256</v>
+        <v>38.60470176502248</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>38.59323461254441</v>
+        <v>42.53380917202048</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.54265915990484</v>
+        <v>33.155191909314</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>32.16839855645949</v>
+        <v>37.16832632658353</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.30508795476325</v>
+        <v>42.08938996889881</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>7.568334177131305</v>
+        <v>10.03463907370095</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>15.13234195576426</v>
+        <v>17.85623028187104</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.63616162060751</v>
+        <v>32.41956473391696</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>7.652455082270301</v>
+        <v>10.23553658476667</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>23.96258297678343</v>
+        <v>24.58897158292516</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>30.30169523545341</v>
+        <v>31.21498027532715</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5.259553005451529</v>
+        <v>7.328177151552321</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>19.91507796044369</v>
+        <v>24.01694577133008</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>33.07215574550735</v>
+        <v>34.94602244446743</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.2398018785631244</v>
+        <v>2.554001101101157</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>31.57915872476154</v>
+        <v>34.72227062530465</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>18.13800881507091</v>
+        <v>20.12973618702271</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>13.01639988395339</v>
+        <v>17.50470529921268</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>32.29892389751135</v>
+        <v>35.42181811392115</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>34.54644089455107</v>
+        <v>39.39217597447963</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>4.849796198328882</v>
+        <v>7.633086031324616</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>11.11801549808792</v>
+        <v>14.45430357301794</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>16.42431200234149</v>
+        <v>20.65139126141524</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>13.84131498574546</v>
+        <v>14.5156026132283</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>18.68539972246831</v>
+        <v>23.09789825648282</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.27931909328242</v>
+        <v>32.24907284343455</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>4.167133268709957</v>
+        <v>6.701994714677799</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>7.285590658460592</v>
+        <v>10.15153811297414</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>10.57894852770335</v>
+        <v>13.02040182736337</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.9074600975694729</v>
+        <v>4.295726092741393</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16.62261479448012</v>
+        <v>17.24547684004423</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.5580774962076</v>
+        <v>32.31172948665046</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>18.18550333023655</v>
+        <v>19.91928086198996</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>37.13685539547851</v>
+        <v>39.58108391186119</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.46872740028142</v>
+        <v>44.86991608225131</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4.826120118727289</v>
+        <v>6.878705302085066</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>11.77322344517503</v>
+        <v>15.28605363536256</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>22.33665594587978</v>
+        <v>24.94226612800705</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>45.93549333246118</v>
+        <v>50.67513461292467</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>40.02994475823262</v>
+        <v>44.1499177067835</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>51.81562674960458</v>
+        <v>56.09310808267715</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>57.50888527715435</v>
+        <v>59.65975303524579</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>19.46086555923473</v>
+        <v>21.5451956032409</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>48.36071218239802</v>
+        <v>50.45973031324653</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>50.34073937300139</v>
+        <v>54.94082682100515</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.14770516680581</v>
+        <v>26.17321423897035</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.51769657885499</v>
+        <v>35.7688383231068</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.74310162303291</v>
+        <v>41.76016802820234</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>10.42871917851164</v>
+        <v>8.670354478757275</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>33.68227963432552</v>
+        <v>35.72368892627727</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.16833291785782</v>
+        <v>42.47761720128031</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>8.952288980657599</v>
+        <v>9.055064825875188</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>53.27281104246727</v>
+        <v>57.34995228407796</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>62.48389917160419</v>
+        <v>64.27601778326482</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.57311718178859</v>
+        <v>68.10962422549004</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>74.82553831328464</v>
+        <v>75.83176782229376</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>79.85642141658089</v>
+        <v>81.34543677776833</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.57815319795549</v>
+        <v>34.20140042165833</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>66.72350502938507</v>
+        <v>69.79075099943007</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>71.08010390638741</v>
+        <v>73.35472288955387</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>50.86561858232773</v>
+        <v>55.0651076693656</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>34.22074530149449</v>
+        <v>38.19124938029722</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>40.67083877897166</v>
+        <v>44.68288151969801</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>54.11716435534109</v>
+        <v>58.285893174007</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>13.68766605944998</v>
+        <v>16.67476129869068</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>44.3703062551774</v>
+        <v>47.23089110382997</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.16598980462378</v>
+        <v>53.75372547642139</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>17.40104183090613</v>
+        <v>17.32780244221565</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>31.07866004673052</v>
+        <v>32.35861755504909</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>39.01559428985473</v>
+        <v>40.20914348344088</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>8.122431467615453</v>
+        <v>7.444849415275456</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.46579435748696</v>
+        <v>34.17293839439156</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>43.23364738148282</v>
+        <v>43.658770163468</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>6.958858637038016</v>
+        <v>8.941000972097225</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>51.94534943542986</v>
+        <v>53.94568125168733</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>67.27041171706738</v>
+        <v>68.55796576165386</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>64.53055407179468</v>
+        <v>65.29224738387731</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>69.93616116298193</v>
+        <v>72.17243766839914</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>81.38049654922915</v>
+        <v>81.24304261974218</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>23.9726975537861</v>
+        <v>24.56405871958086</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>60.30158608924917</v>
+        <v>62.68745563626196</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>71.07680258190842</v>
+        <v>71.79507360714642</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>45.87896818491603</v>
+        <v>50.12211373858445</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>21.28445905754882</v>
+        <v>25.39417792567933</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.53464821854326</v>
+        <v>32.56450234481908</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>39.50761247469529</v>
+        <v>43.17805288481549</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>10.28385791474494</v>
+        <v>11.91317260857687</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>38.93728188650708</v>
+        <v>43.02801397990116</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>45.84319131051589</v>
+        <v>51.16186314641959</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>13.41228797043801</v>
+        <v>15.05963104610511</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.13044043086556</v>
+        <v>33.48289061717835</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.70152964280194</v>
+        <v>44.41051224382376</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>9.07004924852458</v>
+        <v>8.338329733654803</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>32.34100894038025</v>
+        <v>34.05675897647867</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>45.16639537588245</v>
+        <v>46.06107291648636</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>3.730869960199009</v>
+        <v>4.067380997474462</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>46.69515939990494</v>
+        <v>49.85837177383171</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>66.73692905871233</v>
+        <v>68.8303892546147</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>52.07260149827078</v>
+        <v>55.96652177296125</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>61.55313316121918</v>
+        <v>64.22404392238788</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>79.07676769473092</v>
+        <v>80.41324550036363</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>16.02869475256843</v>
+        <v>16.66105976850969</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>52.88090381775257</v>
+        <v>56.78229995525625</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>69.69869917833003</v>
+        <v>71.31579746048848</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>8.853018328198843</v>
+        <v>15.71125739602046</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19.99740141959722</v>
+        <v>20.12802163472644</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.89848711468618</v>
+        <v>29.0222091713526</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4.737592307130868</v>
+        <v>11.4426124198103</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>24.87293158894683</v>
+        <v>24.41190073847169</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.16624247849463</v>
+        <v>26.98038882919504</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>9.790436244209715</v>
+        <v>13.90200099284917</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>47.79085520684295</v>
+        <v>39.73453417900772</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>51.28240300378005</v>
+        <v>42.23416462608752</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>24.335054711838</v>
+        <v>21.90840134386252</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.56101355979269</v>
+        <v>24.50858880972463</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>32.48625372231371</v>
+        <v>26.45014270459135</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>18.99095761429984</v>
+        <v>23.2764846603924</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.95979720141225</v>
+        <v>21.54413662579489</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>37.15143388240848</v>
+        <v>34.69370063270099</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>13.0276311373764</v>
+        <v>16.39709826986862</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.56909631733721</v>
+        <v>27.50471931201201</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.84512057851037</v>
+        <v>29.13911209346443</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2.783715322000305</v>
+        <v>11.37209899188478</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>19.7428743549564</v>
+        <v>19.20846915778142</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>19.38647049321898</v>
+        <v>21.66241755658194</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>4.476567626180415</v>
+        <v>11.95220988424941</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>34.59847312536047</v>
+        <v>28.66545756305253</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>15.59581053891607</v>
+        <v>21.53934513720408</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>32.85839508348424</v>
+        <v>31.23047997082716</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>36.71449913682202</v>
+        <v>33.37725598074294</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>8.279515701879927</v>
+        <v>11.65209905886823</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>41.61201512782038</v>
+        <v>35.59645813038298</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>43.09405177473901</v>
+        <v>37.56774620723414</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>12.0938744542934</v>
+        <v>14.17824132585983</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>61.06232984282502</v>
+        <v>49.07675481406676</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>59.58756381495297</v>
+        <v>47.22709101739895</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>53.07402382439117</v>
+        <v>42.89178059521907</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>58.27745998472207</v>
+        <v>48.47182566286794</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>58.70099225551463</v>
+        <v>48.04614903834783</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>21.36591900103365</v>
+        <v>24.22514615625635</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>39.39200391836296</v>
+        <v>36.50790349973102</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>46.80754154177474</v>
+        <v>39.2445061934563</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>24.17369187307372</v>
+        <v>23.84308777577619</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>41.26203909312939</v>
+        <v>33.47431987023506</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>38.53107097549595</v>
+        <v>32.89341817880413</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>7.097931253950438</v>
+        <v>11.98930608331211</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>34.69417578804557</v>
+        <v>32.42800999613176</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>34.64443313957317</v>
+        <v>32.53534747487763</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>11.54068087935459</v>
+        <v>12.73116450930682</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>55.7383577826991</v>
+        <v>46.37977803286481</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>7.745767259786067</v>
+        <v>13.42737288916665</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>26.50862171789469</v>
+        <v>24.63817815802747</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>31.72010220553438</v>
+        <v>29.84815409564114</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>5.338443825811058</v>
+        <v>10.75558258510841</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>37.84584071147196</v>
+        <v>33.06774649083174</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>41.79808963711655</v>
+        <v>35.69078148691612</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>9.484897029264083</v>
+        <v>12.57874071125726</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>57.74376680436184</v>
+        <v>46.19257616377863</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>58.5169258287454</v>
+        <v>47.37379516975707</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>56.93675914243526</v>
+        <v>48.51099511162271</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>59.74499874014346</v>
+        <v>52.75506873603992</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>61.37084094521042</v>
+        <v>52.5882489211797</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>9.414604343098357</v>
+        <v>14.40866062650572</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.75998942007536</v>
+        <v>27.75878840366933</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>37.70238223546298</v>
+        <v>33.05033526991921</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>19.76013021907564</v>
+        <v>19.27206460480794</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>36.01594612835518</v>
+        <v>30.91869841760421</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>36.08197887468368</v>
+        <v>31.97812495465422</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>5.389548885461945</v>
+        <v>11.49391348264136</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.58853978512403</v>
+        <v>29.27820814826882</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>34.82872996143941</v>
+        <v>32.04902780077533</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>10.1170041019129</v>
+        <v>12.63884322452316</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>50.74251278268615</v>
+        <v>42.08007987748591</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>3.993890390571991</v>
+        <v>11.63738706039003</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>22.94363631257747</v>
+        <v>23.32375564918542</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>31.72120788440938</v>
+        <v>29.98723553788422</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>7.409625609629455</v>
+        <v>11.28852859875678</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>38.01308078975518</v>
+        <v>33.82689155512933</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>44.36230605142256</v>
+        <v>37.40015309182567</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>8.537209029936049</v>
+        <v>11.55528375623773</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>57.0179143375757</v>
+        <v>45.70407511128666</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>61.08732823425234</v>
+        <v>47.91064525343602</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>52.08485689133199</v>
+        <v>45.14687673612774</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>56.83565608734526</v>
+        <v>49.02815513489124</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>59.04813879883427</v>
+        <v>51.11369378720178</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>9.026799906698329</v>
+        <v>12.73981686425112</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>25.63143911758735</v>
+        <v>24.48972203094598</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>41.27969589587693</v>
+        <v>34.88569549999922</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>12.45478819541598</v>
+        <v>16.93233753766108</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>32.7521153280925</v>
+        <v>29.54004570221876</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>34.39281081778655</v>
+        <v>31.51259207687463</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>4.895956992880823</v>
+        <v>11.75768806748748</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.80345491069455</v>
+        <v>28.20827421916809</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>33.8502652494949</v>
+        <v>31.80668757434409</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>6.776839159032651</v>
+        <v>11.56210928120001</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>46.32573713004345</v>
+        <v>38.68215891208053</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>32.59834036925047</v>
+        <v>28.36993217493182</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.85740228163038</v>
+        <v>25.61622847129586</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>42.96021028128807</v>
+        <v>37.1691590871307</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>42.99919882963388</v>
+        <v>39.32262792806122</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>18.76637804162906</v>
+        <v>17.23704712046574</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>32.51802167188477</v>
+        <v>26.91656240559404</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>36.51756723954252</v>
+        <v>31.39073955875122</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>16.37924218896844</v>
+        <v>19.58756374153813</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>27.9250249046092</v>
+        <v>28.29186050489544</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>36.12541424289459</v>
+        <v>34.21914307854552</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>3.054142204671628</v>
+        <v>11.31329500020257</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>18.75085713906836</v>
+        <v>17.75493170742185</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>24.17561284639666</v>
+        <v>23.68071282151989</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>7.886954377777883</v>
+        <v>12.37473766353342</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>38.04731351031045</v>
+        <v>29.79237812019953</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>52.07625716472186</v>
+        <v>44.39906586369901</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>34.26656290921421</v>
+        <v>28.42041030458492</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>49.74178980068277</v>
+        <v>43.67968315093267</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>52.78928288894839</v>
+        <v>46.04309388417251</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>18.84110189066289</v>
+        <v>16.7535922180562</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>35.30761440179774</v>
+        <v>27.88959848743048</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>46.64807497655391</v>
+        <v>37.05296527229709</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>55.8862779027714</v>
+        <v>47.98551955020761</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>55.34752347395941</v>
+        <v>46.36702015637982</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>63.07782232246707</v>
+        <v>51.97800790175318</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>61.98839985352882</v>
+        <v>52.47453913999793</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.6298565415843</v>
+        <v>26.6237071241731</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>59.84295043028992</v>
+        <v>48.95952195067701</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>56.99921881669178</v>
+        <v>48.32383817145879</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>24.3079882647914</v>
+        <v>25.35961517154931</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>7.939258089508293</v>
+        <v>12.37614601223203</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>40.88543464111794</v>
+        <v>38.37513935798032</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>41.25174368737486</v>
+        <v>39.09204649122321</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>12.54571486366491</v>
+        <v>13.64892212064449</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>64.76984786876143</v>
+        <v>53.68827404715532</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>69.52764487009784</v>
+        <v>56.27181214455639</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>68.33247278446206</v>
+        <v>55.75605874203598</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>74.03106841652479</v>
+        <v>61.16679986367808</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>75.9964385298854</v>
+        <v>63.50748940047467</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>34.0636386586832</v>
+        <v>31.32198727844694</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>70.24025378712354</v>
+        <v>58.98991118890221</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>71.2303795914619</v>
+        <v>59.44772151015003</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>57.31163934861235</v>
+        <v>48.99701085879632</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>52.53219590887143</v>
+        <v>43.79188901788417</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>56.88423570593787</v>
+        <v>48.35970071258041</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>60.12216255466957</v>
+        <v>51.5012684739863</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>23.90709151739012</v>
+        <v>22.19437469920322</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>55.68957769572984</v>
+        <v>45.77703599124546</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>55.11463464446486</v>
+        <v>46.51419029584638</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>18.04202261788375</v>
+        <v>19.52648454612184</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>36.40222101320663</v>
+        <v>32.06396805189277</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>39.75524934672824</v>
+        <v>36.45860638674809</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>5.250356891463728</v>
+        <v>11.5584808651164</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>38.51011419548396</v>
+        <v>35.24767767757922</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>41.82202390647301</v>
+        <v>37.41628311094127</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>9.365821592458591</v>
+        <v>14.33387118707767</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>61.07014162803677</v>
+        <v>50.32838359311636</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>69.36709292736232</v>
+        <v>57.03458172249825</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>66.66441148914748</v>
+        <v>54.49151013873748</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>71.4075161453067</v>
+        <v>60.66142688914215</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>76.71281348088195</v>
+        <v>63.93361527134192</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>25.47011557999713</v>
+        <v>23.68921713239412</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>65.81587853907362</v>
+        <v>56.90879024016878</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>69.08427396210745</v>
+        <v>58.80929487043824</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>52.49845025984519</v>
+        <v>45.79622015858526</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>38.86703313984161</v>
+        <v>32.7067858325483</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>45.89763314399245</v>
+        <v>37.75994958755587</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>47.58343524699428</v>
+        <v>40.99597296187338</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>20.48344504685933</v>
+        <v>19.08116646130679</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>51.40046456643104</v>
+        <v>42.28030136697394</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>54.39367455298068</v>
+        <v>45.7516348892531</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>15.55013655466025</v>
+        <v>18.8173398252628</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>38.09266183278007</v>
+        <v>32.88049374525033</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>44.93220355566572</v>
+        <v>39.31974401292073</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>6.622328625151933</v>
+        <v>12.10246518409062</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>39.00266701401794</v>
+        <v>34.88131924164662</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>45.65023761773578</v>
+        <v>40.30145544557005</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>9.124352708865121</v>
+        <v>12.04392993248748</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>58.61517507910273</v>
+        <v>47.68012619270583</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>71.73956530686208</v>
+        <v>57.38752273109453</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>60.01478373613709</v>
+        <v>50.9356519417001</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>70.2621124671582</v>
+        <v>59.18166517609755</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>77.50732598829184</v>
+        <v>63.85229787386849</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>22.94525624988874</v>
+        <v>21.05394870609743</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>66.94637040216521</v>
+        <v>55.00268158713402</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>75.12843470219309</v>
+        <v>61.00247653192396</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>12.20430755366343</v>
+        <v>15.15202182671252</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>25.374818467842</v>
+        <v>21.58928219234722</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>31.56252461959208</v>
+        <v>29.19639948465576</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-0.9894771057350127</v>
+        <v>5.807346765733506</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.63137028545371</v>
+        <v>16.34418432151645</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.74945798683729</v>
+        <v>19.61431614297918</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>3.315912963073693</v>
+        <v>7.07176042234634</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>43.90976713860674</v>
+        <v>39.65688780073249</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>44.32245537797053</v>
+        <v>43.09674333633818</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>21.9808716819626</v>
+        <v>21.19929604393657</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.99968413439793</v>
+        <v>26.0462483622923</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.71392659692691</v>
+        <v>27.43526268070168</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>8.841736108438745</v>
+        <v>13.49979254974628</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>16.80925571068451</v>
+        <v>18.61990544554365</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.66033292524171</v>
+        <v>23.80585513207941</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>16.72352360707437</v>
+        <v>17.39922122173211</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>32.17166723166994</v>
+        <v>28.59735379767471</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>32.31064030110587</v>
+        <v>30.6300750628806</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>2.423881022882156</v>
+        <v>6.321600833347386</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>18.12560707297669</v>
+        <v>15.65458725167324</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>20.01610538187435</v>
+        <v>18.44219320036083</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>2.51088248022382</v>
+        <v>7.31403516051363</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>34.73059869228777</v>
+        <v>29.41507614258992</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>21.01132793078098</v>
+        <v>22.8655929320981</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>40.83562386756839</v>
+        <v>36.81145245062124</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>40.67605850214504</v>
+        <v>35.81535350773906</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>5.672004055781869</v>
+        <v>6.52847124871759</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>37.98005688206099</v>
+        <v>35.18401542092152</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>38.68341276705597</v>
+        <v>36.65909248521283</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>8.893330560304809</v>
+        <v>7.73041009953322</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>60.49741211295556</v>
+        <v>53.09130365166311</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>56.29289107424816</v>
+        <v>50.24598053658409</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>51.61209605102306</v>
+        <v>45.0007094220953</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>58.16454786306471</v>
+        <v>53.08866875114305</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>55.08273483810343</v>
+        <v>53.38664451822827</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>15.66974699808151</v>
+        <v>20.28919960848116</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>42.33074212213684</v>
+        <v>43.72260280680663</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>40.65252344361133</v>
+        <v>44.41278707644535</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>24.59653624887562</v>
+        <v>22.66433681430464</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>44.1566177072279</v>
+        <v>35.25912769207696</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>42.54653607002231</v>
+        <v>35.32165122546478</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>6.518139293969476</v>
+        <v>6.844235956957512</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>35.9842646412493</v>
+        <v>32.06169087404882</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>38.23701108770679</v>
+        <v>32.49769598973274</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>8.536940171834978</v>
+        <v>7.422542402379083</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>58.56940643675254</v>
+        <v>51.86871862553306</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>11.97621956876731</v>
+        <v>10.12134501026843</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>33.0330925826171</v>
+        <v>27.27010209288565</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>34.08057288603274</v>
+        <v>30.6884322473069</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>2.838268805589404</v>
+        <v>5.481643919984709</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>34.18616175591244</v>
+        <v>32.88730789805105</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>37.19982501786955</v>
+        <v>35.65691233032074</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>6.80445840360505</v>
+        <v>7.629511401674364</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>56.95288107575558</v>
+        <v>50.45716222455107</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>54.823526708975</v>
+        <v>49.63743089824861</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>53.66244772441034</v>
+        <v>49.53207108807354</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>57.51930896947788</v>
+        <v>55.21141983122315</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>55.46320380105435</v>
+        <v>54.63703185132484</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>3.739513438459756</v>
+        <v>7.01243878808685</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>31.27043155161823</v>
+        <v>29.93946267803173</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.12878173178071</v>
+        <v>29.33470709277628</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>19.08175944442289</v>
+        <v>17.05637963960701</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>37.74641530413312</v>
+        <v>33.32329440667816</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>39.20556159598181</v>
+        <v>34.44651799892513</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>4.915922682126169</v>
+        <v>6.512529398639916</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.73048276145331</v>
+        <v>29.24672025436594</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>38.4863774480316</v>
+        <v>33.33979086167727</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>7.396713350829536</v>
+        <v>6.925397221867328</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>52.98390616810518</v>
+        <v>46.16949243157372</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>9.048825041970721</v>
+        <v>9.312954489735905</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>31.39050205935926</v>
+        <v>26.88314699486104</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>35.79127497009313</v>
+        <v>32.16019185781111</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>6.086614872991564</v>
+        <v>6.351913202777812</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>35.80512869173231</v>
+        <v>34.0508870210321</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>42.49796376994151</v>
+        <v>41.23455226044202</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>6.790783245556323</v>
+        <v>6.568773980375301</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>59.29197024824371</v>
+        <v>52.25386904472894</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>59.55138823448083</v>
+        <v>53.55747903665412</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>51.29299490803385</v>
+        <v>47.34851199520838</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>57.74123756268025</v>
+        <v>53.2505758402324</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>57.89649505505079</v>
+        <v>55.53236433219227</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>7.925415596244815</v>
+        <v>9.458300497378467</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.43560847040229</v>
+        <v>35.39555469541635</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>35.10996374268888</v>
+        <v>36.73225460996504</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>15.01349906373519</v>
+        <v>13.3349894407584</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>35.84713637806315</v>
+        <v>30.62972306157225</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>38.71431474983815</v>
+        <v>33.46816557700449</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>6.659857618073776</v>
+        <v>6.824891806404391</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>30.56740516193501</v>
+        <v>28.6843972632027</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>38.45368137707899</v>
+        <v>33.7894702603438</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>6.893326035211722</v>
+        <v>6.515528583401583</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>49.38593790948048</v>
+        <v>43.07238653315773</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>34.28998555931321</v>
+        <v>28.05821135161223</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.93419156368781</v>
+        <v>25.78981919340817</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>46.07076711977001</v>
+        <v>38.83020035401589</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>45.08432846336679</v>
+        <v>41.56868039824322</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>12.98053590448381</v>
+        <v>13.5318892884595</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.35747820810392</v>
+        <v>23.30376849819774</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>34.16281299788531</v>
+        <v>30.20622400570983</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>20.73997571616329</v>
+        <v>17.78242217257754</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>33.82163954252634</v>
+        <v>30.41474772597698</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>39.28798146798564</v>
+        <v>35.30053890426507</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>1.374882778007677</v>
+        <v>6.229158184160443</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>17.73305951083155</v>
+        <v>14.83423541078762</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>22.97535054206181</v>
+        <v>22.78629842894719</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>5.781831658202432</v>
+        <v>7.640425242855031</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>38.99904785872926</v>
+        <v>31.60980812780396</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>52.63822055888053</v>
+        <v>49.40617998004979</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>36.80068424209007</v>
+        <v>29.74113130909988</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>51.44582077272933</v>
+        <v>44.94338783131234</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>54.42743603568334</v>
+        <v>51.05010616038676</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>15.66428830666824</v>
+        <v>13.35349552767499</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.9418103836805</v>
+        <v>27.76143780254356</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>44.99106800457575</v>
+        <v>39.04992534125846</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>61.62303681648291</v>
+        <v>56.43664692409184</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>58.11386383264529</v>
+        <v>53.00106614674826</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>69.09553110216629</v>
+        <v>61.25201906414883</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>66.70127810077466</v>
+        <v>60.08164326782413</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>23.74599752286727</v>
+        <v>22.84707064846355</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>60.66846209611938</v>
+        <v>54.29504543658236</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>60.80374299129417</v>
+        <v>56.43876568476257</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.38712035210531</v>
+        <v>28.93768067888927</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>50.03816063010824</v>
+        <v>41.39965254616045</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>47.08564338692965</v>
+        <v>40.74608994947328</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>7.341993464339286</v>
+        <v>7.661642771542919</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>43.34446651701144</v>
+        <v>39.87695878765365</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>41.6131768216092</v>
+        <v>39.39514533537508</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>10.74374031625783</v>
+        <v>9.141746852775785</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>68.67087763942213</v>
+        <v>60.27357222964588</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>70.81360573547349</v>
+        <v>61.55474338139416</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>75.57373121454637</v>
+        <v>66.11384980435358</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>80.88320215173275</v>
+        <v>71.47781491011605</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>82.65931250329528</v>
+        <v>74.42653902207928</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>32.88697063622931</v>
+        <v>31.1028201559366</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>74.38057837998151</v>
+        <v>66.73355239380233</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>73.95394065557069</v>
+        <v>67.35714164385934</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>62.99995663692192</v>
+        <v>54.32238388079833</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>54.48726850634755</v>
+        <v>48.61255795315562</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>61.73870930216755</v>
+        <v>55.23625417324261</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>65.07730904031658</v>
+        <v>59.39121282673973</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>18.13220088755251</v>
+        <v>17.18049575753521</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>56.64461883976666</v>
+        <v>50.92153335628628</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>58.62635729049265</v>
+        <v>52.8744953820995</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.55445138721149</v>
+        <v>19.98517135921931</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>43.32010050344596</v>
+        <v>37.37168755785277</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>42.57027797802758</v>
+        <v>37.95010872199252</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>4.290184894253557</v>
+        <v>6.058923356488375</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>40.39595410768884</v>
+        <v>35.48830948640204</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>41.80372492399113</v>
+        <v>37.67725384535768</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>6.994339330445381</v>
+        <v>8.878638789029306</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>63.8484271544571</v>
+        <v>56.28561946531683</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>69.95644610938304</v>
+        <v>61.79371839187897</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>73.22490496680405</v>
+        <v>62.45154008743117</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>77.15093325683023</v>
+        <v>69.38204714107611</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>83.4004226212318</v>
+        <v>74.48010279946365</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>24.73667690836048</v>
+        <v>22.27170477985257</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>69.96059122189533</v>
+        <v>63.62125159332102</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>71.47964989269661</v>
+        <v>64.64671114482147</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>58.408494868517</v>
+        <v>53.55080210174827</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>41.17591756289825</v>
+        <v>33.88885688559262</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>50.47857840627037</v>
+        <v>41.0480432801924</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>53.32615859322687</v>
+        <v>46.83278550596989</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>17.63814048760552</v>
+        <v>13.75368690224518</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>54.28423416659696</v>
+        <v>47.26314175145178</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>57.71939460723549</v>
+        <v>52.37158376753431</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>19.0164678640127</v>
+        <v>16.82672767687971</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>44.30163751318341</v>
+        <v>38.99812154086672</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>47.75920916046925</v>
+        <v>41.1909232218314</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>6.523755134585731</v>
+        <v>7.185836296406531</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>41.13230946127442</v>
+        <v>37.83878145841643</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>46.91870178918994</v>
+        <v>43.20025811954862</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>7.666734474089239</v>
+        <v>7.652275870210115</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>61.44324264219655</v>
+        <v>54.1004272013959</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>73.17328299307692</v>
+        <v>63.11521126731856</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>65.1390280453297</v>
+        <v>58.83290567135783</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>74.02064160100392</v>
+        <v>64.30702274708979</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>82.79965878749877</v>
+        <v>73.06641327514075</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>21.59698754527797</v>
+        <v>18.02131680431911</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>71.9747773127509</v>
+        <v>63.5649044561021</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>77.79503714870415</v>
+        <v>68.51481596128055</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>12.21039983251278</v>
+        <v>12.44281283532082</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>16.73026465386553</v>
+        <v>17.70471463678903</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>23.67197476243127</v>
+        <v>23.37206084811121</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1.198305400678276</v>
+        <v>3.562541132768853</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>10.29441251894004</v>
+        <v>13.70354661180323</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>13.55302782651453</v>
+        <v>15.91189688212165</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>3.535583765684915</v>
+        <v>5.560970806383899</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.8020758652645</v>
+        <v>29.70614235572095</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>30.8298089870991</v>
+        <v>32.82869403851547</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>11.74583390240158</v>
+        <v>16.59221424849857</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>16.44405390279772</v>
+        <v>20.22565682627917</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>18.91415529399525</v>
+        <v>21.68156720705794</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>10.39260449489714</v>
+        <v>12.11840280791191</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>14.02512655451651</v>
+        <v>15.92282743786072</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>23.91144418325216</v>
+        <v>25.06992183197597</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.098132184559528</v>
+        <v>10.31601044725012</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>18.56771521511576</v>
+        <v>21.31599161158035</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>20.96887832507312</v>
+        <v>23.92279241449183</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-2.78343672255226</v>
+        <v>2.541956653174768</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>4.099703940117248</v>
+        <v>8.501119757333573</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>7.062062743073554</v>
+        <v>11.38494317738491</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-2.637383907146731</v>
+        <v>3.992687453440105</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>15.40753568281089</v>
+        <v>19.52392444435019</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>14.84587533440009</v>
+        <v>14.77246435633573</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>23.92035665372289</v>
+        <v>25.05709466480183</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.6167711491281</v>
+        <v>25.552313525382</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>0.6263261232999078</v>
+        <v>3.425566219091891</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.23799563052187</v>
+        <v>24.69506927433636</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.2640682381736</v>
+        <v>25.88669218211829</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>5.860161450954394</v>
+        <v>6.166359793175271</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>38.83746966027834</v>
+        <v>38.41659415359698</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>38.28360528519865</v>
+        <v>37.91830279491317</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>36.39629727342167</v>
+        <v>35.85209753994353</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>40.94282789163139</v>
+        <v>41.08305877786566</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>41.89105788066576</v>
+        <v>43.44062785620615</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>16.53344928807421</v>
+        <v>17.59557418931855</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>38.60398419994803</v>
+        <v>39.13495255308014</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>41.82742317268082</v>
+        <v>41.87654604187261</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>13.152229344543</v>
+        <v>13.65334307849136</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.66655796007451</v>
+        <v>25.95650365346687</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>27.54129985491902</v>
+        <v>27.58683050329994</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-0.3244929903652825</v>
+        <v>2.608605701222416</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>18.39494145026545</v>
+        <v>22.89565872158303</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.27713042540473</v>
+        <v>25.1799392438007</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>1.655467826793743</v>
+        <v>3.979369448424801</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>35.45234420195916</v>
+        <v>38.67707031876084</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>7.443544083649432</v>
+        <v>7.105560134845017</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>17.3690957946126</v>
+        <v>18.78264849559429</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>21.76914088649819</v>
+        <v>23.19774480769686</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-1.272671847118598</v>
+        <v>3.1888929705088</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>20.11531900892846</v>
+        <v>23.80982586171749</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.84030761356554</v>
+        <v>25.40419819579352</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>5.205712798755794</v>
+        <v>7.827428915429952</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>36.36972243789882</v>
+        <v>38.30928401136366</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>38.67561857710253</v>
+        <v>39.66528574775385</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>38.39491233469351</v>
+        <v>39.77195514654572</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>40.58902855463165</v>
+        <v>42.1100168589594</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>43.49202694692762</v>
+        <v>45.40644628386386</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>5.322280488747271</v>
+        <v>7.037702347855575</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.02889076054532</v>
+        <v>28.7993908315662</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>32.35149591901252</v>
+        <v>31.67701839541634</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>7.996871353884039</v>
+        <v>8.890123114886219</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>19.19149229530325</v>
+        <v>23.97762570678621</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.69069551169099</v>
+        <v>27.47138657907219</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-2.19715058718533</v>
+        <v>2.234057662609931</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>13.67329277714947</v>
+        <v>18.21132429594729</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>23.75797578180499</v>
+        <v>26.21761600608311</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>0.793794155684072</v>
+        <v>4.844721445173406</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.67969867170705</v>
+        <v>32.39589544101445</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>2.518860938886338</v>
+        <v>5.873291712288733</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>13.24366169220296</v>
+        <v>15.81136881094069</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>21.33087426007547</v>
+        <v>22.56401713404805</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-1.343339319424405</v>
+        <v>2.667561530918306</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>18.79080552909591</v>
+        <v>22.67831003476986</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.99757507426049</v>
+        <v>28.61437551343673</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-0.3213183042983125</v>
+        <v>3.096690466949322</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>32.9412857613946</v>
+        <v>34.27892869097563</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>38.7010635779973</v>
+        <v>39.54508078064357</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.75231353559714</v>
+        <v>32.63260098614942</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.27513282676349</v>
+        <v>36.53147216802466</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>41.2079221100107</v>
+        <v>41.28730740186153</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>3.306895660368792</v>
+        <v>6.09571580840522</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.81835526872597</v>
+        <v>28.19366971392739</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>33.40446373363104</v>
+        <v>36.54970264635958</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>4.943544681785696</v>
+        <v>6.131686079787336</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>17.69228321519046</v>
+        <v>20.73017463960483</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.16440362942834</v>
+        <v>26.07621635498075</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-0.949146746968335</v>
+        <v>2.410885404362642</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>11.96516948327604</v>
+        <v>17.32579505662232</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>23.70776429120036</v>
+        <v>25.55320374050926</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-0.256302628900098</v>
+        <v>2.975055259572937</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.19004689435307</v>
+        <v>27.9941273834311</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>15.97170891185149</v>
+        <v>19.40619785904219</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>11.79297756982998</v>
+        <v>16.96046147409453</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>23.07605791109389</v>
+        <v>27.44413182962719</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>22.85752101463794</v>
+        <v>29.42224415592188</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>1.1834582861717</v>
+        <v>7.589422600669721</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>10.72308864911723</v>
+        <v>14.65016006761298</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>15.54185609351563</v>
+        <v>20.06459579123942</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>16.16602264772829</v>
+        <v>14.93755279361454</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>23.70306864133708</v>
+        <v>25.90618377220408</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.42959857735566</v>
+        <v>31.72386884698361</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-2.0530202663792</v>
+        <v>2.148757461567591</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>7.019918261926374</v>
+        <v>8.875451097571666</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>12.8116104133419</v>
+        <v>15.9639757724559</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>2.310854688371325</v>
+        <v>5.194123783819109</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>24.99965220264315</v>
+        <v>24.67762306845878</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>37.213604546886</v>
+        <v>39.77899637275746</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>24.40406925695907</v>
+        <v>22.55037017606831</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.40539214111055</v>
+        <v>34.85955086415139</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>37.81929151280222</v>
+        <v>40.15136505897676</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>7.63968039926819</v>
+        <v>8.624738279363235</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>19.23216573703218</v>
+        <v>20.83122395975962</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.5329311585905</v>
+        <v>30.58873338966201</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>40.32570966000266</v>
+        <v>43.27206795872924</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.25516966804015</v>
+        <v>39.68217277261881</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43.90454299428863</v>
+        <v>47.22735078534359</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>42.31273644920533</v>
+        <v>45.43463011370746</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>11.16900113826678</v>
+        <v>14.31164045423434</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>39.92072001505375</v>
+        <v>41.91316360433257</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>42.08472986182713</v>
+        <v>44.20472333923423</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>23.2968004157374</v>
+        <v>24.24778573500913</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.01327414807486</v>
+        <v>35.78517227324409</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>39.26857925908082</v>
+        <v>38.05072029165459</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>5.443094358558344</v>
+        <v>4.275532095204301</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>33.27852187353137</v>
+        <v>34.40159439854693</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.49527832456364</v>
+        <v>35.6052735405776</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>9.835709670711125</v>
+        <v>9.922363277443367</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>56.14966421044365</v>
+        <v>55.17361472077138</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>58.89801366364487</v>
+        <v>55.93241388637027</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>67.47124229497174</v>
+        <v>64.36783175269592</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>68.88810159493833</v>
+        <v>67.88346885519542</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>70.63054981446611</v>
+        <v>70.69550595213242</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>31.16968835456333</v>
+        <v>30.40508426687408</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>62.86512124484187</v>
+        <v>61.10606034870248</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>66.37290065491304</v>
+        <v>63.95175866193679</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>42.45882356963229</v>
+        <v>43.54392273031708</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>31.42075573681799</v>
+        <v>33.49328534339035</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>36.39304711653254</v>
+        <v>40.33911879948556</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>41.17231863555682</v>
+        <v>45.17275936425732</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>5.389240400523644</v>
+        <v>8.465014374463763</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>35.96523466761708</v>
+        <v>38.85370895096091</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>40.98624203415055</v>
+        <v>42.54997973584691</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>16.20683946206129</v>
+        <v>16.36788922444397</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>32.29571003968232</v>
+        <v>32.11998396397964</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.14697273100236</v>
+        <v>36.4755734396154</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>3.057057115377045</v>
+        <v>2.784167571423147</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.39775498849042</v>
+        <v>30.58289701878862</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.17193665151687</v>
+        <v>35.03064363183918</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>7.191486338004939</v>
+        <v>9.820645878528687</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>52.87711919030917</v>
+        <v>51.73592501757415</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>60.36820915231547</v>
+        <v>58.45905733817756</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>65.39000375345746</v>
+        <v>60.10976800545885</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>66.62125022343059</v>
+        <v>66.13769211123406</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>73.08295531302024</v>
+        <v>71.20362768966835</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>23.34485218299837</v>
+        <v>20.8633353861779</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>59.8425831019818</v>
+        <v>59.03545232940641</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>66.31733303453888</v>
+        <v>64.05967404540793</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>38.70373904552086</v>
+        <v>41.68374760466737</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>18.64516555731893</v>
+        <v>20.84838609879455</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>24.91010695144994</v>
+        <v>27.17757550007606</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.76202195289544</v>
+        <v>33.52344227314308</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>3.27766320707023</v>
+        <v>5.925099185290097</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>32.24708224933666</v>
+        <v>34.23281357676031</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>39.12526401348664</v>
+        <v>41.19289704898891</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>13.27566017190668</v>
+        <v>13.21660184139871</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>32.33947985433259</v>
+        <v>32.50295513226175</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>40.16409549455165</v>
+        <v>38.42220223070473</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>3.108920032876579</v>
+        <v>3.572506899058133</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.89583617606635</v>
+        <v>30.63738872692314</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.20295637017826</v>
+        <v>38.4269383068665</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>5.045057060241902</v>
+        <v>5.878118669593785</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>47.62618956053731</v>
+        <v>48.00963361990636</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>61.22326609288115</v>
+        <v>58.96736262083196</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>52.62914926785268</v>
+        <v>51.86155689926296</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>58.90144340597264</v>
+        <v>58.96305658951265</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>68.61147832547134</v>
+        <v>67.39966343350272</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>12.88183805329136</v>
+        <v>12.569023801383</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>56.48436511912325</v>
+        <v>54.11553894052361</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>66.573818460448</v>
+        <v>64.85158854282572</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>13.0819602015136</v>
+        <v>10.91446960080579</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>15.7144735513867</v>
+        <v>15.21640584470729</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.82422424234761</v>
+        <v>25.67794679454764</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>2.468625102479827</v>
+        <v>2.541049482583137</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>18.03434790966893</v>
+        <v>15.42114274778647</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>20.28478967634882</v>
+        <v>18.06474928541327</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>8.975821520943873</v>
+        <v>7.871575470287727</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>37.58584595973107</v>
+        <v>32.92829053207206</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>41.88550907692942</v>
+        <v>35.85859495480387</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>16.61153516666014</v>
+        <v>14.08801762776577</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>22.50913548389963</v>
+        <v>18.99940801980282</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.35939653754685</v>
+        <v>22.98564756305556</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>17.27057932187986</v>
+        <v>15.67206100598886</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>16.00577903095179</v>
+        <v>13.71551596862078</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>30.60366624906797</v>
+        <v>27.64934228763892</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>11.57636548497693</v>
+        <v>10.82402793686584</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.20148058114634</v>
+        <v>29.01618848029125</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>35.52012625017084</v>
+        <v>36.20441199042016</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>0.7555759222388332</v>
+        <v>1.937628641801727</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>13.30560617263642</v>
+        <v>10.61572286959251</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>17.45688273083484</v>
+        <v>14.76211820560058</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>0.1304398499791333</v>
+        <v>1.664143569723525</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.67229510337205</v>
+        <v>22.88002295905569</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>15.83227079187021</v>
+        <v>18.68962509161534</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>27.68444846252056</v>
+        <v>28.67983678429443</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>31.75578449554095</v>
+        <v>28.62128493078659</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>3.023939109018265</v>
+        <v>2.429777559445288</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>37.74053816758506</v>
+        <v>32.4123143123549</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>37.97395408716334</v>
+        <v>36.03159204459622</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>6.114931330988504</v>
+        <v>6.565057146889174</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>52.36033663321341</v>
+        <v>48.83622383081796</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>51.33981221501931</v>
+        <v>46.26569564736195</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>50.6663503244696</v>
+        <v>45.85527707128806</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>58.98928452355564</v>
+        <v>53.78448023743898</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>60.11440096515497</v>
+        <v>53.7267987423125</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>21.82662744253471</v>
+        <v>18.99893096569052</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>46.81637993411677</v>
+        <v>38.35959974193914</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>51.08625710280248</v>
+        <v>42.55966934955659</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>20.29415417950138</v>
+        <v>19.6529736250228</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>40.82522583685563</v>
+        <v>39.77818491475896</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>45.35549150612228</v>
+        <v>42.71356547611957</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>6.934111810371537</v>
+        <v>3.667987786832033</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>34.8156383907614</v>
+        <v>35.16895402662642</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>44.94679450188674</v>
+        <v>42.18057144952868</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>7.814616139364428</v>
+        <v>3.402378248311084</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>56.53964175588465</v>
+        <v>57.86430077326548</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>6.786781292896137</v>
+        <v>7.056663556557137</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>22.48582455097644</v>
+        <v>19.52924847883941</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.5744195480563</v>
+        <v>24.61750476113663</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-0.7899641697519435</v>
+        <v>0.0484435164835908</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>34.43397272539156</v>
+        <v>28.05313834609879</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>38.30720075137263</v>
+        <v>32.38186045203333</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>3.25899750111051</v>
+        <v>3.518780263800874</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>50.82291741784482</v>
+        <v>44.0807331240643</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>53.2748372715748</v>
+        <v>47.81650257857926</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>53.83749764828655</v>
+        <v>49.11947454212711</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>58.31356046639641</v>
+        <v>54.84305244723134</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>62.1237479598089</v>
+        <v>56.67050305462209</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>8.192575404482884</v>
+        <v>8.640223711929739</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>37.43131168662693</v>
+        <v>28.65798635993901</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>44.30307980830383</v>
+        <v>33.8899505841309</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>13.44247995968361</v>
+        <v>10.53447197371176</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>34.4793187659403</v>
+        <v>31.89963556111761</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>42.23215336559301</v>
+        <v>41.84284284885077</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>3.029956045590236</v>
+        <v>2.08703833922576</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.9471181171301</v>
+        <v>25.80094343651324</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>45.93213596188495</v>
+        <v>41.12490024155837</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>4.557929824938437</v>
+        <v>1.241839583378361</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>50.34236742801613</v>
+        <v>46.00305964737836</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>2.526432305044462</v>
+        <v>4.241420385123732</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>18.15715174859452</v>
+        <v>16.39433457182352</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>27.85492078950228</v>
+        <v>23.76039451256826</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>0.5934858841972215</v>
+        <v>0.8970046726987135</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>34.44976495839324</v>
+        <v>29.13726573303641</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>39.56735906962134</v>
+        <v>34.82902209231651</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>1.902027736046605</v>
+        <v>2.085683778749281</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>48.57946101976545</v>
+        <v>43.32652969340981</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>55.00986740911814</v>
+        <v>48.4792651520235</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>43.51935721548235</v>
+        <v>39.30281755835889</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>49.47760758455009</v>
+        <v>45.11869532831686</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>52.78488693245978</v>
+        <v>48.69968239872601</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>6.478999980179079</v>
+        <v>6.772000072603223</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>26.49842197881649</v>
+        <v>21.16776274529753</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>43.38520534942744</v>
+        <v>34.88006219800059</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>7.144868548982931</v>
+        <v>8.010142769624949</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>32.40300402736825</v>
+        <v>29.03311209380237</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>43.29168192006075</v>
+        <v>39.99921413809073</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>2.312787664638634</v>
+        <v>3.22856697943385</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>26.73111292094491</v>
+        <v>24.97752651310008</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>43.05238611178696</v>
+        <v>40.57127978992803</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>1.121988208000339</v>
+        <v>0.5597945011420968</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>45.00297037812638</v>
+        <v>40.51823798068551</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.4689122513584</v>
+        <v>28.41610362411653</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.17823829968959</v>
+        <v>23.85575480027633</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>47.68973877315919</v>
+        <v>47.6908439825214</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>55.12230435885083</v>
+        <v>55.45393236272065</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>5.524645931994094</v>
+        <v>6.245451701384166</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>24.67923928585308</v>
+        <v>18.6582441407462</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>35.19720950198831</v>
+        <v>29.54807716308569</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>13.75098671284622</v>
+        <v>14.09480276460599</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.26020813671906</v>
+        <v>28.93721954785461</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>37.51025883704821</v>
+        <v>39.81665686398306</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>0.02758599526259431</v>
+        <v>1.850839991046026</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>11.66730072144864</v>
+        <v>7.818207450924611</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>16.41415744217021</v>
+        <v>13.86631884054368</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>0.4300366133296691</v>
+        <v>2.402411263213544</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.87212052669179</v>
+        <v>22.42878562842807</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>43.18132659829742</v>
+        <v>38.80716115119031</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.16062402902072</v>
+        <v>26.75841038878313</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>53.88430565468676</v>
+        <v>50.14671331670046</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>57.79005208517935</v>
+        <v>58.39809046781951</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>4.745994674844081</v>
+        <v>6.341700871876323</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>26.26566053574467</v>
+        <v>20.08156971575389</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>37.31947328549412</v>
+        <v>29.49318466137466</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>70.11571082206899</v>
+        <v>69.02620686889422</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>62.52216761700338</v>
+        <v>60.71694692315275</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>77.19686297696848</v>
+        <v>76.59442470527243</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>85.52704459336259</v>
+        <v>79.14190148191867</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>25.19918452933342</v>
+        <v>22.6741016762279</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>75.42567106573051</v>
+        <v>71.53755199034146</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>79.11768525233333</v>
+        <v>78.24734104770376</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>23.80765394403048</v>
+        <v>26.9965553982442</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>46.14913134875527</v>
+        <v>46.02812757808075</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>50.95098061528432</v>
+        <v>49.45086375483605</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>7.778097257380562</v>
+        <v>4.982601127635011</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>44.58786944542511</v>
+        <v>42.05939185091457</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>49.22984867388969</v>
+        <v>51.33301432380614</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>8.952761107828234</v>
+        <v>8.780721001406143</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>72.29317426256533</v>
+        <v>74.5765369467788</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>79.36071353807314</v>
+        <v>78.04749133932566</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>84.37110423971428</v>
+        <v>83.33683102697609</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>96.87642230619478</v>
+        <v>91.83757267357653</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>98.85818784048975</v>
+        <v>95.60154468768546</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>34.74093612289906</v>
+        <v>34.55881477691356</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>92.35196706413416</v>
+        <v>91.19704434435526</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>93.22662941091068</v>
+        <v>92.44169922092429</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>72.892369870015</v>
+        <v>70.80718619608214</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>54.43846601182702</v>
+        <v>47.70453828562252</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>64.21717522254478</v>
+        <v>59.33536272322799</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>80.67464033884735</v>
+        <v>77.54702640087908</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>16.44065566108574</v>
+        <v>12.78004817839761</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>69.48072737274357</v>
+        <v>62.5533097626607</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>77.36780247164656</v>
+        <v>74.12242547016173</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>14.67798847037912</v>
+        <v>12.75846896046684</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>39.6687516429598</v>
+        <v>37.65929902704304</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>47.24159332127289</v>
+        <v>45.48145230944396</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>3.748441665873941</v>
+        <v>2.694296773219733</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>42.14276168515677</v>
+        <v>40.58634387454752</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>52.12265975762476</v>
+        <v>52.06420120332071</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>4.211664169003118</v>
+        <v>2.804498433700317</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>68.45121033375659</v>
+        <v>64.30145733088088</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>81.81185347736165</v>
+        <v>78.98531452786553</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>79.85397302636174</v>
+        <v>75.11820883951593</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>91.18843471672595</v>
+        <v>87.36622239882833</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>99.24676500156265</v>
+        <v>94.00675918984346</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>22.29338744080225</v>
+        <v>20.9455060977956</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>85.35333688657705</v>
+        <v>83.20296062491684</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>92.16238183455951</v>
+        <v>90.4247889926682</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>67.50354124833932</v>
+        <v>69.00395982629898</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>36.94201633144183</v>
+        <v>31.61727350732512</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>49.68827059014866</v>
+        <v>43.93516410557134</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>63.74102575272633</v>
+        <v>61.00655002662546</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>12.2335608273293</v>
+        <v>8.919135009246737</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>58.71813479437598</v>
+        <v>54.5800850984435</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>71.27366326663045</v>
+        <v>69.64639487463339</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>12.45813908314103</v>
+        <v>11.75937584372166</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>41.60915651999431</v>
+        <v>38.20206049718102</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>53.99201177208444</v>
+        <v>51.02182318712084</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>6.146663529786078</v>
+        <v>3.925091368293895</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>41.01817872261377</v>
+        <v>38.80781535169064</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>54.25166528549661</v>
+        <v>54.18566792142016</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>3.61681566374418</v>
+        <v>1.865752796367133</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>61.94216049019266</v>
+        <v>61.26927344078975</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>82.12797935786242</v>
+        <v>81.14134493650448</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>68.15137058911235</v>
+        <v>69.12621444692542</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>85.29558298799408</v>
+        <v>85.02008164110946</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>99.72242566146306</v>
+        <v>95.90596966257212</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>16.86573607550906</v>
+        <v>15.92523689768308</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>76.76583790982357</v>
+        <v>81.64147979864148</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>90.7448477713631</v>
+        <v>89.62280382399766</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test2/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.594</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.27</v>
+        <v>17.746</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.636</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.944</v>
+        <v>18.723</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.993</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.271</v>
+        <v>1.482</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.66867957328483</v>
+        <v>14.33545498796886</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.63918053802318</v>
+        <v>14.91986788924036</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20.61320417512537</v>
+        <v>23.04337799202203</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.450315299295763</v>
+        <v>7.528531059727992</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.49065308078459</v>
+        <v>15.53075930020526</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14.89748679818455</v>
+        <v>17.98689152588283</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.638451222221804</v>
+        <v>11.2384437279876</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.43892732260804</v>
+        <v>30.33449671258777</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.31855333618955</v>
+        <v>31.55286795150596</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12.09223574714261</v>
+        <v>14.7856872745077</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>15.60189622122938</v>
+        <v>17.74106588407149</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>17.22289452085576</v>
+        <v>18.78346529339219</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.01117748116425</v>
+        <v>17.50823220056924</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>9.451193936836898</v>
+        <v>14.69314278114424</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>17.97520788160964</v>
+        <v>22.08756921934673</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12.33045634304507</v>
+        <v>15.07546311083748</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>21.28589003723141</v>
+        <v>23.53250031887606</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.80099765228181</v>
+        <v>31.12146998688886</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.968698808107575</v>
+        <v>10.21232275146237</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>11.79652514816446</v>
+        <v>14.70773787414604</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16.37503107526602</v>
+        <v>18.37178843743945</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.957056573428481</v>
+        <v>7.045601242428916</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>16.0592704906793</v>
+        <v>19.61180935628437</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>19.35421845639434</v>
+        <v>21.93401072778185</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.82486077149859</v>
+        <v>27.6233532330681</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.6362287063876</v>
+        <v>27.19070960422903</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.078584366713184</v>
+        <v>7.46539325768045</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.86006810809473</v>
+        <v>31.44874390159753</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.15111950506473</v>
+        <v>32.42483499756329</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.343049421461622</v>
+        <v>10.23339442527252</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>40.93682872786316</v>
+        <v>41.78094778968612</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.78373386211894</v>
+        <v>38.97641929829003</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.81017879690445</v>
+        <v>39.8103818269779</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>46.16366363549634</v>
+        <v>46.6239338121867</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>47.10644987762942</v>
+        <v>47.48405718088138</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>19.21281063909762</v>
+        <v>21.79201524960079</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27.10624200466435</v>
+        <v>29.54105693438152</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>30.72742709389331</v>
+        <v>32.39564844736658</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>18.3756118024684</v>
+        <v>20.25252250394033</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.19673775978146</v>
+        <v>30.73377151471455</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>32.31028421723341</v>
+        <v>33.73748326698291</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7.357475738976145</v>
+        <v>10.31632067519757</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>27.35358370869196</v>
+        <v>28.25039518677958</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.36611248705227</v>
+        <v>35.99587370460749</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>41.59516426166614</v>
+        <v>42.53056222033925</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.5816907882953</v>
+        <v>13.04852117259845</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>22.12869153240291</v>
+        <v>23.69383477629825</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>25.3371862491666</v>
+        <v>27.2570257798621</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.761464463445026</v>
+        <v>6.028438951308967</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27.19589798028746</v>
+        <v>29.25806074005295</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.04633041202693</v>
+        <v>33.32534886751807</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>8.532526655746132</v>
+        <v>11.07797468227663</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>42.01013914258969</v>
+        <v>42.69402233532581</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>44.29901900895789</v>
+        <v>45.19365951036716</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>42.96466221475057</v>
+        <v>43.37934010630347</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>48.71768128602429</v>
+        <v>48.38427903628067</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>51.9918933250479</v>
+        <v>51.40775770808136</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>13.12000525497239</v>
+        <v>14.40735274155974</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>26.47372870305965</v>
+        <v>28.88762578143348</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>30.56946745776317</v>
+        <v>32.08018253442469</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.99656874275007</v>
+        <v>15.54602808941129</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>26.83071959705006</v>
+        <v>29.05018491866362</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.45182377754491</v>
+        <v>33.47677854751565</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6.81829047052484</v>
+        <v>9.903060674165747</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22.96559501493719</v>
+        <v>25.79252412724525</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.65252679634969</v>
+        <v>36.78469857662925</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.527543988090606</v>
+        <v>8.491106384515415</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.41286817043857</v>
+        <v>38.55785225544592</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>7.12519699367818</v>
+        <v>10.2633414458508</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>17.91248594314764</v>
+        <v>20.21121267176242</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>23.04291571835438</v>
+        <v>24.89325838260631</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2.919875413348411</v>
+        <v>6.386630943675748</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>27.40764323692145</v>
+        <v>28.87543325439019</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>32.20091664963419</v>
+        <v>33.38637474549022</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4.070616513032768</v>
+        <v>7.449830817963033</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>38.60470176502248</v>
+        <v>39.53681608180102</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>42.53380917202048</v>
+        <v>43.08711342046119</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>33.155191909314</v>
+        <v>36.3139494036548</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>37.16832632658353</v>
+        <v>39.65860662023429</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>42.08938996889881</v>
+        <v>44.91866259085392</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>10.03463907370095</v>
+        <v>11.74636346019566</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>17.85623028187104</v>
+        <v>22.80925553565387</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>32.41956473391696</v>
+        <v>32.47424616125503</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>10.23553658476667</v>
+        <v>12.95811125379722</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>24.58897158292516</v>
+        <v>26.22589456470561</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>31.21498027532715</v>
+        <v>32.1365212787184</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>7.328177151552321</v>
+        <v>10.38625789955784</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>24.01694577133008</v>
+        <v>25.84497125411459</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>34.94602244446743</v>
+        <v>35.95243000970505</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2.554001101101157</v>
+        <v>6.319698315406512</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>34.72227062530465</v>
+        <v>36.03822111450343</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>20.12973618702271</v>
+        <v>22.69547654052371</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>17.50470529921268</v>
+        <v>20.35308836787891</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>35.42181811392115</v>
+        <v>36.2913797587571</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>39.39217597447963</v>
+        <v>39.93922876467781</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>7.633086031324616</v>
+        <v>10.53685694497795</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.45430357301794</v>
+        <v>17.48166010575045</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>20.65139126141524</v>
+        <v>23.12601488651681</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>14.5156026132283</v>
+        <v>16.21763380384127</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>23.09789825648282</v>
+        <v>24.16000185847103</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32.24907284343455</v>
+        <v>32.46175595215012</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6.701994714677799</v>
+        <v>9.651806782129658</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10.15153811297414</v>
+        <v>13.41210167368893</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>13.02040182736337</v>
+        <v>16.3300309903991</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4.295726092741393</v>
+        <v>7.489729850022005</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>17.24547684004423</v>
+        <v>19.26630636341206</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.31172948665046</v>
+        <v>31.07902767016494</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>19.91928086198996</v>
+        <v>22.00340842446429</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>39.58108391186119</v>
+        <v>39.88873224830954</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>44.86991608225131</v>
+        <v>44.38133944720364</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6.878705302085066</v>
+        <v>10.12530929195628</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>15.28605363536256</v>
+        <v>18.09804616650798</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>24.94226612800705</v>
+        <v>25.20577339618392</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>50.67513461292467</v>
+        <v>50.53032178286381</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>44.1499177067835</v>
+        <v>45.5274705390528</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>56.09310808267715</v>
+        <v>55.79347521897166</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>59.65975303524579</v>
+        <v>58.37994199674579</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.5451956032409</v>
+        <v>22.97309872975703</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>50.45973031324653</v>
+        <v>51.58996267174477</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>54.94082682100515</v>
+        <v>54.56169835483738</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>26.17321423897035</v>
+        <v>27.02435643899022</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.7688383231068</v>
+        <v>36.22866721618561</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.76016802820234</v>
+        <v>41.32192889924539</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>8.670354478757275</v>
+        <v>11.63070477343432</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>35.72368892627727</v>
+        <v>35.72872945303383</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.47761720128031</v>
+        <v>41.70938790683768</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>9.055064825875188</v>
+        <v>11.54695951224129</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>57.34995228407796</v>
+        <v>56.09506043470664</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>64.27601778326482</v>
+        <v>61.82951584655582</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>68.10962422549004</v>
+        <v>64.24865888446661</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>75.83176782229376</v>
+        <v>71.75643068154248</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>81.34543677776833</v>
+        <v>76.45693579160857</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>34.20140042165833</v>
+        <v>33.95642517473909</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>69.79075099943007</v>
+        <v>67.28895967827988</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>73.35472288955387</v>
+        <v>69.90749484977111</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>55.0651076693656</v>
+        <v>54.58009135883513</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>38.19124938029722</v>
+        <v>38.75226214261124</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.68288151969801</v>
+        <v>45.48330442818021</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>58.285893174007</v>
+        <v>57.8312251029262</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>16.67476129869068</v>
+        <v>18.70367345429123</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>47.23089110382997</v>
+        <v>47.45304526156791</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>53.75372547642139</v>
+        <v>53.64420604962345</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>17.32780244221565</v>
+        <v>18.6344961545475</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>32.35861755504909</v>
+        <v>33.00445872814925</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>40.20914348344088</v>
+        <v>39.95724412664192</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>7.444849415275456</v>
+        <v>10.37126530551519</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.17293839439156</v>
+        <v>34.10205794680936</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>43.658770163468</v>
+        <v>43.2382987951683</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>8.941000972097225</v>
+        <v>11.03817817118292</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>53.94568125168733</v>
+        <v>53.15813409175902</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>68.55796576165386</v>
+        <v>65.11714667236532</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>65.29224738387731</v>
+        <v>62.55206203460943</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>72.17243766839914</v>
+        <v>68.34064691601027</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>81.24304261974218</v>
+        <v>76.41448357436992</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.56405871958086</v>
+        <v>24.69101439651248</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>62.68745563626196</v>
+        <v>59.61052627194398</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>71.79507360714642</v>
+        <v>67.78063701808314</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>50.12211373858445</v>
+        <v>50.06752246621924</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>25.39417792567933</v>
+        <v>27.63022999356181</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.56450234481908</v>
+        <v>34.11069019109347</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>43.17805288481549</v>
+        <v>43.53589830246193</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>11.91317260857687</v>
+        <v>14.58364186165247</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>43.02801397990116</v>
+        <v>42.9569978471986</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>51.16186314641959</v>
+        <v>50.95615355520859</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>15.05963104610511</v>
+        <v>16.74957272867032</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.48289061717835</v>
+        <v>33.37136849905114</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.41051224382376</v>
+        <v>43.13286707241242</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>8.338329733654803</v>
+        <v>11.28334606122166</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>34.05675897647867</v>
+        <v>34.42446388466588</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>46.06107291648636</v>
+        <v>45.1111266937872</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>4.067380997474462</v>
+        <v>7.04929262617231</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>49.85837177383171</v>
+        <v>48.31729394326534</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>68.8303892546147</v>
+        <v>65.62817399991711</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>55.96652177296125</v>
+        <v>53.59268606068996</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>64.22404392238788</v>
+        <v>61.06646604214041</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>80.41324550036363</v>
+        <v>76.37766843649399</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>16.66105976850969</v>
+        <v>18.0704801798714</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>56.78229995525625</v>
+        <v>54.19912489804275</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>71.31579746048848</v>
+        <v>67.69072156115163</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>15.71125739602046</v>
+        <v>22.08667404134655</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>20.12802163472644</v>
+        <v>24.45392323951626</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.0222091713526</v>
+        <v>29.65394196617278</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>11.4426124198103</v>
+        <v>19.02198673407371</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>24.41190073847169</v>
+        <v>26.45459421806532</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>26.98038882919504</v>
+        <v>27.8356214120913</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>13.90200099284917</v>
+        <v>20.57715977605152</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>39.73453417900772</v>
+        <v>35.59062215754486</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>42.23416462608752</v>
+        <v>36.9848882521442</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>21.90840134386252</v>
+        <v>25.66276744501929</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>24.50858880972463</v>
+        <v>26.95991670491215</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>26.45014270459135</v>
+        <v>27.76952177227141</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>23.2764846603924</v>
+        <v>25.93732660867441</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>21.54413662579489</v>
+        <v>26.29171330023176</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>34.69370063270099</v>
+        <v>33.39967949657153</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>16.39709826986862</v>
+        <v>22.13875800036991</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>27.50471931201201</v>
+        <v>28.66032918993053</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.13911209346443</v>
+        <v>29.99001453622256</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>11.37209899188478</v>
+        <v>19.27091393847887</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>19.20846915778142</v>
+        <v>23.38471726768791</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>21.66241755658194</v>
+        <v>25.08876186226821</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>11.95220988424941</v>
+        <v>19.3428991002474</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.66545756305253</v>
+        <v>29.22577428999774</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>21.53934513720408</v>
+        <v>25.71927895888719</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>31.23047997082716</v>
+        <v>31.55889436385615</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>33.37725598074294</v>
+        <v>32.09125282027154</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>11.65209905886823</v>
+        <v>19.25938882260712</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>35.59645813038298</v>
+        <v>33.38128096170971</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>37.56774620723414</v>
+        <v>34.30315184257969</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>14.17824132585983</v>
+        <v>20.75592467798551</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>49.07675481406676</v>
+        <v>41.59018674051942</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>47.22709101739895</v>
+        <v>40.17065914267514</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>42.89178059521907</v>
+        <v>38.19621869036315</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>48.47182566286794</v>
+        <v>41.28952311536577</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>48.04614903834783</v>
+        <v>40.8834251920625</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>24.22514615625635</v>
+        <v>27.46222466645107</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>36.50790349973102</v>
+        <v>35.54569722842308</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>39.2445061934563</v>
+        <v>36.87126133281332</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>23.84308777577619</v>
+        <v>26.05811557348271</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>33.47431987023506</v>
+        <v>32.33911263029731</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>32.89341817880413</v>
+        <v>32.26212275000928</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>11.98930608331211</v>
+        <v>19.20739708865813</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>32.42800999613176</v>
+        <v>31.36970284594884</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>32.53534747487763</v>
+        <v>31.8908458256585</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>12.73116450930682</v>
+        <v>19.81902564189696</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>46.37977803286481</v>
+        <v>39.79203271427255</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>13.42737288916665</v>
+        <v>20.48821558575985</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>24.63817815802747</v>
+        <v>27.12053166959302</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.84815409564114</v>
+        <v>30.12000670769882</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>10.75558258510841</v>
+        <v>18.74556605364677</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>33.06774649083174</v>
+        <v>31.90961137965829</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>35.69078148691612</v>
+        <v>33.36298802760746</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>12.57874071125726</v>
+        <v>19.82049534951903</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>46.19257616377863</v>
+        <v>39.52225600885258</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>47.37379516975707</v>
+        <v>40.25974077174374</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>48.51099511162271</v>
+        <v>41.34657130664433</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>52.75506873603992</v>
+        <v>44.58925078562219</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>52.5882489211797</v>
+        <v>43.51375765821373</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>14.40866062650572</v>
+        <v>20.50678683049301</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>27.75878840366933</v>
+        <v>29.81884112178244</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>33.05033526991921</v>
+        <v>32.87668222630395</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>19.27206460480794</v>
+        <v>23.44008069564907</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>30.91869841760421</v>
+        <v>30.89025364093989</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>31.97812495465422</v>
+        <v>31.69705944838742</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>11.49391348264136</v>
+        <v>19.02887167595792</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.27820814826882</v>
+        <v>29.658463227767</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>32.04902780077533</v>
+        <v>31.82254871458369</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>12.63884322452316</v>
+        <v>19.84599516458521</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>42.08007987748591</v>
+        <v>37.28191686749575</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>11.63738706039003</v>
+        <v>19.73958716591312</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>23.32375564918542</v>
+        <v>26.14933765936919</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.98723553788422</v>
+        <v>30.02029973480107</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>11.28852859875678</v>
+        <v>18.9294528322699</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>33.82689155512933</v>
+        <v>31.60709184253765</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>37.40015309182567</v>
+        <v>34.32177818989143</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>11.55528375623773</v>
+        <v>19.28625921691056</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>45.70407511128666</v>
+        <v>38.84482468384599</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>47.91064525343602</v>
+        <v>40.35859378509601</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>45.14687673612774</v>
+        <v>38.74443874111142</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>49.02815513489124</v>
+        <v>41.06986058826598</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>51.11369378720178</v>
+        <v>42.67943579954716</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>12.73981686425112</v>
+        <v>20.03512518056829</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>24.48972203094598</v>
+        <v>27.96161064885193</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>34.88569549999922</v>
+        <v>33.3682039578983</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>16.93233753766108</v>
+        <v>22.08285346409211</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.54004570221876</v>
+        <v>29.69053139655704</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>31.51259207687463</v>
+        <v>31.17392540888874</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>11.75768806748748</v>
+        <v>19.17350455793547</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.20827421916809</v>
+        <v>28.65601450648812</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>31.80668757434409</v>
+        <v>31.37776585488972</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>11.56210928120001</v>
+        <v>19.16702105475284</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>38.68215891208053</v>
+        <v>34.98331179757758</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.36993217493182</v>
+        <v>29.21664804580738</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.61622847129586</v>
+        <v>27.61795083321077</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>37.1691590871307</v>
+        <v>34.39737338022692</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>39.32262792806122</v>
+        <v>35.78804231006626</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>17.23704712046574</v>
+        <v>22.17392678626933</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>26.91656240559404</v>
+        <v>27.8041614651318</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>31.39073955875122</v>
+        <v>30.65406013744392</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>19.58756374153813</v>
+        <v>23.69587132576803</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.29186050489544</v>
+        <v>29.01523423266859</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>34.21914307854552</v>
+        <v>32.51249797874964</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>11.31329500020257</v>
+        <v>18.91891133411318</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>17.75493170742185</v>
+        <v>22.52808483611381</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>23.68071282151989</v>
+        <v>25.93003893620632</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>12.37473766353342</v>
+        <v>19.63947642160235</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.79237812019953</v>
+        <v>29.51664328149659</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>44.39906586369901</v>
+        <v>37.54847271148957</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.42041030458492</v>
+        <v>29.13801030324355</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>43.67968315093267</v>
+        <v>37.98458696770284</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>46.04309388417251</v>
+        <v>39.75197486174891</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>16.7535922180562</v>
+        <v>21.78865867737889</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>27.88959848743048</v>
+        <v>28.46894463689549</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>37.05296527229709</v>
+        <v>33.90894583669009</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>47.98551955020761</v>
+        <v>41.36303060584181</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>46.36702015637982</v>
+        <v>39.90710790011789</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>51.97800790175318</v>
+        <v>43.36306868441845</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>52.47453913999793</v>
+        <v>43.97604218761254</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>26.6237071241731</v>
+        <v>27.34381561176092</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>48.95952195067701</v>
+        <v>41.60642736370106</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>48.32383817145879</v>
+        <v>41.69673318467815</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.35961517154931</v>
+        <v>27.30695237387113</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>12.37614601223203</v>
+        <v>19.49466251929673</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>38.37513935798032</v>
+        <v>35.24043705488516</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>39.09204649122321</v>
+        <v>35.70412631527811</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>13.64892212064449</v>
+        <v>20.47232756570619</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>53.68827404715532</v>
+        <v>44.3691730163284</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>56.27181214455639</v>
+        <v>46.02524315666604</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>55.75605874203598</v>
+        <v>45.64645529036731</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>61.16679986367808</v>
+        <v>49.126587870428</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>63.50748940047467</v>
+        <v>50.72960128870366</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>31.32198727844694</v>
+        <v>30.25738096868609</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>58.98991118890221</v>
+        <v>47.91492416402875</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>59.44772151015003</v>
+        <v>48.34486028428233</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>48.99701085879632</v>
+        <v>42.08412477399178</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>43.79188901788417</v>
+        <v>38.17674352541096</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>48.35970071258041</v>
+        <v>41.15282172863043</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>51.5012684739863</v>
+        <v>43.4387738749119</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>22.19437469920322</v>
+        <v>24.76906271699711</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>45.77703599124546</v>
+        <v>39.93049208510156</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>46.51419029584638</v>
+        <v>40.79164746508736</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>19.52648454612184</v>
+        <v>23.65529059447745</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>32.06396805189277</v>
+        <v>31.67443757585269</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>36.45860638674809</v>
+        <v>34.41995482789575</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>11.5584808651164</v>
+        <v>19.07291997639358</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>35.24767767757922</v>
+        <v>32.97278462588675</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>37.41628311094127</v>
+        <v>35.02813546401048</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>14.33387118707767</v>
+        <v>20.678017864267</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>50.32838359311636</v>
+        <v>42.36168666449664</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>57.03458172249825</v>
+        <v>46.56958731923055</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>54.49151013873748</v>
+        <v>45.20060768140177</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>60.66142688914215</v>
+        <v>48.74783275415147</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>63.93361527134192</v>
+        <v>51.00287877208948</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>23.68921713239412</v>
+        <v>25.60680114385269</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>56.90879024016878</v>
+        <v>46.09746706512668</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>58.80929487043824</v>
+        <v>47.73896736696631</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>45.79622015858526</v>
+        <v>39.95831187950522</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>32.7067858325483</v>
+        <v>31.4084648053699</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>37.75994958755587</v>
+        <v>34.42398703975931</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>40.99597296187338</v>
+        <v>37.10728835925635</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>19.08116646130679</v>
+        <v>23.16564482355165</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>42.28030136697394</v>
+        <v>36.94145471071048</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>45.7516348892531</v>
+        <v>39.87561982887112</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>18.8173398252628</v>
+        <v>23.12947966940535</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>32.88049374525033</v>
+        <v>31.67774766059814</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>39.31974401292073</v>
+        <v>35.75536231310322</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>12.10246518409062</v>
+        <v>19.36892965123935</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.88131924164662</v>
+        <v>32.69617965854638</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>40.30145544557005</v>
+        <v>36.37627358575219</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>12.04392993248748</v>
+        <v>19.48385355197668</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>47.68012619270583</v>
+        <v>40.5343150946582</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>57.38752273109453</v>
+        <v>46.56271677749616</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>50.9356519417001</v>
+        <v>42.60969372811173</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>59.18166517609755</v>
+        <v>47.50926293687083</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>63.85229787386849</v>
+        <v>50.78125578098361</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>21.05394870609743</v>
+        <v>23.99962066720598</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>55.00268158713402</v>
+        <v>44.97477852265458</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>61.00247653192396</v>
+        <v>48.89280412000655</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>15.15202182671252</v>
+        <v>19.50120691517904</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>21.58928219234722</v>
+        <v>23.63182286318602</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.19639948465576</v>
+        <v>29.68034449623371</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>5.807346765733506</v>
+        <v>10.82474284959074</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.34418432151645</v>
+        <v>19.75410171153124</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>19.61431614297918</v>
+        <v>22.08424807945989</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>7.07176042234634</v>
+        <v>12.17988130609274</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>39.65688780073249</v>
+        <v>37.439225426782</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>43.09674333633818</v>
+        <v>40.31238268062044</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>21.19929604393657</v>
+        <v>24.18592413110672</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.0462483622923</v>
+        <v>27.36685553217576</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>27.43526268070168</v>
+        <v>28.05474449192895</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>13.49979254974628</v>
+        <v>17.79870393941658</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>18.61990544554365</v>
+        <v>22.31844165723851</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>23.80585513207941</v>
+        <v>27.38536880211133</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>17.39922122173211</v>
+        <v>19.77857446030165</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.59735379767471</v>
+        <v>28.74947765220507</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.6300750628806</v>
+        <v>30.7145314513791</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>6.321600833347386</v>
+        <v>11.42194557613524</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>15.65458725167324</v>
+        <v>18.36226573438832</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>18.44219320036083</v>
+        <v>21.10594183691417</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>7.31403516051363</v>
+        <v>11.90422229961263</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.41507614258992</v>
+        <v>29.33777651702914</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>22.8655929320981</v>
+        <v>27.50256724013359</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>36.81145245062124</v>
+        <v>35.53691228128602</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>35.81535350773906</v>
+        <v>34.28965087790185</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>6.52847124871759</v>
+        <v>11.52411141814406</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>35.18401542092152</v>
+        <v>33.97542230507727</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>36.65909248521283</v>
+        <v>34.83596124865161</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>7.73041009953322</v>
+        <v>12.68470061952404</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>53.09130365166311</v>
+        <v>47.9242627705749</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>50.24598053658409</v>
+        <v>45.57365325586927</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>45.0007094220953</v>
+        <v>42.77942576608439</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>53.08866875114305</v>
+        <v>48.45767814893246</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>53.38664451822827</v>
+        <v>48.73183177783714</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>20.28919960848116</v>
+        <v>23.25754596276358</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>43.72260280680663</v>
+        <v>43.40357986981157</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.41278707644535</v>
+        <v>44.26221594083277</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>22.66433681430464</v>
+        <v>23.59823959013882</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>35.25912769207696</v>
+        <v>34.03126713397454</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>35.32165122546478</v>
+        <v>34.6380810211369</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>6.844235956957512</v>
+        <v>11.43309877694272</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>32.06169087404882</v>
+        <v>31.37260827440429</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>32.49769598973274</v>
+        <v>32.24933306671147</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>7.422542402379083</v>
+        <v>12.1183118489307</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>51.86871862553306</v>
+        <v>46.81637182790912</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>10.12134501026843</v>
+        <v>14.49372635189226</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>27.27010209288565</v>
+        <v>27.53460880522858</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.6884322473069</v>
+        <v>30.57597158590204</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>5.481643919984709</v>
+        <v>10.76203048457727</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>32.88730789805105</v>
+        <v>32.47012440720945</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>35.65691233032074</v>
+        <v>34.2628224122422</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>7.629511401674364</v>
+        <v>12.57737314478067</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>50.45716222455107</v>
+        <v>45.92653561085261</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>49.63743089824861</v>
+        <v>45.20595964124846</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>49.53207108807354</v>
+        <v>45.96531522895913</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>55.21141983122315</v>
+        <v>51.87452272154824</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>54.63703185132484</v>
+        <v>49.74060682582252</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>7.01243878808685</v>
+        <v>12.6047422891497</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.93946267803173</v>
+        <v>32.01067695877365</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.33470709277628</v>
+        <v>32.08916166265175</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>17.05637963960701</v>
+        <v>19.11952518358477</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>33.32329440667816</v>
+        <v>32.46347117196627</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>34.44651799892513</v>
+        <v>33.90992481915942</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>6.512529398639916</v>
+        <v>11.23111735872058</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.24672025436594</v>
+        <v>29.16802610434556</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>33.33979086167727</v>
+        <v>33.08388210676506</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>6.925397221867328</v>
+        <v>11.70819880775258</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>46.16949243157372</v>
+        <v>42.46929411549348</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>9.312954489735905</v>
+        <v>14.28002139132525</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>26.88314699486104</v>
+        <v>26.76388463669288</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>32.16019185781111</v>
+        <v>31.25947649743664</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>6.351913202777812</v>
+        <v>11.23496650468152</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>34.0508870210321</v>
+        <v>32.22788175867134</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>41.23455226044202</v>
+        <v>38.21730100638786</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>6.568773980375301</v>
+        <v>11.5908197738208</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>52.25386904472894</v>
+        <v>46.58669544002538</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>53.55747903665412</v>
+        <v>47.73339612953303</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>47.34851199520838</v>
+        <v>43.2727215117184</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>53.2505758402324</v>
+        <v>47.92151010438246</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>55.53236433219227</v>
+        <v>50.07633547418041</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>9.458300497378467</v>
+        <v>13.87503205725956</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.39555469541635</v>
+        <v>35.24976727395067</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.73225460996504</v>
+        <v>37.31982658814753</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>13.3349894407584</v>
+        <v>16.34507298480787</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>30.62972306157225</v>
+        <v>29.9018222952656</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>33.46816557700449</v>
+        <v>32.59993332368966</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>6.824891806404391</v>
+        <v>11.4579257935336</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.6843972632027</v>
+        <v>28.11640881420267</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>33.7894702603438</v>
+        <v>32.95871895367297</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>6.515528583401583</v>
+        <v>11.34380019350633</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>43.07238653315773</v>
+        <v>39.44298698193539</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.05821135161223</v>
+        <v>28.43358360530552</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.78981919340817</v>
+        <v>26.68204676075685</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>38.83020035401589</v>
+        <v>36.47847343822574</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>41.56868039824322</v>
+        <v>38.95739977529827</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>13.5318892884595</v>
+        <v>16.66520234779439</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>23.30376849819774</v>
+        <v>24.06738097809169</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>30.20622400570983</v>
+        <v>30.08306815837155</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>17.78242217257754</v>
+        <v>19.92350456441562</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>30.41474772597698</v>
+        <v>29.95417337080579</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.30053890426507</v>
+        <v>34.18795124532306</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>6.229158184160443</v>
+        <v>10.92449856021575</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>14.83423541078762</v>
+        <v>17.76179301115219</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>22.78629842894719</v>
+        <v>24.02517917046365</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>7.640425242855031</v>
+        <v>12.55092090548054</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>31.60980812780396</v>
+        <v>30.67642265744099</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>49.40617998004979</v>
+        <v>44.40525593482018</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.74113130909988</v>
+        <v>29.66038909634294</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>44.94338783131234</v>
+        <v>41.43650838927317</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>51.05010616038676</v>
+        <v>46.58801377718255</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>13.35349552767499</v>
+        <v>16.3029456725309</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>27.76143780254356</v>
+        <v>27.6402965789965</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>39.04992534125846</v>
+        <v>36.57619737830973</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>56.43664692409184</v>
+        <v>51.49293197297917</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>53.00106614674826</v>
+        <v>47.27774735829356</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>61.25201906414883</v>
+        <v>54.61336840232126</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>60.08164326782413</v>
+        <v>53.58361892155382</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>22.84707064846355</v>
+        <v>23.47413301699757</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>54.29504543658236</v>
+        <v>49.03955271984839</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>56.43876568476257</v>
+        <v>51.16625183586084</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>28.93768067888927</v>
+        <v>29.27242429535137</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>41.39965254616045</v>
+        <v>38.8154867828049</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>40.74608994947328</v>
+        <v>38.9382498196649</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>7.661642771542919</v>
+        <v>12.05797036466478</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>39.87695878765365</v>
+        <v>37.97408305385768</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>39.39514533537508</v>
+        <v>37.78863569184033</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>9.141746852775785</v>
+        <v>13.98684673764702</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>60.27357222964588</v>
+        <v>54.42560474631941</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>61.55474338139416</v>
+        <v>55.22190619779822</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>66.11384980435358</v>
+        <v>59.19927995992134</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>71.47781491011605</v>
+        <v>63.26894280437814</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>74.42653902207928</v>
+        <v>65.61669028801663</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>31.1028201559366</v>
+        <v>29.60434577786935</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>66.73355239380233</v>
+        <v>59.52680410052897</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>67.35714164385934</v>
+        <v>60.44110717836699</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>54.32238388079833</v>
+        <v>49.6613982927115</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>48.61255795315562</v>
+        <v>44.2566856328902</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>55.23625417324261</v>
+        <v>49.73698879784358</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>59.39121282673973</v>
+        <v>53.1226069414732</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>17.18049575753521</v>
+        <v>18.99130680952385</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>50.92153335628628</v>
+        <v>46.86140024647824</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>52.8744953820995</v>
+        <v>48.76845010666165</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>19.98517135921931</v>
+        <v>21.48820497335219</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>37.37168755785277</v>
+        <v>35.69464365781796</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>37.95010872199252</v>
+        <v>36.77605864493223</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>6.058923356488375</v>
+        <v>11.27471133849702</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>35.48830948640204</v>
+        <v>34.46159514905813</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>37.67725384535768</v>
+        <v>36.88103346926576</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>8.878638789029306</v>
+        <v>13.04506757936505</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>56.28561946531683</v>
+        <v>51.20629115359181</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>61.79371839187897</v>
+        <v>55.63906271484217</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>62.45154008743117</v>
+        <v>56.40069642775345</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>69.38204714107611</v>
+        <v>61.37224518095005</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>74.48010279946365</v>
+        <v>65.91300217625196</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>22.27170477985257</v>
+        <v>22.83160702938368</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>63.62125159332102</v>
+        <v>56.69952428947078</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>64.64671114482147</v>
+        <v>58.69378013443107</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>53.55080210174827</v>
+        <v>48.95695749330051</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>33.88885688559262</v>
+        <v>31.81459155257736</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>41.0480432801924</v>
+        <v>37.5245561609129</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>46.83278550596989</v>
+        <v>43.50476621392395</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>13.75368690224518</v>
+        <v>16.20574338865991</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>47.26314175145178</v>
+        <v>42.07827809815106</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>52.37158376753431</v>
+        <v>48.04169515288726</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>16.82672767687971</v>
+        <v>18.72652813209653</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.99812154086672</v>
+        <v>36.47747483428769</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>41.1909232218314</v>
+        <v>38.94140229412589</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>7.185836296406531</v>
+        <v>11.80411613102095</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>37.83878145841643</v>
+        <v>35.7690520447523</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>43.20025811954862</v>
+        <v>40.41637871542481</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>7.652275870210115</v>
+        <v>12.512124088161</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>54.1004272013959</v>
+        <v>48.87972225878596</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>63.11521126731856</v>
+        <v>56.60809730324077</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>58.83290567135783</v>
+        <v>52.574746654959</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>64.30702274708979</v>
+        <v>56.7854713405818</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>73.06641327514075</v>
+        <v>64.25419566191424</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>18.02131680431911</v>
+        <v>19.18628592527367</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>63.5649044561021</v>
+        <v>56.33193376718403</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>68.51481596128055</v>
+        <v>61.18195685160315</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>12.44281283532082</v>
+        <v>16.2541264679959</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>17.70471463678903</v>
+        <v>20.47736792945857</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>23.37206084811121</v>
+        <v>25.04151247713325</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>3.562541132768853</v>
+        <v>8.865707951715294</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>13.70354661180323</v>
+        <v>17.81097741254759</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>15.91189688212165</v>
+        <v>19.69273014004226</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>5.560970806383899</v>
+        <v>10.37395403299512</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.70614235572095</v>
+        <v>30.4655365501574</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>32.82869403851547</v>
+        <v>33.26319439836049</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>16.59221424849857</v>
+        <v>20.35271120201088</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.22565682627917</v>
+        <v>23.32288565960672</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>21.68156720705794</v>
+        <v>24.62249010813488</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>12.11840280791191</v>
+        <v>15.64545929108923</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>15.92282743786072</v>
+        <v>18.96745991155195</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.06992183197597</v>
+        <v>26.82581381276716</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>10.31601044725012</v>
+        <v>14.91508183618585</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.31599161158035</v>
+        <v>23.30868059139109</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>23.92279241449183</v>
+        <v>25.60909451814724</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>2.541956653174768</v>
+        <v>8.634876702676635</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>8.501119757333573</v>
+        <v>13.74856388445948</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>11.38494317738491</v>
+        <v>16.21264145642188</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.992687453440105</v>
+        <v>9.125072897698164</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>19.52392444435019</v>
+        <v>22.86000859315595</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>14.77246435633573</v>
+        <v>19.33636019767432</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.05709466480183</v>
+        <v>27.40659794560476</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.552313525382</v>
+        <v>27.36182795368451</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>3.425566219091891</v>
+        <v>9.094646508721883</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.69506927433636</v>
+        <v>26.94112022101854</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.88669218211829</v>
+        <v>27.88188184121583</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>6.166359793175271</v>
+        <v>10.98931502234635</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>38.41659415359698</v>
+        <v>37.89996290313891</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>37.91830279491317</v>
+        <v>37.46467251013807</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>35.85209753994353</v>
+        <v>36.36672393568217</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>41.08305877786566</v>
+        <v>39.80105777373896</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>43.44062785620615</v>
+        <v>41.7564562330156</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>17.59557418931855</v>
+        <v>20.125935906114</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>39.13495255308014</v>
+        <v>38.22287710512592</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>41.87654604187261</v>
+        <v>40.11554501839626</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>13.65334307849136</v>
+        <v>17.32821673936282</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.95650365346687</v>
+        <v>27.70796134536517</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>27.58683050329994</v>
+        <v>29.25510719052799</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>2.608605701222416</v>
+        <v>8.367638280896735</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>22.89565872158303</v>
+        <v>25.30495432173635</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.1799392438007</v>
+        <v>27.30104357769747</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>3.979369448424801</v>
+        <v>9.189539235696706</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>38.67707031876084</v>
+        <v>38.35520321026859</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>7.105560134845017</v>
+        <v>11.53571052339139</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>18.78264849559429</v>
+        <v>21.46876786887305</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.19774480769686</v>
+        <v>25.01642483697021</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>3.1888929705088</v>
+        <v>8.698873388556944</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>23.80982586171749</v>
+        <v>26.13733298943748</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.40419819579352</v>
+        <v>27.54911641225161</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>7.827428915429952</v>
+        <v>12.06950802015571</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>38.30928401136366</v>
+        <v>37.72596136890111</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>39.66528574775385</v>
+        <v>38.52654081956457</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>39.77195514654572</v>
+        <v>39.07901805274659</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>42.1100168589594</v>
+        <v>42.55070930211454</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>45.40644628386386</v>
+        <v>43.1770841286572</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>7.037702347855575</v>
+        <v>11.18969708771344</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.7993908315662</v>
+        <v>28.91521594361079</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>31.67701839541634</v>
+        <v>31.36891621192661</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>8.890123114886219</v>
+        <v>13.26572724418035</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>23.97762570678621</v>
+        <v>25.90498102514332</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.47138657907219</v>
+        <v>28.6051343038243</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>2.234057662609931</v>
+        <v>8.128861408126209</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>18.21132429594729</v>
+        <v>21.59074012413005</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.21761600608311</v>
+        <v>27.87055838601651</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>4.844721445173406</v>
+        <v>9.488323248652055</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>32.39589544101445</v>
+        <v>32.84838750959588</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>5.873291712288733</v>
+        <v>11.42696606430789</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>15.81136881094069</v>
+        <v>19.8376371996909</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>22.56401713404805</v>
+        <v>24.60317223567901</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>2.667561530918306</v>
+        <v>8.570455107119351</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.67831003476986</v>
+        <v>24.90480235602588</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.61437551343673</v>
+        <v>29.91991282550694</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>3.096690466949322</v>
+        <v>8.975350733611883</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>34.27892869097563</v>
+        <v>34.89295612138767</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>39.54508078064357</v>
+        <v>38.69507411290845</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>32.63260098614942</v>
+        <v>33.64692952409425</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.53147216802466</v>
+        <v>36.93452435718844</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>41.28730740186153</v>
+        <v>40.40585813889044</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>6.09571580840522</v>
+        <v>11.22214872226682</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.19366971392739</v>
+        <v>28.80653957342138</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.54970264635958</v>
+        <v>35.19156910921395</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>6.131686079787336</v>
+        <v>11.65649112460686</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>20.73017463960483</v>
+        <v>23.05370484746918</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.07621635498075</v>
+        <v>27.23234897242462</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>2.410885404362642</v>
+        <v>8.580609818286003</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>17.32579505662232</v>
+        <v>20.54670778835235</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.55320374050926</v>
+        <v>27.16702290345412</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>2.975055259572937</v>
+        <v>8.553329941183513</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.9941273834311</v>
+        <v>29.44798002473274</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>19.40619785904219</v>
+        <v>22.23575028669534</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>16.96046147409453</v>
+        <v>20.96086547914421</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.44413182962719</v>
+        <v>29.17931444583967</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.42224415592188</v>
+        <v>30.92465899877098</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>7.589422600669721</v>
+        <v>12.27304499367123</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>14.65016006761298</v>
+        <v>18.41726182469079</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>20.06459579123942</v>
+        <v>23.21302167573104</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.93755279361454</v>
+        <v>17.78495153459508</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.90618377220408</v>
+        <v>26.99958037544708</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.72386884698361</v>
+        <v>31.65248230520086</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>2.148757461567591</v>
+        <v>8.189499940727337</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>8.875451097571666</v>
+        <v>14.16265619634035</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>15.9639757724559</v>
+        <v>19.70741495586338</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>5.194123783819109</v>
+        <v>10.19936453992664</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>24.67762306845878</v>
+        <v>26.10531334129799</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>39.77899637275746</v>
+        <v>38.55649042138447</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.55037017606831</v>
+        <v>24.56024660730096</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.85955086415139</v>
+        <v>35.20622943745632</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>40.15136505897676</v>
+        <v>39.53749895763012</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>8.624738279363235</v>
+        <v>12.89680299517641</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>20.83122395975962</v>
+        <v>23.14009845132727</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>30.58873338966201</v>
+        <v>31.27490690351693</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>43.27206795872924</v>
+        <v>42.491929847478</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>39.68217277261881</v>
+        <v>38.72618861698079</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>47.22735078534359</v>
+        <v>45.15675735729234</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>45.43463011370746</v>
+        <v>43.99064508613847</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>14.31164045423434</v>
+        <v>17.3773962256582</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>41.91316360433257</v>
+        <v>40.71529331452939</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>44.20472333923423</v>
+        <v>42.83452497882594</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>24.24778573500913</v>
+        <v>25.36824036097216</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>35.78517227324409</v>
+        <v>35.02152824191398</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>38.05072029165459</v>
+        <v>36.89998509685872</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>4.275532095204301</v>
+        <v>9.634836726809784</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>34.40159439854693</v>
+        <v>34.22044221284646</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.6052735405776</v>
+        <v>35.25086785458656</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>9.922363277443367</v>
+        <v>13.81174134846375</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>55.17361472077138</v>
+        <v>50.89045966556252</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>55.93241388637027</v>
+        <v>51.71551587617563</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>64.36783175269592</v>
+        <v>57.90470040951432</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>67.88346885519542</v>
+        <v>61.40848379594865</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>70.69550595213242</v>
+        <v>63.72972176234421</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>30.40508426687408</v>
+        <v>28.64820917700529</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>61.10606034870248</v>
+        <v>56.00081069475322</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>63.95175866193679</v>
+        <v>58.11979420205927</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>43.54392273031708</v>
+        <v>42.29619587068954</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>33.49328534339035</v>
+        <v>34.26782513119847</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>40.33911879948556</v>
+        <v>39.6286164058984</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>45.17275936425732</v>
+        <v>43.67695125400295</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>8.465014374463763</v>
+        <v>12.90523534381163</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>38.85370895096091</v>
+        <v>38.41635322920852</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>42.54997973584691</v>
+        <v>41.26711377641973</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>16.36788922444397</v>
+        <v>18.72316809398423</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>32.11998396397964</v>
+        <v>31.99997292496367</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.4755734396154</v>
+        <v>35.33604827766109</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>2.784167571423147</v>
+        <v>8.754926030945416</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.58289701878862</v>
+        <v>31.1746243742993</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>35.03064363183918</v>
+        <v>34.76756209830762</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>9.820645878528687</v>
+        <v>13.24278828657792</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>51.73592501757415</v>
+        <v>47.66184787717287</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>58.45905733817756</v>
+        <v>53.2440248821656</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>60.10976800545885</v>
+        <v>54.33244582602223</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>66.13769211123406</v>
+        <v>59.34767630774547</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>71.20362768966835</v>
+        <v>63.8977560421439</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>20.8633353861779</v>
+        <v>21.62935680346718</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>59.03545232940641</v>
+        <v>53.7212204153423</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>64.05967404540793</v>
+        <v>57.9139860304254</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>41.68374760466737</v>
+        <v>40.54227948111652</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>20.84838609879455</v>
+        <v>23.84166261347358</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>27.17757550007606</v>
+        <v>29.00731529450668</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>33.52344227314308</v>
+        <v>34.61689346733208</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>5.925099185290097</v>
+        <v>11.38153080819134</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>34.23281357676031</v>
+        <v>33.73233294072404</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>41.19289704898891</v>
+        <v>39.94977134930973</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>13.21660184139871</v>
+        <v>16.51435156266568</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>32.50295513226175</v>
+        <v>32.08961060020646</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.42220223070473</v>
+        <v>37.10561616858898</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>3.572506899058133</v>
+        <v>9.223303599430384</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.63738872692314</v>
+        <v>30.97202912937731</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.4269383068665</v>
+        <v>37.13786709525947</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>5.878118669593785</v>
+        <v>10.95123174245524</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>48.00963361990636</v>
+        <v>44.36943213671628</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>58.96736262083196</v>
+        <v>53.81433030543523</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>51.86155689926296</v>
+        <v>47.62626999921086</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>58.96305658951265</v>
+        <v>53.75358787939098</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>67.39966343350272</v>
+        <v>60.90044917334589</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>12.569023801383</v>
+        <v>16.10233583318763</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>54.11553894052361</v>
+        <v>50.08673371422097</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>64.85158854282572</v>
+        <v>58.78160741429549</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>10.91446960080579</v>
+        <v>11.74939793980076</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>15.21640584470729</v>
+        <v>14.51339418101717</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.67794679454764</v>
+        <v>24.08931293598067</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>2.541049482583137</v>
+        <v>3.551656088729327</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>15.42114274778647</v>
+        <v>13.97672006942357</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>18.06474928541327</v>
+        <v>16.65198174490259</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>7.871575470287727</v>
+        <v>8.055026406912535</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>32.92829053207206</v>
+        <v>31.23575703040624</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>35.85859495480387</v>
+        <v>33.30956158199169</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>14.08801762776577</v>
+        <v>13.47015149479998</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>18.99940801980282</v>
+        <v>17.92328474968027</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>22.98564756305556</v>
+        <v>20.74692184597676</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>15.67206100598886</v>
+        <v>15.79855406341717</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>13.71551596862078</v>
+        <v>14.77568838805665</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>27.64934228763892</v>
+        <v>25.95742158089214</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>10.82402793686584</v>
+        <v>12.35467832744041</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.01618848029125</v>
+        <v>27.95668451647464</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.20441199042016</v>
+        <v>35.05089237965597</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>1.937628641801727</v>
+        <v>3.946796356751271</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>10.61572286959251</v>
+        <v>10.95179757031189</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>14.76211820560058</v>
+        <v>14.95064967744118</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>1.664143569723525</v>
+        <v>2.903709481446977</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>22.88002295905569</v>
+        <v>23.02506970954967</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>18.68962509161534</v>
+        <v>19.70139083108441</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.67983678429443</v>
+        <v>27.57311351842413</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.62128493078659</v>
+        <v>26.98069745461977</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>2.429777559445288</v>
+        <v>3.723880300875472</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>32.4123143123549</v>
+        <v>30.82145718379429</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>36.03159204459622</v>
+        <v>33.41345114746364</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>6.565057146889174</v>
+        <v>7.300765121934351</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>48.83622383081796</v>
+        <v>45.55888986440671</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>46.26569564736195</v>
+        <v>42.52958572432382</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>45.85527707128806</v>
+        <v>42.6850855715729</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>53.78448023743898</v>
+        <v>50.34939190901425</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>53.7267987423125</v>
+        <v>50.72091753402315</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>18.99893096569052</v>
+        <v>19.51439589345638</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>38.35959974193914</v>
+        <v>35.0669383692761</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>42.55966934955659</v>
+        <v>38.43494033280508</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>19.6529736250228</v>
+        <v>19.51945037392695</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>39.77818491475896</v>
+        <v>38.02762889349111</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>42.71356547611957</v>
+        <v>40.89564604788958</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>3.667987786832033</v>
+        <v>4.740534333414853</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>35.16895402662642</v>
+        <v>33.41766834662977</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>42.18057144952868</v>
+        <v>40.11731216888245</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>3.402378248311084</v>
+        <v>4.404696357452565</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>57.86430077326548</v>
+        <v>56.1109422676049</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>7.056663556557137</v>
+        <v>8.105406239777963</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>19.52924847883941</v>
+        <v>19.3878570339966</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>24.61750476113663</v>
+        <v>23.53022943521206</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>0.0484435164835908</v>
+        <v>1.271553162297998</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.05313834609879</v>
+        <v>26.97156013090075</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.38186045203333</v>
+        <v>30.64241356400167</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>3.518780263800874</v>
+        <v>5.043702050765162</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>44.0807331240643</v>
+        <v>41.26233579271309</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>47.81650257857926</v>
+        <v>44.76586100640215</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>49.11947454212711</v>
+        <v>45.59437338564335</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>54.84305244723134</v>
+        <v>51.59623422630293</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>56.67050305462209</v>
+        <v>53.39602765840849</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>8.640223711929739</v>
+        <v>8.451858463170886</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.65798635993901</v>
+        <v>26.77747248234082</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>33.8899505841309</v>
+        <v>30.82521411338145</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>10.53447197371176</v>
+        <v>11.18600754669059</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>31.89963556111761</v>
+        <v>31.08039442271566</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>41.84284284885077</v>
+        <v>39.97032881926436</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>2.08703833922576</v>
+        <v>3.333564773179319</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>25.80094343651324</v>
+        <v>25.23859981203906</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.12490024155837</v>
+        <v>39.92156733030978</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>1.241839583378361</v>
+        <v>2.771147270690019</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>46.00305964737836</v>
+        <v>41.04959428346636</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>4.241420385123732</v>
+        <v>5.742351102525934</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>16.39433457182352</v>
+        <v>16.41483501359906</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>23.76039451256826</v>
+        <v>22.52879421214766</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>0.8970046726987135</v>
+        <v>1.910383856411421</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.13726573303641</v>
+        <v>26.86694760663376</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>34.82902209231651</v>
+        <v>32.59998109499214</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>2.085683778749281</v>
+        <v>3.273029947682836</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>43.32652969340981</v>
+        <v>39.95481940049592</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>48.4792651520235</v>
+        <v>44.64853227325486</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>39.30281755835889</v>
+        <v>37.25881384624029</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>45.11869532831686</v>
+        <v>42.28306312442861</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>48.69968239872601</v>
+        <v>46.72425411628456</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>6.772000072603223</v>
+        <v>7.196303268983659</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>21.16776274529753</v>
+        <v>21.50739459174193</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>34.88006219800059</v>
+        <v>30.7387357021804</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>8.010142769624949</v>
+        <v>8.819234178839153</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.03311209380237</v>
+        <v>27.78355852846758</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>39.99921413809073</v>
+        <v>37.33668140993593</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>3.22856697943385</v>
+        <v>4.404933346130946</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>24.97752651310008</v>
+        <v>24.40182760421121</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>40.57127978992803</v>
+        <v>39.12867128589266</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>0.5597945011420968</v>
+        <v>2.438541277954798</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>40.51823798068551</v>
+        <v>38.73953566282187</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.41610362411653</v>
+        <v>27.10022059957932</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.85575480027633</v>
+        <v>23.15412298784945</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>47.6908439825214</v>
+        <v>45.02987440291605</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>55.45393236272065</v>
+        <v>51.88134914591922</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>6.245451701384166</v>
+        <v>7.033917626117312</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>18.6582441407462</v>
+        <v>18.11137536826286</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.54807716308569</v>
+        <v>27.9646067167102</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>14.09480276460599</v>
+        <v>14.93040951004367</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.93721954785461</v>
+        <v>27.62096892124278</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>39.81665686398306</v>
+        <v>37.74212763663289</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>1.850839991046026</v>
+        <v>3.217393590153517</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>7.818207450924611</v>
+        <v>9.125929656758782</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>13.86631884054368</v>
+        <v>13.72515630602432</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>2.402411263213544</v>
+        <v>3.648885060323597</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>22.42878562842807</v>
+        <v>21.19880903419618</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>38.80716115119031</v>
+        <v>34.99070151571486</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>26.75841038878313</v>
+        <v>25.5758915298411</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>50.14671331670046</v>
+        <v>47.19778023149351</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>58.39809046781951</v>
+        <v>54.72085637563842</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>6.341700871876323</v>
+        <v>7.228269186072865</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>20.08156971575389</v>
+        <v>19.44893222135458</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.49318466137466</v>
+        <v>27.67501277668953</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>69.02620686889422</v>
+        <v>65.15525064851018</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>60.71694692315275</v>
+        <v>60.10911813118868</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>76.59442470527243</v>
+        <v>72.9469227689392</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>79.14190148191867</v>
+        <v>74.51021794752249</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>22.6741016762279</v>
+        <v>22.02502421223544</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>71.53755199034146</v>
+        <v>71.099474948151</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>78.24734104770376</v>
+        <v>73.38558102487121</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.9965553982442</v>
+        <v>27.31146174421853</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>46.02812757808075</v>
+        <v>44.35703145450597</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>49.45086375483605</v>
+        <v>47.7866290949437</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>4.982601127635011</v>
+        <v>6.185767905549145</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>42.05939185091457</v>
+        <v>39.94939426196046</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>51.33301432380614</v>
+        <v>48.59039973143065</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>8.780721001406143</v>
+        <v>9.912161140100959</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>74.5765369467788</v>
+        <v>72.56735076294112</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>78.04749133932566</v>
+        <v>74.1424880411448</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>83.33683102697609</v>
+        <v>78.58373663562067</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>91.83757267357653</v>
+        <v>86.15141049714276</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>95.60154468768546</v>
+        <v>90.92582009695062</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>34.55881477691356</v>
+        <v>34.81430065616432</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>91.19704434435526</v>
+        <v>86.5751110988021</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>92.44169922092429</v>
+        <v>87.65674910400922</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>70.80718619608214</v>
+        <v>67.34492014074253</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>47.70453828562252</v>
+        <v>43.20245911976504</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>59.33536272322799</v>
+        <v>55.92787576797228</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>77.54702640087908</v>
+        <v>74.48288022647766</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>12.78004817839761</v>
+        <v>13.19613923819171</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>62.5533097626607</v>
+        <v>58.76431534373182</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>74.12242547016173</v>
+        <v>69.99677817174698</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>12.75846896046684</v>
+        <v>13.80546262220961</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>37.65929902704304</v>
+        <v>36.70365648944458</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>45.48145230944396</v>
+        <v>44.3954812469413</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>2.694296773219733</v>
+        <v>4.053645440723205</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>40.58634387454752</v>
+        <v>37.86309517344377</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>52.06420120332071</v>
+        <v>50.13347190676311</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>2.804498433700317</v>
+        <v>4.473043253528477</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>64.30145733088088</v>
+        <v>61.2737419513273</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>78.98531452786553</v>
+        <v>75.37445864383835</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>75.11820883951593</v>
+        <v>71.75536030494456</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>87.36622239882833</v>
+        <v>82.35198276684915</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>94.00675918984346</v>
+        <v>89.75123315804579</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>20.9455060977956</v>
+        <v>22.0388808079264</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>83.20296062491684</v>
+        <v>77.56639934724099</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>90.4247889926682</v>
+        <v>85.16574090986416</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>69.00395982629898</v>
+        <v>64.80477305104824</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>31.61727350732512</v>
+        <v>30.16731013085184</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>43.93516410557134</v>
+        <v>41.27530439228074</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>61.00655002662546</v>
+        <v>56.97417606284666</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>8.919135009246737</v>
+        <v>9.831953372981562</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>54.5800850984435</v>
+        <v>49.9352341847369</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>69.64639487463339</v>
+        <v>65.26313703725842</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>11.75937584372166</v>
+        <v>12.83684473241425</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>38.20206049718102</v>
+        <v>36.95494148025736</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>51.02182318712084</v>
+        <v>48.87594250069577</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>3.925091368293895</v>
+        <v>5.207450434344949</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>38.80781535169064</v>
+        <v>37.45873417129076</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>54.18566792142016</v>
+        <v>51.01476046273454</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>1.865752796367133</v>
+        <v>3.205807576353347</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>61.26927344078975</v>
+        <v>58.20429575882108</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>81.14134493650448</v>
+        <v>77.16123976884271</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>69.12621444692542</v>
+        <v>65.45223811108978</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>85.02008164110946</v>
+        <v>79.16744520293183</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>95.90596966257212</v>
+        <v>91.01432911503682</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>15.92523689768308</v>
+        <v>16.4489011809565</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>81.64147979864148</v>
+        <v>75.50988442506549</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>89.62280382399766</v>
+        <v>84.62650093310667</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test2/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.53</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.746</v>
+        <v>15.978</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.556</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.723</v>
+        <v>16.263</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.997</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.482</v>
+        <v>3.217</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.33545498796886</v>
+        <v>9.469423274027825</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>14.91986788924036</v>
+        <v>12.83469396975414</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.04337799202203</v>
+        <v>18.37909480781867</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.528531059727992</v>
+        <v>3.385960359290706</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15.53075930020526</v>
+        <v>11.89295921833441</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>17.98689152588283</v>
+        <v>14.03124581964986</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>11.2384437279876</v>
+        <v>7.552814655762838</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.33449671258777</v>
+        <v>24.51631765771873</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31.55286795150596</v>
+        <v>26.29255029810499</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>14.7856872745077</v>
+        <v>12.05810723650664</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.74106588407149</v>
+        <v>17.32892396777061</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>18.78346529339219</v>
+        <v>17.98973167235256</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>17.50823220056924</v>
+        <v>11.97909815536617</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14.69314278114424</v>
+        <v>6.529925763130347</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>22.08756921934673</v>
+        <v>15.89899927651069</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.07546311083748</v>
+        <v>11.23689394394569</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.53250031887606</v>
+        <v>19.96577380791008</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.12146998688886</v>
+        <v>27.88640454798384</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.21232275146237</v>
+        <v>6.366697455412218</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.70773787414604</v>
+        <v>10.64413471390099</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>18.37178843743945</v>
+        <v>15.62893891697992</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7.045601242428916</v>
+        <v>3.194850531083585</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.61180935628437</v>
+        <v>14.91591107589358</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>21.93401072778185</v>
+        <v>17.04268325787455</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.6233532330681</v>
+        <v>25.07391570934337</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>27.19070960422903</v>
+        <v>25.01894284968526</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7.46539325768045</v>
+        <v>2.549220584104777</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>31.44874390159753</v>
+        <v>27.52331842174524</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.42483499756329</v>
+        <v>31.51980813351036</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>10.23339442527252</v>
+        <v>6.304577154442413</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>41.78094778968612</v>
+        <v>39.53158311262769</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.97641929829003</v>
+        <v>38.6571473301338</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>39.8103818269779</v>
+        <v>37.30075139994726</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>46.6239338121867</v>
+        <v>44.63278988902754</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>47.48405718088138</v>
+        <v>45.79102751017599</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>21.79201524960079</v>
+        <v>18.32491189696131</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.54105693438152</v>
+        <v>27.08643548398799</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>32.39564844736658</v>
+        <v>30.69477510748482</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20.25252250394033</v>
+        <v>17.74366953745401</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>30.73377151471455</v>
+        <v>28.12839693955643</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>33.73748326698291</v>
+        <v>31.22288214861632</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>10.31632067519757</v>
+        <v>6.530169786289331</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.25039518677958</v>
+        <v>26.4970125423035</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.99587370460749</v>
+        <v>34.3761936281963</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>42.53056222033925</v>
+        <v>40.50565777749853</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>13.04852117259845</v>
+        <v>9.788630011806521</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>23.69383477629825</v>
+        <v>21.14621515859882</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.2570257798621</v>
+        <v>24.42882117023638</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.028438951308967</v>
+        <v>1.963909038642694</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.25806074005295</v>
+        <v>26.07626122303957</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.32534886751807</v>
+        <v>30.68767056931696</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>11.07797468227663</v>
+        <v>7.943712716230365</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>42.69402233532581</v>
+        <v>41.09525724176441</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>45.19365951036716</v>
+        <v>43.62961155428441</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>43.37934010630347</v>
+        <v>41.45418792868396</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>48.38427903628067</v>
+        <v>45.23922697895819</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>51.40775770808136</v>
+        <v>49.28286694984095</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>14.40735274155974</v>
+        <v>12.86366763069576</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.88762578143348</v>
+        <v>23.65632008136865</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>32.08018253442469</v>
+        <v>27.67161271182023</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>15.54602808941129</v>
+        <v>12.29246376985198</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.05018491866362</v>
+        <v>25.41162308709733</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.47677854751565</v>
+        <v>30.86918481007501</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>9.903060674165747</v>
+        <v>6.064223522694611</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.79252412724525</v>
+        <v>21.62408329745768</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.78469857662925</v>
+        <v>34.70546339533433</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>8.491106384515415</v>
+        <v>4.827490430786341</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.55785225544592</v>
+        <v>37.43956025125324</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>10.2633414458508</v>
+        <v>6.000620146952421</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>20.21121267176242</v>
+        <v>16.78524238505986</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>24.89325838260631</v>
+        <v>21.39086650846933</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6.386630943675748</v>
+        <v>1.864674086166822</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.87543325439019</v>
+        <v>26.17183850353996</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.38637474549022</v>
+        <v>30.91594992354855</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>7.449830817963033</v>
+        <v>2.767410147085677</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>39.53681608180102</v>
+        <v>37.57018801159001</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>43.08711342046119</v>
+        <v>41.1476596176274</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>36.3139494036548</v>
+        <v>29.26737146326473</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>39.65860662023429</v>
+        <v>33.9784748615204</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>44.91866259085392</v>
+        <v>37.57312611271627</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>11.74636346019566</v>
+        <v>9.38645485194694</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>22.80925553565387</v>
+        <v>17.96867879084127</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>32.47424616125503</v>
+        <v>29.00066777173652</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>12.95811125379722</v>
+        <v>9.231660164216997</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26.22589456470561</v>
+        <v>23.62009425428553</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>32.1365212787184</v>
+        <v>29.92615961231915</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>10.38625789955784</v>
+        <v>6.04158169546217</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>25.84497125411459</v>
+        <v>22.82809094659882</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>35.95243000970505</v>
+        <v>33.91635690421727</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6.319698315406512</v>
+        <v>1.377397203763049</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>36.03822111450343</v>
+        <v>32.8202302177841</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>22.69547654052371</v>
+        <v>18.67806831132291</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>20.35308836787891</v>
+        <v>16.25311813528655</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>36.2913797587571</v>
+        <v>33.80268669834906</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>39.93922876467781</v>
+        <v>38.28785117381012</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>10.53685694497795</v>
+        <v>6.736204863017466</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>17.48166010575045</v>
+        <v>13.19011294172482</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>23.12601488651681</v>
+        <v>18.9378073614919</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>16.21763380384127</v>
+        <v>14.39563552734612</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>24.16000185847103</v>
+        <v>22.89839149024369</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32.46175595215012</v>
+        <v>32.14308633357279</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>9.651806782129658</v>
+        <v>5.966803095689933</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>13.41210167368893</v>
+        <v>9.826700166176735</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>16.3300309903991</v>
+        <v>11.22737034286165</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>7.489729850022005</v>
+        <v>3.781638455349697</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>19.26630636341206</v>
+        <v>16.2675166053396</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.07902767016494</v>
+        <v>31.2850177197429</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>22.00340842446429</v>
+        <v>18.34934101140304</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>39.88873224830954</v>
+        <v>38.30316136849605</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>44.38133944720364</v>
+        <v>44.29004169361843</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>10.12530929195628</v>
+        <v>6.69979563969186</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>18.09804616650798</v>
+        <v>14.77537550590439</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.20577339618392</v>
+        <v>23.17625186683795</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>50.53032178286381</v>
+        <v>49.59396432865302</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>45.5274705390528</v>
+        <v>43.05949338070813</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>55.79347521897166</v>
+        <v>54.78738187516461</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>58.37994199674579</v>
+        <v>58.61916160773269</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>22.97309872975703</v>
+        <v>21.16651768516165</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>51.58996267174477</v>
+        <v>48.617971310004</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>54.56169835483738</v>
+        <v>53.88303021363417</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>27.02435643899022</v>
+        <v>25.77763863860986</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.22866721618561</v>
+        <v>35.39533620423012</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.32192889924539</v>
+        <v>41.55224978152669</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>11.63070477343432</v>
+        <v>7.76137192318032</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>35.72872945303383</v>
+        <v>36.32093414817523</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>41.70938790683768</v>
+        <v>42.09288684465952</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>11.54695951224129</v>
+        <v>8.745115422380483</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>56.09506043470664</v>
+        <v>57.70816915295244</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>61.82951584655582</v>
+        <v>64.08217890857881</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>64.24865888446661</v>
+        <v>68.54806692547292</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>71.75643068154248</v>
+        <v>75.8549142873044</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>76.45693579160857</v>
+        <v>81.53582697816599</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.95642517473909</v>
+        <v>34.88736620775137</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>67.28895967827988</v>
+        <v>69.25111303639349</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>69.90749484977111</v>
+        <v>73.23810457732823</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>54.58009135883513</v>
+        <v>53.50940122227782</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>38.75226214261124</v>
+        <v>36.84616068769227</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>45.48330442818021</v>
+        <v>44.50221480714482</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>57.8312251029262</v>
+        <v>56.94098338633419</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>18.70367345429123</v>
+        <v>16.24216564900421</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>47.45304526156791</v>
+        <v>45.53240198040924</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>53.64420604962345</v>
+        <v>52.36251237379719</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>18.6344961545475</v>
+        <v>17.40677639612153</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>33.00445872814925</v>
+        <v>31.90108049151126</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>39.95724412664192</v>
+        <v>39.97309291006104</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>10.37126530551519</v>
+        <v>6.777302456661616</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.10205794680936</v>
+        <v>32.99056126856676</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>43.2382987951683</v>
+        <v>43.02146776101992</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>11.03817817118292</v>
+        <v>8.873348248429441</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>53.15813409175902</v>
+        <v>54.19021904566878</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>65.11714667236532</v>
+        <v>68.6685584503964</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>62.55206203460943</v>
+        <v>66.55719884109587</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>68.34064691601027</v>
+        <v>72.44532064519395</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>76.41448357436992</v>
+        <v>81.66893689444024</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.69101439651248</v>
+        <v>25.46965451163103</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>59.61052627194398</v>
+        <v>62.91111352062396</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>67.78063701808314</v>
+        <v>73.10715935534749</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>50.06752246621924</v>
+        <v>48.98719711367998</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>27.63022999356181</v>
+        <v>24.19419896673301</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>34.11069019109347</v>
+        <v>30.87405463679738</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>43.53589830246193</v>
+        <v>42.18940967119912</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>14.58364186165247</v>
+        <v>11.00892959591973</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>42.9569978471986</v>
+        <v>41.87052981507196</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>50.95615355520859</v>
+        <v>50.00901055357988</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>16.74957272867032</v>
+        <v>14.89840210056971</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.37136849905114</v>
+        <v>33.21201919841105</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>43.13286707241242</v>
+        <v>44.1775731964146</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>11.28334606122166</v>
+        <v>7.469554639886706</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>34.42446388466588</v>
+        <v>33.4587307231583</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>45.1111266937872</v>
+        <v>45.76530019224703</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>7.04929262617231</v>
+        <v>3.746801646774866</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>48.31729394326534</v>
+        <v>50.22549617128941</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>65.62817399991711</v>
+        <v>69.02649235057063</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>53.59268606068996</v>
+        <v>55.82629550629211</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>61.06646604214041</v>
+        <v>65.62909987071141</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>76.37766843649399</v>
+        <v>80.07899903519608</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>18.0704801798714</v>
+        <v>16.50940328940297</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>54.19912489804275</v>
+        <v>53.29647004284489</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>67.69072156115163</v>
+        <v>71.2115553250527</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>22.08667404134655</v>
+        <v>11.83617326535186</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>24.45392323951626</v>
+        <v>19.4643148482638</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.65394196617278</v>
+        <v>28.65447998980401</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>19.02198673407371</v>
+        <v>7.715767657868849</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>26.45459421806532</v>
+        <v>25.21820033982014</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>27.8356214120913</v>
+        <v>29.01225264423748</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>20.57715977605152</v>
+        <v>10.73671090440703</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>35.59062215754486</v>
+        <v>42.97520306964471</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>36.9848882521442</v>
+        <v>45.94303407972348</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>25.66276744501929</v>
+        <v>21.69848694389498</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>26.95991670491215</v>
+        <v>28.14751884089651</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>27.76952177227141</v>
+        <v>29.20678373262394</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>25.93732660867441</v>
+        <v>19.2467162680431</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.29171330023176</v>
+        <v>18.16266708796844</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>33.39967949657153</v>
+        <v>33.25178049391225</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>22.13875800036991</v>
+        <v>15.17603589139819</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.66032918993053</v>
+        <v>27.36872106884495</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.99001453622256</v>
+        <v>28.21004721701555</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>19.27091393847887</v>
+        <v>8.079287753841069</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>23.38471726768791</v>
+        <v>18.11643233448807</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.08876186226821</v>
+        <v>20.69774164378648</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>19.3428991002474</v>
+        <v>8.383914818939683</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.22577428999774</v>
+        <v>29.28245993656937</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.71927895888719</v>
+        <v>18.40691199239433</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>31.55889436385615</v>
+        <v>30.34888786551095</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>32.09125282027154</v>
+        <v>33.94394737361553</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>19.25938882260712</v>
+        <v>7.740223247833015</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>33.38128096170971</v>
+        <v>37.08927422616843</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>34.30315184257969</v>
+        <v>40.25843407816697</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>20.75592467798551</v>
+        <v>11.04391536574035</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>41.59018674051942</v>
+        <v>53.54400707794886</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>40.17065914267514</v>
+        <v>51.93512241753863</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>38.19621869036315</v>
+        <v>45.77941313157528</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>41.28952311536577</v>
+        <v>52.95532451149401</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>40.8834251920625</v>
+        <v>52.21983005549044</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>27.46222466645107</v>
+        <v>22.30219209516321</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>35.54569722842308</v>
+        <v>36.41459914768609</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>36.87126133281332</v>
+        <v>40.48391757619682</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>26.05811557348271</v>
+        <v>22.70490833555554</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>32.33911263029731</v>
+        <v>34.60822468962115</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>32.26212275000928</v>
+        <v>33.45681624708441</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>19.20739708865813</v>
+        <v>8.791811508656473</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>31.36970284594884</v>
+        <v>34.07067283703922</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>31.8908458256585</v>
+        <v>33.51784899285571</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>19.81902564189696</v>
+        <v>9.461388060264415</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>39.79203271427255</v>
+        <v>49.84136985493262</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>20.48821558575985</v>
+        <v>9.662994101653094</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>27.12053166959302</v>
+        <v>23.84205620848997</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>30.12000670769882</v>
+        <v>30.02204531049324</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>18.74556605364677</v>
+        <v>6.588936322096764</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>31.90961137965829</v>
+        <v>34.82364808441278</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>33.36298802760746</v>
+        <v>37.59321813191069</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>19.82049534951903</v>
+        <v>9.829502085009008</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>39.52225600885258</v>
+        <v>51.00576822597077</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>40.25974077174374</v>
+        <v>52.10466158423884</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>41.34657130664433</v>
+        <v>51.4180262385143</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>44.58925078562219</v>
+        <v>55.64693304488253</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>43.51375765821373</v>
+        <v>56.17898693923986</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>20.50678683049301</v>
+        <v>12.09443140885497</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.81884112178244</v>
+        <v>26.22728882168708</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>32.87668222630395</v>
+        <v>31.90200457102102</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>23.44008069564907</v>
+        <v>17.65180700939547</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>30.89025364093989</v>
+        <v>31.76822873516623</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>31.69705944838742</v>
+        <v>32.27524446762153</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>19.02887167595792</v>
+        <v>8.161493347776833</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.658463227767</v>
+        <v>30.16097364532666</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>31.82254871458369</v>
+        <v>32.4133939476503</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>19.84599516458521</v>
+        <v>9.309539255920292</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>37.28191686749575</v>
+        <v>45.39359206035688</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>19.73958716591312</v>
+        <v>7.452443088518347</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>26.14933765936919</v>
+        <v>22.25209267908532</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>30.02029973480107</v>
+        <v>30.14700684785535</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>18.9294528322699</v>
+        <v>7.063483703634468</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>31.60709184253765</v>
+        <v>36.59714416451662</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>34.32177818989143</v>
+        <v>40.09568539688468</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>19.28625921691056</v>
+        <v>7.423958007642781</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>38.84482468384599</v>
+        <v>50.69773818599031</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>40.35859378509601</v>
+        <v>52.77536640730882</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>38.74443874111142</v>
+        <v>46.26571530028666</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>41.06986058826598</v>
+        <v>52.72119068067808</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>42.67943579954716</v>
+        <v>53.98083676694874</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>20.03512518056829</v>
+        <v>10.27719702529812</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>27.96161064885193</v>
+        <v>24.31265342511757</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>33.3682039578983</v>
+        <v>36.46374194576195</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>22.08285346409211</v>
+        <v>14.86144623324352</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.69053139655704</v>
+        <v>30.45339163714889</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>31.17392540888874</v>
+        <v>31.409828139612</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>19.17350455793547</v>
+        <v>8.229785395957776</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.65601450648812</v>
+        <v>29.21661980083906</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>31.37776585488972</v>
+        <v>32.20487597210813</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>19.16702105475284</v>
+        <v>7.727113668463385</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>34.98331179757758</v>
+        <v>41.50638833507947</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.21664804580738</v>
+        <v>29.60102391864331</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.61795083321077</v>
+        <v>25.06879604844303</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>34.39737338022692</v>
+        <v>39.63354132515927</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>35.78804231006626</v>
+        <v>41.78707084292625</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.17392678626933</v>
+        <v>15.56159314309457</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27.8041614651318</v>
+        <v>27.15491204170124</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.65406013744392</v>
+        <v>31.72596161813233</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>23.69587132576803</v>
+        <v>18.20179693406532</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.01523423266859</v>
+        <v>28.42374702118106</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.51249797874964</v>
+        <v>35.84354187663538</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>18.91891133411318</v>
+        <v>8.037558219264994</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>22.52808483611381</v>
+        <v>16.92076526556442</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>25.93003893620632</v>
+        <v>22.80344060492185</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>19.63947642160235</v>
+        <v>8.929159661113022</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.51664328149659</v>
+        <v>31.05825067027321</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>37.54847271148957</v>
+        <v>47.77969548739008</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.13801030324355</v>
+        <v>28.32080505938176</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>37.98458696770284</v>
+        <v>47.10825784684172</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>39.75197486174891</v>
+        <v>49.9087961361886</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>21.78865867737889</v>
+        <v>16.13456503541562</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.46894463689549</v>
+        <v>28.18202104109983</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>33.90894583669009</v>
+        <v>38.89433618671625</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>41.36303060584181</v>
+        <v>51.90842913633131</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>39.90710790011789</v>
+        <v>50.85708646449596</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>43.36306868441845</v>
+        <v>57.490437249924</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>43.97604218761254</v>
+        <v>57.24203584715026</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>27.34381561176092</v>
+        <v>27.11014669306093</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>41.60642736370106</v>
+        <v>53.68782382817526</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>41.69673318467815</v>
+        <v>52.25794760971627</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>27.30695237387113</v>
+        <v>24.81349181263045</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>19.49466251929673</v>
+        <v>9.169441857869668</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.24043705488516</v>
+        <v>40.86895896056392</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>35.70412631527811</v>
+        <v>41.37417312200056</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>20.47232756570619</v>
+        <v>10.49549407205184</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>44.3691730163284</v>
+        <v>59.03245110553343</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>46.02524315666604</v>
+        <v>62.02433069715329</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>45.64645529036731</v>
+        <v>61.71612321046069</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>49.126587870428</v>
+        <v>68.00158647042876</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>50.72960128870366</v>
+        <v>70.02247673974205</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>30.25738096868609</v>
+        <v>32.09674270302521</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>47.91492416402875</v>
+        <v>65.15857393018528</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>48.34486028428233</v>
+        <v>65.65417851179426</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>42.08412477399178</v>
+        <v>52.64905075780713</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>38.17674352541096</v>
+        <v>47.79806291415166</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>41.15282172863043</v>
+        <v>52.88257419832124</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>43.4387738749119</v>
+        <v>56.32283264496441</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>24.76906271699711</v>
+        <v>21.91326028095871</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>39.93049208510156</v>
+        <v>49.63978361532454</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>40.79164746508736</v>
+        <v>49.34780426517437</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>23.65529059447745</v>
+        <v>17.81678484129644</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>31.67443757585269</v>
+        <v>32.7438270305757</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>34.41995482789575</v>
+        <v>37.75162181705169</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>19.07291997639358</v>
+        <v>8.187356668775099</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>32.97278462588675</v>
+        <v>37.22394380603898</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.02813546401048</v>
+        <v>39.19856209207899</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>20.678017864267</v>
+        <v>10.48569804104476</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>42.36168666449664</v>
+        <v>54.95068491504882</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>46.56958731923055</v>
+        <v>62.79875222158036</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>45.20060768140177</v>
+        <v>60.4883451444713</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>48.74783275415147</v>
+        <v>67.1859515044969</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>51.00287877208948</v>
+        <v>70.92112527374093</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>25.60680114385269</v>
+        <v>23.77468571630558</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>46.09746706512668</v>
+        <v>63.07365991174004</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>47.73896736696631</v>
+        <v>65.36474865961057</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>39.95831187950522</v>
+        <v>49.52683715953983</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>31.4084648053699</v>
+        <v>34.64103844013674</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>34.42398703975931</v>
+        <v>40.31627018554168</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>37.10728835925635</v>
+        <v>43.69907290768422</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>23.16564482355165</v>
+        <v>18.1810942378809</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>36.94145471071048</v>
+        <v>46.24743383307911</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>39.87561982887112</v>
+        <v>49.06865659210586</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>23.12947966940535</v>
+        <v>17.16477738948359</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>31.67774766059814</v>
+        <v>34.42027997517283</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>35.75536231310322</v>
+        <v>41.53326331186687</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>19.36892965123935</v>
+        <v>8.858172367678403</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.69617965854638</v>
+        <v>36.71347139266177</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>36.37627358575219</v>
+        <v>42.66059886818825</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>19.48385355197668</v>
+        <v>8.463137716266015</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>40.5343150946582</v>
+        <v>52.36721768692898</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>46.56271677749616</v>
+        <v>63.56650900847235</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>42.60969372811173</v>
+        <v>55.49136292033222</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>47.50926293687083</v>
+        <v>66.10358255979358</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>50.78125578098361</v>
+        <v>70.73954310685826</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>23.99962066720598</v>
+        <v>20.9601566473419</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>44.97477852265458</v>
+        <v>60.78391218871454</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>48.89280412000655</v>
+        <v>68.04471682534499</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>19.50120691517904</v>
+        <v>13.15930732176833</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>23.63182286318602</v>
+        <v>22.06246562643824</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.68034449623371</v>
+        <v>28.83333252751309</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>10.82474284959074</v>
+        <v>3.719219278553233</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>19.75410171153124</v>
+        <v>15.87982434664566</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.08424807945989</v>
+        <v>20.0123382994424</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>12.17988130609274</v>
+        <v>5.030244016995514</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>37.439225426782</v>
+        <v>41.44837237248733</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>40.31238268062044</v>
+        <v>44.9707833092835</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>24.18592413110672</v>
+        <v>20.97289985526986</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>27.36685553217576</v>
+        <v>27.07800239959995</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.05474449192895</v>
+        <v>27.08235856683388</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>17.79870393941658</v>
+        <v>12.42344936087342</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>22.31844165723851</v>
+        <v>16.21022527660354</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>27.38536880211133</v>
+        <v>21.94153973300203</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>19.77857446030165</v>
+        <v>17.40769569249501</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.74947765220507</v>
+        <v>29.31736534406325</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.7145314513791</v>
+        <v>30.74129057334178</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>11.42194557613524</v>
+        <v>4.732408500676932</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>18.36226573438832</v>
+        <v>14.79495412092503</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>21.10594183691417</v>
+        <v>18.6823464152278</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>11.90422229961263</v>
+        <v>5.380864342841885</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.33777651702914</v>
+        <v>30.51250000899099</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.50256724013359</v>
+        <v>21.08381204925842</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>35.53691228128602</v>
+        <v>37.67939398315325</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>34.28965087790185</v>
+        <v>36.63548098759313</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>11.52411141814406</v>
+        <v>4.730598454331389</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>33.97542230507727</v>
+        <v>36.21543941455583</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>34.83596124865161</v>
+        <v>38.33335078323985</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>12.68470061952404</v>
+        <v>5.655622756571983</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>47.9242627705749</v>
+        <v>56.29156624410574</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>45.57365325586927</v>
+        <v>53.04814816595719</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>42.77942576608439</v>
+        <v>46.5563365004945</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>48.45767814893246</v>
+        <v>55.86294565296235</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>48.73183177783714</v>
+        <v>56.03745789079094</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>23.25754596276358</v>
+        <v>18.0521937977372</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>43.40357986981157</v>
+        <v>44.84921796769636</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.26221594083277</v>
+        <v>42.47042235474909</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>23.59823959013882</v>
+        <v>22.9294755822024</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>34.03126713397454</v>
+        <v>36.70042816382711</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>34.6380810211369</v>
+        <v>36.47232787523578</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>11.43309877694272</v>
+        <v>5.40351934506873</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>31.37260827440429</v>
+        <v>33.55789389708404</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>32.24933306671147</v>
+        <v>33.62672481793282</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>12.1183118489307</v>
+        <v>5.672838101926907</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>46.81637182790912</v>
+        <v>54.12735763335786</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>14.49372635189226</v>
+        <v>8.759975320632382</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>27.53460880522858</v>
+        <v>28.85297293401123</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.57597158590204</v>
+        <v>31.09913339735558</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>10.76203048457727</v>
+        <v>3.112037465268479</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>32.47012440720945</v>
+        <v>34.03702789641191</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>34.2628224122422</v>
+        <v>36.97206964028064</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>12.57737314478067</v>
+        <v>4.737142226025405</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>45.92653561085261</v>
+        <v>53.63812475387772</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>45.20595964124846</v>
+        <v>52.02000639528607</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>45.96531522895913</v>
+        <v>50.54923858579333</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>51.87452272154824</v>
+        <v>56.29943277826791</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>49.74060682582252</v>
+        <v>56.78726506387709</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>12.6047422891497</v>
+        <v>4.274710480260765</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>32.01067695877365</v>
+        <v>30.42639069477182</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>32.08916166265175</v>
+        <v>28.10430739599345</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>19.11952518358477</v>
+        <v>17.00596905531012</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>32.46347117196627</v>
+        <v>34.23545311850079</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>33.90992481915942</v>
+        <v>35.22402815001691</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>11.23111735872058</v>
+        <v>5.125215408002369</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.16802610434556</v>
+        <v>30.41505399358261</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>33.08388210676506</v>
+        <v>34.07976107283878</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>11.70819880775258</v>
+        <v>4.937589868075289</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>42.46929411549348</v>
+        <v>48.97886278552825</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>14.28002139132525</v>
+        <v>7.454189455994559</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>26.76388463669288</v>
+        <v>28.06723872346786</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.25947649743664</v>
+        <v>32.85170638957918</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>11.23496650468152</v>
+        <v>4.706465805588476</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>32.22788175867134</v>
+        <v>36.92196767096733</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>38.21730100638786</v>
+        <v>43.73338041823126</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>11.5908197738208</v>
+        <v>4.403163949084409</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>46.58669544002538</v>
+        <v>56.50272429070566</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>47.73339612953303</v>
+        <v>57.11967555694041</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>43.2727215117184</v>
+        <v>48.32556069343399</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>47.92151010438246</v>
+        <v>55.76981697967376</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>50.07633547418041</v>
+        <v>57.33514255611735</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>13.87503205725956</v>
+        <v>7.348828088471272</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.24976727395067</v>
+        <v>36.82760457795556</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>37.31982658814753</v>
+        <v>36.91281245981614</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>16.34507298480787</v>
+        <v>12.88150710358714</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.9018222952656</v>
+        <v>32.31534964781192</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>32.59993332368966</v>
+        <v>34.10358718007561</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>11.4579257935336</v>
+        <v>5.413425342990006</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.11640881420267</v>
+        <v>30.3558424757484</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>32.95871895367297</v>
+        <v>35.46091150422994</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>11.34380019350633</v>
+        <v>4.724309347285985</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>39.44298698193539</v>
+        <v>45.95379132511011</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.43358360530552</v>
+        <v>30.7532808805401</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>26.68204676075685</v>
+        <v>26.42238209139923</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>36.47847343822574</v>
+        <v>40.92832258488253</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>38.95739977529827</v>
+        <v>43.85659087744892</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>16.66520234779439</v>
+        <v>12.87578263206156</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>24.06738097809169</v>
+        <v>24.28439536535621</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>30.08306815837155</v>
+        <v>31.32068343912533</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>19.92350456441562</v>
+        <v>17.62921897386702</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.95417337080579</v>
+        <v>31.36147891098704</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>34.18795124532306</v>
+        <v>36.49508974991878</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>10.92449856021575</v>
+        <v>4.746214484366583</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>17.76179301115219</v>
+        <v>14.97995232762528</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>24.02517917046365</v>
+        <v>22.95489955468732</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>12.55092090548054</v>
+        <v>5.84292415635484</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>30.67642265744099</v>
+        <v>33.12237540053264</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>44.40525593482018</v>
+        <v>51.52804087415085</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.66038909634294</v>
+        <v>30.41375522681666</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>41.43650838927317</v>
+        <v>47.00910638550947</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>46.58801377718255</v>
+        <v>53.78576602511582</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>16.3029456725309</v>
+        <v>13.63831795682668</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>27.6402965789965</v>
+        <v>28.98580098094843</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>36.57619737830973</v>
+        <v>40.81557080783806</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>51.49293197297917</v>
+        <v>58.25937219184351</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>47.27774735829356</v>
+        <v>56.85817626013024</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>54.61336840232126</v>
+        <v>65.78044813913479</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>53.58361892155382</v>
+        <v>64.468716287871</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>23.47413301699757</v>
+        <v>24.09244192694448</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>49.03955271984839</v>
+        <v>57.91429721692936</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>51.16625183586084</v>
+        <v>60.10153443947095</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.27242429535137</v>
+        <v>27.69543441937981</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>38.8154867828049</v>
+        <v>43.09405303267785</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>38.9382498196649</v>
+        <v>41.75651943910155</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>12.05797036466478</v>
+        <v>6.134790310212601</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>37.97408305385768</v>
+        <v>41.24323916089877</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>37.78863569184033</v>
+        <v>40.62431559268024</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>13.98684673764702</v>
+        <v>7.391300849305647</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>54.42560474631941</v>
+        <v>64.01787701192829</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>55.22190619779822</v>
+        <v>64.72964098311364</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>59.19927995992134</v>
+        <v>69.62201199711966</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>63.26894280437814</v>
+        <v>75.68185559482239</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>65.61669028801663</v>
+        <v>78.26537667747667</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.60434577786935</v>
+        <v>32.61478878613809</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>59.52680410052897</v>
+        <v>71.03119246402882</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>60.44110717836699</v>
+        <v>71.03781327271986</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>49.6613982927115</v>
+        <v>57.16765136003449</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>44.2566856328902</v>
+        <v>51.98300815043586</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>49.73698879784358</v>
+        <v>58.99328975554539</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>53.1226069414732</v>
+        <v>62.91812806329553</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>18.99130680952385</v>
+        <v>17.63932333310155</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>46.86140024647824</v>
+        <v>53.45021121350878</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>48.76845010666165</v>
+        <v>55.14393426157421</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.48820497335219</v>
+        <v>19.95801125564174</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>35.69464365781796</v>
+        <v>39.71122561824485</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>36.77605864493223</v>
+        <v>39.53296699971402</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>11.27471133849702</v>
+        <v>4.396560517914367</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>34.46159514905813</v>
+        <v>36.76746553850864</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.88103346926576</v>
+        <v>38.28582648167328</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>13.04506757936505</v>
+        <v>6.404826935213425</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>51.20629115359181</v>
+        <v>59.04504158109235</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>55.63906271484217</v>
+        <v>64.56138586670494</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>56.40069642775345</v>
+        <v>65.7297594449597</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>61.37224518095005</v>
+        <v>73.11103399449924</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>65.91300217625196</v>
+        <v>78.67281592025647</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>22.83160702938368</v>
+        <v>23.05018327167445</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>56.69952428947078</v>
+        <v>67.31678558452293</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>58.69378013443107</v>
+        <v>67.78931632237206</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>48.95695749330051</v>
+        <v>56.95690920922517</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>31.81459155257736</v>
+        <v>36.23792007008057</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>37.5245561609129</v>
+        <v>43.88895535514125</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>43.50476621392395</v>
+        <v>49.73227049906312</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>16.20574338865991</v>
+        <v>13.83465639264513</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>42.07827809815106</v>
+        <v>51.3474950641568</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>48.04169515288726</v>
+        <v>55.36788742188461</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>18.72652813209653</v>
+        <v>16.80502808700454</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>36.47747483428769</v>
+        <v>41.35492509070789</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>38.94140229412589</v>
+        <v>42.63178723792797</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>11.80411613102095</v>
+        <v>5.598240770012556</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>35.7690520447523</v>
+        <v>39.77416132699169</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>40.41637871542481</v>
+        <v>45.03885743119338</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>12.512124088161</v>
+        <v>5.831033005371136</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>48.87972225878596</v>
+        <v>57.44619760304592</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>56.60809730324077</v>
+        <v>66.74305083007722</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>52.574746654959</v>
+        <v>60.43404364322757</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>56.7854713405818</v>
+        <v>68.04175118283922</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>64.25419566191424</v>
+        <v>77.33243826625954</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>19.18628592527367</v>
+        <v>18.87749113242855</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>56.33193376718403</v>
+        <v>67.80717410000341</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>61.18195685160315</v>
+        <v>72.65409491213254</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>16.2541264679959</v>
+        <v>11.58709020455573</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>20.47736792945857</v>
+        <v>16.8509637354672</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>25.04151247713325</v>
+        <v>23.03092087484664</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>8.865707951715294</v>
+        <v>1.934023977649399</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>17.81097741254759</v>
+        <v>12.29834191406461</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.69273014004226</v>
+        <v>14.4763457692171</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>10.37395403299512</v>
+        <v>4.165355894659644</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>30.4655365501574</v>
+        <v>28.84018415861988</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>33.26319439836049</v>
+        <v>32.26572735959755</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>20.35271120201088</v>
+        <v>15.31028790057861</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>23.32288565960672</v>
+        <v>19.07825142811568</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>24.62249010813488</v>
+        <v>19.94819756683938</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>15.64545929108923</v>
+        <v>11.14087870055013</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>18.96745991155195</v>
+        <v>15.26694193693238</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>26.82581381276716</v>
+        <v>25.35795197923129</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>14.91508183618585</v>
+        <v>9.153259176541415</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>23.30868059139109</v>
+        <v>20.57328827090842</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.60909451814724</v>
+        <v>23.24550495647732</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>8.634876702676635</v>
+        <v>0.7624974148280934</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>13.74856388445948</v>
+        <v>6.411640294684602</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>16.21264145642188</v>
+        <v>10.06170005380971</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>9.125072897698164</v>
+        <v>2.51658779240028</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>22.86000859315595</v>
+        <v>18.38983124638029</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>19.33636019767432</v>
+        <v>13.82135420741228</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>27.40659794560476</v>
+        <v>24.01876987372253</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.36182795368451</v>
+        <v>25.04155839391209</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>9.094646508721883</v>
+        <v>1.589628797705135</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>26.94112022101854</v>
+        <v>23.69849315001468</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>27.88188184121583</v>
+        <v>24.73232057947489</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>10.98931502234635</v>
+        <v>4.844304041647995</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>37.89996290313891</v>
+        <v>38.22154452594292</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>37.46467251013807</v>
+        <v>37.51341344098014</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>36.36672393568217</v>
+        <v>35.54039185705844</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>39.80105777373896</v>
+        <v>41.10012806282285</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>41.7564562330156</v>
+        <v>43.89700202559402</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>20.125935906114</v>
+        <v>17.0334346174671</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>38.22287710512592</v>
+        <v>40.88451579248544</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>40.11554501839626</v>
+        <v>43.17992153413657</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>17.32821673936282</v>
+        <v>11.96256397098653</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>27.70796134536517</v>
+        <v>24.69691002802437</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.25510719052799</v>
+        <v>26.72126629034357</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>8.367638280896735</v>
+        <v>0.6840540334908454</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.30495432173635</v>
+        <v>21.45526552418712</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.30104357769747</v>
+        <v>23.99266696298874</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>9.189539235696706</v>
+        <v>2.42084084084582</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>38.35520321026859</v>
+        <v>37.27714716258853</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>11.53571052339139</v>
+        <v>6.220704815135072</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>21.46876786887305</v>
+        <v>18.61418793762945</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>25.01642483697021</v>
+        <v>22.66502233401762</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>8.698873388556944</v>
+        <v>1.421548981440719</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>26.13733298943748</v>
+        <v>22.58467196791637</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>27.54911641225161</v>
+        <v>24.30642472521975</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>12.06950802015571</v>
+        <v>6.761097933088315</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>37.72596136890111</v>
+        <v>38.27772367675072</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>38.52654081956457</v>
+        <v>39.39357852282155</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>39.07901805274659</v>
+        <v>39.006276057996</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>42.55070930211454</v>
+        <v>41.38453782528491</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>43.1770841286572</v>
+        <v>46.25255194533305</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>11.18969708771344</v>
+        <v>6.529463317984025</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.91521594361079</v>
+        <v>29.74660503335478</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>31.36891621192661</v>
+        <v>32.89887837539939</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>13.26572724418035</v>
+        <v>7.671782082279623</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>25.90498102514332</v>
+        <v>22.61449582545638</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.6051343038243</v>
+        <v>26.77459904537316</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>8.128861408126209</v>
+        <v>0.6659363248859194</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>21.59074012413005</v>
+        <v>16.66875089292448</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.87055838601651</v>
+        <v>25.11860503607834</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>9.488323248652055</v>
+        <v>3.675592104288803</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>32.84838750959588</v>
+        <v>32.02415990355894</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>11.42696606430789</v>
+        <v>4.659335260397974</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>19.8376371996909</v>
+        <v>14.54086913671054</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>24.60317223567901</v>
+        <v>21.65054683793938</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>8.570455107119351</v>
+        <v>0.8532150044786526</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>24.90480235602588</v>
+        <v>21.61156625586738</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.91991282550694</v>
+        <v>27.70195156780297</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>8.975350733611883</v>
+        <v>1.480004457596912</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>34.89295612138767</v>
+        <v>33.64560818349764</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>38.69507411290845</v>
+        <v>39.27177401930977</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>33.64692952409425</v>
+        <v>31.78610757568969</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.93452435718844</v>
+        <v>36.2691991281083</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>40.40585813889044</v>
+        <v>41.35050779105833</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>11.22214872226682</v>
+        <v>4.931016522955399</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.80653957342138</v>
+        <v>27.77970567756262</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>35.19156910921395</v>
+        <v>35.8683068006757</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>11.65649112460686</v>
+        <v>4.388376521529967</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>23.05370484746918</v>
+        <v>19.51305911889269</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>27.23234897242462</v>
+        <v>24.90093575360266</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>8.580609818286003</v>
+        <v>0.3611912222760978</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>20.54670778835235</v>
+        <v>15.9514651741806</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>27.16702290345412</v>
+        <v>24.81884136471884</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>8.553329941183513</v>
+        <v>1.22460150247467</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.44798002473274</v>
+        <v>26.79034072907886</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>22.23575028669534</v>
+        <v>19.44701769260792</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>20.96086547914421</v>
+        <v>15.09758181705788</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.17931444583967</v>
+        <v>25.88940358847699</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>30.92465899877098</v>
+        <v>28.17254464441828</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>12.27304499367123</v>
+        <v>5.924659607170181</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>18.41726182469079</v>
+        <v>13.00104886591276</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>23.21302167573104</v>
+        <v>18.82466646246839</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>17.78495153459508</v>
+        <v>14.54110884050568</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>26.99958037544708</v>
+        <v>25.59696850324404</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.65248230520086</v>
+        <v>31.87659141754296</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>8.189499940727337</v>
+        <v>0.08926015430621703</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>14.16265619634035</v>
+        <v>7.341403520299309</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>19.70741495586338</v>
+        <v>14.87281521619967</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>10.19936453992664</v>
+        <v>3.667686007761954</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>26.10531334129799</v>
+        <v>24.26038062921844</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>38.55649042138447</v>
+        <v>39.92989112235294</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>24.56024660730096</v>
+        <v>21.91672504615379</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.20622943745632</v>
+        <v>34.16770780265507</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.53749895763012</v>
+        <v>40.08065429203173</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>12.89680299517641</v>
+        <v>6.987503482749425</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>23.14009845132727</v>
+        <v>19.8296519513157</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>31.27490690351693</v>
+        <v>30.10781290691327</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>42.491929847478</v>
+        <v>42.02759200936482</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.72618861698079</v>
+        <v>38.93853904156813</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>45.15675735729234</v>
+        <v>46.93491293892211</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>43.99064508613847</v>
+        <v>45.30455202826507</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>17.3773962256582</v>
+        <v>13.3134989308716</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>40.71529331452939</v>
+        <v>41.54749912044835</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>42.83452497882594</v>
+        <v>44.51717193485489</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>25.36824036097216</v>
+        <v>23.13888232538538</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>35.02152824191398</v>
+        <v>35.60985278186141</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>36.89998509685872</v>
+        <v>38.07407767826341</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>9.634836726809784</v>
+        <v>2.282754558813632</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>34.22044221284646</v>
+        <v>33.90150575567957</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.25086785458656</v>
+        <v>35.2846884290629</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>13.81174134846375</v>
+        <v>8.94543981879443</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>50.89045966556252</v>
+        <v>56.87609705116114</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>51.71551587617563</v>
+        <v>56.51033837526437</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>57.90470040951432</v>
+        <v>65.75591276157604</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>61.40848379594865</v>
+        <v>69.46865461444328</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>63.72972176234421</v>
+        <v>70.73258628878941</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.64820917700529</v>
+        <v>30.57612357167839</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>56.00081069475322</v>
+        <v>62.70511471556934</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>58.11979420205927</v>
+        <v>65.30224465226705</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>42.29619587068954</v>
+        <v>43.05172453148434</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>34.26782513119847</v>
+        <v>32.57520005099313</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>39.6286164058984</v>
+        <v>39.79856446675144</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>43.67695125400295</v>
+        <v>44.37974085538841</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>12.90523534381163</v>
+        <v>7.271425034121464</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>38.41635322920852</v>
+        <v>38.05802382428259</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.26711377641973</v>
+        <v>41.99502660505433</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>18.72316809398423</v>
+        <v>16.1217148403961</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>31.99997292496367</v>
+        <v>32.66785787977566</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>35.33604827766109</v>
+        <v>37.25719502391887</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>8.754926030945416</v>
+        <v>1.009008549123177</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.1746243742993</v>
+        <v>30.17046541568224</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>34.76756209830762</v>
+        <v>34.6600803788367</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>13.24278828657792</v>
+        <v>8.943882637801455</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>47.66184787717287</v>
+        <v>53.25609120183322</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>53.2440248821656</v>
+        <v>59.1959418452478</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>54.33244582602223</v>
+        <v>62.22463164130906</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>59.34767630774547</v>
+        <v>68.23103887001743</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>63.8977560421439</v>
+        <v>73.1028689768503</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>21.62935680346718</v>
+        <v>21.36267754785426</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>53.7212204153423</v>
+        <v>60.63772189602417</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>57.9139860304254</v>
+        <v>65.74024395981772</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>40.54227948111652</v>
+        <v>41.35179960346267</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>23.84166261347358</v>
+        <v>19.57630154437305</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.00731529450668</v>
+        <v>25.94169895983739</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>34.61689346733208</v>
+        <v>32.53850127243277</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>11.38153080819134</v>
+        <v>4.054483278763012</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>33.73233294072404</v>
+        <v>34.03031299449431</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>39.94977134930973</v>
+        <v>41.13945454255731</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>16.51435156266568</v>
+        <v>12.37495536907141</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>32.08961060020646</v>
+        <v>32.80088033399007</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>37.10561616858898</v>
+        <v>38.56465366339147</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>9.223303599430384</v>
+        <v>1.252923901007801</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.97202912937731</v>
+        <v>30.59261419386792</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>37.13786709525947</v>
+        <v>38.49264920869702</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>10.95123174245524</v>
+        <v>4.368410254165052</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>44.36943213671628</v>
+        <v>49.09071972545603</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>53.81433030543523</v>
+        <v>59.9287743667805</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>47.62626999921086</v>
+        <v>52.78959609364003</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>53.75358787939098</v>
+        <v>60.41418953118638</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>60.90044917334589</v>
+        <v>68.7746703219687</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>16.10233583318763</v>
+        <v>11.42877915719491</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>50.08673371422097</v>
+        <v>55.53887937779663</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>58.78160741429549</v>
+        <v>66.52410301507277</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>11.74939793980076</v>
+        <v>10.27318318171663</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>14.51339418101717</v>
+        <v>16.89109806136245</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>24.08931293598067</v>
+        <v>26.69833763515612</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>3.551656088729327</v>
+        <v>2.442912225351098</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>13.97672006942357</v>
+        <v>17.23382214216822</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>16.65198174490259</v>
+        <v>19.69655060597875</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>8.055026406912535</v>
+        <v>7.944934455333097</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>31.23575703040624</v>
+        <v>34.49859846570629</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>33.30956158199169</v>
+        <v>37.69174031277193</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>13.47015149479998</v>
+        <v>16.04159540863696</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>17.92328474968027</v>
+        <v>22.89342091535658</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>20.74692184597676</v>
+        <v>26.53468916933603</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>15.79855406341717</v>
+        <v>13.62306457711195</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>14.77568838805665</v>
+        <v>14.17282710404901</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.95742158089214</v>
+        <v>28.27662273616775</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>12.35467832744041</v>
+        <v>11.48214313012697</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>27.95668451647464</v>
+        <v>29.88833077372249</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>35.05089237965597</v>
+        <v>36.86139935502217</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>3.946796356751271</v>
+        <v>1.920116266997727</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>10.95179757031189</v>
+        <v>10.88521714738578</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>14.95064967744118</v>
+        <v>15.1413273470951</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>2.903709481446977</v>
+        <v>1.781805232193392</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>23.02506970954967</v>
+        <v>23.73268103759689</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>19.70139083108441</v>
+        <v>17.88057042437568</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>27.57311351842413</v>
+        <v>28.5467123461396</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.98069745461977</v>
+        <v>30.10221433842927</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>3.723880300875472</v>
+        <v>1.899789096116759</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>30.82145718379429</v>
+        <v>32.88417615685056</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>33.41345114746364</v>
+        <v>37.3866615657876</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>7.300765121934351</v>
+        <v>6.793330842740122</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>45.55888986440671</v>
+        <v>50.50152866768796</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>42.52958572432382</v>
+        <v>48.55913914710355</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>42.6850855715729</v>
+        <v>47.41419287806774</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>50.34939190901425</v>
+        <v>55.52775470003057</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>50.72091753402315</v>
+        <v>54.96929375490238</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>19.51439589345638</v>
+        <v>19.19323277599188</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>35.0669383692761</v>
+        <v>40.88902321041335</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>38.43494033280508</v>
+        <v>45.53766759689071</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>19.51945037392695</v>
+        <v>20.01505895370422</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>38.02762889349111</v>
+        <v>41.02103552004047</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>40.89564604788958</v>
+        <v>43.75530815416231</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>4.740534333414853</v>
+        <v>3.946308458460965</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>33.41766834662977</v>
+        <v>35.24268921007837</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>40.11731216888245</v>
+        <v>42.91141013282869</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>4.404696357452565</v>
+        <v>3.570616019488192</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>56.1109422676049</v>
+        <v>58.32822107866016</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>8.105406239777963</v>
+        <v>6.910471477263897</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>19.3878570339966</v>
+        <v>19.75806446264737</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>23.53022943521206</v>
+        <v>25.71740655316901</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>1.271553162297998</v>
+        <v>0.005271701478768875</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>26.97156013090075</v>
+        <v>29.2891252342733</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>30.64241356400167</v>
+        <v>33.31701838941399</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>5.043702050765162</v>
+        <v>4.208870551259967</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>41.26233579271309</v>
+        <v>45.92890371547101</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>44.76586100640215</v>
+        <v>49.59547074740176</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>45.59437338564335</v>
+        <v>50.20932084526198</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>51.59623422630293</v>
+        <v>54.56494435780685</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>53.39602765840849</v>
+        <v>56.76244529470206</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>8.451858463170886</v>
+        <v>9.263823125056657</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>26.77747248234082</v>
+        <v>30.1440128986767</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.82521411338145</v>
+        <v>35.41372277861328</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>11.18600754669059</v>
+        <v>10.54633955692704</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>31.08039442271566</v>
+        <v>32.93315943951139</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>39.97032881926436</v>
+        <v>41.32074861384319</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>3.333564773179319</v>
+        <v>2.04034335623907</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>25.23859981203906</v>
+        <v>26.46422802158932</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>39.92156733030978</v>
+        <v>41.94240428257459</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>2.771147270690019</v>
+        <v>1.092634407516115</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>41.04959428346636</v>
+        <v>48.40329553267426</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>5.742351102525934</v>
+        <v>4.037467091659291</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>16.41483501359906</v>
+        <v>16.24819176176518</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>22.52879421214766</v>
+        <v>24.76559473925348</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>1.910383856411421</v>
+        <v>0.6519891120102805</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>26.86694760663376</v>
+        <v>30.72233269847761</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>32.59998109499214</v>
+        <v>35.87999738759002</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>3.273029947682836</v>
+        <v>1.953175252563327</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>39.95481940049592</v>
+        <v>45.15173491599951</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>44.64853227325486</v>
+        <v>50.25457725895411</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>37.25881384624029</v>
+        <v>39.02202265494563</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>42.28306312442861</v>
+        <v>45.72771304207313</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>46.72425411628456</v>
+        <v>48.45382786424273</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>7.196303268983659</v>
+        <v>7.809087089810191</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>21.50739459174193</v>
+        <v>24.90722407635315</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>30.7387357021804</v>
+        <v>36.92265878226253</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>8.819234178839153</v>
+        <v>7.830791706348919</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>27.78355852846758</v>
+        <v>30.08265198800396</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>37.33668140993593</v>
+        <v>40.99609123769709</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>4.404933346130946</v>
+        <v>2.624197587311798</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>24.40182760421121</v>
+        <v>25.25317323361832</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>39.12867128589266</v>
+        <v>41.26980187662684</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>2.438541277954798</v>
+        <v>-0.06623790988352951</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>38.73953566282187</v>
+        <v>41.05449795532516</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>27.10022059957932</v>
+        <v>30.23419285344599</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.15412298784945</v>
+        <v>24.10810786660892</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>45.02987440291605</v>
+        <v>49.01564031569359</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>51.88134914591922</v>
+        <v>57.40115862819331</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>7.033917626117312</v>
+        <v>6.333680543746947</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>18.11137536826286</v>
+        <v>19.11251534521134</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>27.9646067167102</v>
+        <v>30.1562238378243</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>14.93040951004367</v>
+        <v>14.13614915452122</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>27.62096892124278</v>
+        <v>29.77699730453864</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>37.74212763663289</v>
+        <v>41.09460546793608</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>3.217393590153517</v>
+        <v>1.873225685737555</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>9.125929656758782</v>
+        <v>8.949455501752748</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>13.72515630602432</v>
+        <v>14.14957301982591</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>3.648885060323597</v>
+        <v>2.474931602106778</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>21.19880903419618</v>
+        <v>23.39184473857868</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>34.99070151571486</v>
+        <v>40.99386984817646</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>25.5758915298411</v>
+        <v>27.51231162572148</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>47.19778023149351</v>
+        <v>51.24663046199711</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>54.72085637563842</v>
+        <v>59.49936386560812</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>7.228269186072865</v>
+        <v>7.027350076783669</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>19.44893222135458</v>
+        <v>22.46119313259409</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.67501277668953</v>
+        <v>31.28707301849502</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>65.15525064851018</v>
+        <v>70.87101530975963</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>60.10911813118868</v>
+        <v>61.39333982023744</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>72.9469227689392</v>
+        <v>77.45706120515321</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>74.51021794752249</v>
+        <v>82.14098609411896</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>22.02502421223544</v>
+        <v>22.94323986758269</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>71.099474948151</v>
+        <v>71.54365782838606</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>73.38558102487121</v>
+        <v>80.45543633810567</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>27.31146174421853</v>
+        <v>26.66543693182368</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>44.35703145450597</v>
+        <v>46.7904089590898</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>47.7866290949437</v>
+        <v>50.73100580645414</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>6.185767905549145</v>
+        <v>4.952404139483701</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>39.94939426196046</v>
+        <v>45.80562156468723</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>48.59039973143065</v>
+        <v>52.26191031188155</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>9.912161140100959</v>
+        <v>8.388755451945979</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>72.56735076294112</v>
+        <v>75.89717108411512</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>74.1424880411448</v>
+        <v>79.35008640277564</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>78.58373663562067</v>
+        <v>84.94360772577403</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>86.15141049714276</v>
+        <v>93.25303795940967</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>90.92582009695062</v>
+        <v>96.71739743154841</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>34.81430065616432</v>
+        <v>34.06984711981604</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>86.5751110988021</v>
+        <v>92.53523046694458</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>87.65674910400922</v>
+        <v>93.9890265994226</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>67.34492014074253</v>
+        <v>72.05871465212988</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>43.20245911976504</v>
+        <v>50.06300643273406</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>55.92787576797228</v>
+        <v>62.88234965933383</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>74.48288022647766</v>
+        <v>79.0930862318074</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>13.19613923819171</v>
+        <v>12.69741182078751</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>58.76431534373182</v>
+        <v>64.51600414417098</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>69.99677817174698</v>
+        <v>76.16872176688379</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>13.80546262220961</v>
+        <v>12.84482682675967</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>36.70365648944458</v>
+        <v>38.29896209304452</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>44.3954812469413</v>
+        <v>45.93895789431183</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>4.053645440723205</v>
+        <v>2.674484905682995</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.86309517344377</v>
+        <v>41.44672708983334</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>50.13347190676311</v>
+        <v>52.40945469055794</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>4.473043253528477</v>
+        <v>4.071363304604766</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>61.2737419513273</v>
+        <v>67.39114173594005</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>75.37445864383835</v>
+        <v>80.82777038983218</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>71.75536030494456</v>
+        <v>78.96650393666904</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>82.35198276684915</v>
+        <v>89.14065922454114</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>89.75123315804579</v>
+        <v>95.05890388371257</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>22.0388808079264</v>
+        <v>20.3101675813222</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>77.56639934724099</v>
+        <v>85.33864025214636</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>85.16574090986416</v>
+        <v>92.75210376951841</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>64.80477305104824</v>
+        <v>69.5813585356216</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>30.16731013085184</v>
+        <v>32.52421202308044</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>41.27530439228074</v>
+        <v>45.29963562213418</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>56.97417606284666</v>
+        <v>63.33139628514613</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>9.831953372981562</v>
+        <v>8.860538169502181</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>49.9352341847369</v>
+        <v>56.56454781070548</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>65.26313703725842</v>
+        <v>71.81319674406576</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>12.83684473241425</v>
+        <v>11.27258265557819</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>36.95494148025736</v>
+        <v>38.75291342792922</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>48.87594250069577</v>
+        <v>51.52881361744447</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>5.207450434344949</v>
+        <v>4.017123599659275</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>37.45873417129076</v>
+        <v>39.23084642038525</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>51.01476046273454</v>
+        <v>55.26322749532926</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>3.205807576353347</v>
+        <v>2.05221284419823</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>58.20429575882108</v>
+        <v>62.55585321510536</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>77.16123976884271</v>
+        <v>82.37288565396575</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>65.45223811108978</v>
+        <v>70.20055044936561</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>79.16744520293183</v>
+        <v>87.76312930374031</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>91.01432911503682</v>
+        <v>97.21261715286292</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>16.4489011809565</v>
+        <v>15.81831683068234</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>75.50988442506549</v>
+        <v>77.75377471793141</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>84.62650093310667</v>
+        <v>91.29988558080439</v>
       </c>
     </row>
   </sheetData>
